--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_591.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_591.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32596-d235433-Reviews-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Quality-Inn-Suites-Irvine-Spectrum.h3802.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_591.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_591.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1900 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r589777395-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>32596</t>
+  </si>
+  <si>
+    <t>235433</t>
+  </si>
+  <si>
+    <t>589777395</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>06/22/18</t>
+  </si>
+  <si>
+    <t>I wish i could leave a 0 star...... It was the worst experience of my life. As soon we are entered to the hotel for check-in, front desk was so rude with sarcasm her name is Penny she is the manager is the rudest person I have ever met. We were in shock. There were cockroaches in the room, on the table, in the shower, and on the beds. We had to complain 3 times. The people from the front desk were so rude not helpful to us……how it's possible?! We were so stressful and one my friend just cry because the vacation was spoiled. I never ever in my life didn’t see service like that. Manager Penny she was had no reaction on that, she said:" it's your problems, something else ?" We are very disappointed. Stay away from this hotel and manager Penny Fleming, it's the rudest person I ever met in my life.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I wish i could leave a 0 star...... It was the worst experience of my life. As soon we are entered to the hotel for check-in, front desk was so rude with sarcasm her name is Penny she is the manager is the rudest person I have ever met. We were in shock. There were cockroaches in the room, on the table, in the shower, and on the beds. We had to complain 3 times. The people from the front desk were so rude not helpful to us……how it's possible?! We were so stressful and one my friend just cry because the vacation was spoiled. I never ever in my life didn’t see service like that. Manager Penny she was had no reaction on that, she said:" it's your problems, something else ?" We are very disappointed. Stay away from this hotel and manager Penny Fleming, it's the rudest person I ever met in my life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r586784047-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>586784047</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service.</t>
+  </si>
+  <si>
+    <t>A reservation problem prior to our stay at Quality Inns &amp; Suites Irvine Spectrum was fixed by the G.M. Penny, pleasantly and professionally in one phone call when Expedia refused to help.  Thanks you!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r579524208-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>579524208</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Service and Quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is by far the best service and priced hotel in Orange County. Penny, Linda and Jim have always taken care of me. The best service around. The staff is professional and friendly. Very hard working and always ready to help. Thank You again. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r540779715-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>540779715</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>The worst hotel we've ever stayed at</t>
+  </si>
+  <si>
+    <t>We've stayed at several Choice Hotel properties in the past, with good service and value.  This hotel is not as nice as any of the others in the brand.  
+We looked at this hotel prior to our stay and were shown a nice "renovated" room.  When reserving on-line, we requested a "renovated" room for 2 people.  Got a room with a broken front door handle, with peeling paint, mold in the shower, rusty shower fixtures, stained carpeting, 2 bath towels and 1 set of very small toiletries.  Asked for extra towels and another shampoo/conditioner; was told we had to wait until morning.  Walkway to the room had safety cones placed around broken, unglued floor tiles that moved.  Breakfast items were very sparse; the scrambled eggs weren't real and the sausages looked pretty bad.  Breakfast cabinet doors were padlocked, which really makes a guest worry about safety/theft in the hotel overall.  Our room had no soundproofing; we could hear everything from next door and the hallway.  We were told when checking out, since we were leaving early, we couldn't be checked out or receive the final bill as reservation was made on-line.  And that a general manager had to OK our bill since we booked on-line, and she wasn't in for awhile.  We've traveled for over 30 years in many hotels in the US and overseas; and have never been told we couldn't be checked out of a hotel.  Very disappointing...We've stayed at several Choice Hotel properties in the past, with good service and value.  This hotel is not as nice as any of the others in the brand.  We looked at this hotel prior to our stay and were shown a nice "renovated" room.  When reserving on-line, we requested a "renovated" room for 2 people.  Got a room with a broken front door handle, with peeling paint, mold in the shower, rusty shower fixtures, stained carpeting, 2 bath towels and 1 set of very small toiletries.  Asked for extra towels and another shampoo/conditioner; was told we had to wait until morning.  Walkway to the room had safety cones placed around broken, unglued floor tiles that moved.  Breakfast items were very sparse; the scrambled eggs weren't real and the sausages looked pretty bad.  Breakfast cabinet doors were padlocked, which really makes a guest worry about safety/theft in the hotel overall.  Our room had no soundproofing; we could hear everything from next door and the hallway.  We were told when checking out, since we were leaving early, we couldn't be checked out or receive the final bill as reservation was made on-line.  And that a general manager had to OK our bill since we booked on-line, and she wasn't in for awhile.  We've traveled for over 30 years in many hotels in the US and overseas; and have never been told we couldn't be checked out of a hotel.  Very disappointing stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We've stayed at several Choice Hotel properties in the past, with good service and value.  This hotel is not as nice as any of the others in the brand.  
+We looked at this hotel prior to our stay and were shown a nice "renovated" room.  When reserving on-line, we requested a "renovated" room for 2 people.  Got a room with a broken front door handle, with peeling paint, mold in the shower, rusty shower fixtures, stained carpeting, 2 bath towels and 1 set of very small toiletries.  Asked for extra towels and another shampoo/conditioner; was told we had to wait until morning.  Walkway to the room had safety cones placed around broken, unglued floor tiles that moved.  Breakfast items were very sparse; the scrambled eggs weren't real and the sausages looked pretty bad.  Breakfast cabinet doors were padlocked, which really makes a guest worry about safety/theft in the hotel overall.  Our room had no soundproofing; we could hear everything from next door and the hallway.  We were told when checking out, since we were leaving early, we couldn't be checked out or receive the final bill as reservation was made on-line.  And that a general manager had to OK our bill since we booked on-line, and she wasn't in for awhile.  We've traveled for over 30 years in many hotels in the US and overseas; and have never been told we couldn't be checked out of a hotel.  Very disappointing...We've stayed at several Choice Hotel properties in the past, with good service and value.  This hotel is not as nice as any of the others in the brand.  We looked at this hotel prior to our stay and were shown a nice "renovated" room.  When reserving on-line, we requested a "renovated" room for 2 people.  Got a room with a broken front door handle, with peeling paint, mold in the shower, rusty shower fixtures, stained carpeting, 2 bath towels and 1 set of very small toiletries.  Asked for extra towels and another shampoo/conditioner; was told we had to wait until morning.  Walkway to the room had safety cones placed around broken, unglued floor tiles that moved.  Breakfast items were very sparse; the scrambled eggs weren't real and the sausages looked pretty bad.  Breakfast cabinet doors were padlocked, which really makes a guest worry about safety/theft in the hotel overall.  Our room had no soundproofing; we could hear everything from next door and the hallway.  We were told when checking out, since we were leaving early, we couldn't be checked out or receive the final bill as reservation was made on-line.  And that a general manager had to OK our bill since we booked on-line, and she wasn't in for awhile.  We've traveled for over 30 years in many hotels in the US and overseas; and have never been told we couldn't be checked out of a hotel.  Very disappointing stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r533578114-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>533578114</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>I will stay here again!</t>
+  </si>
+  <si>
+    <t>From the start almost to the finish, our stay here was stellar. Diego at the front desk was very welcoming and cordial during checkin. The hotel lobby and breakfast area are quite large, nicely appointed and very inviting. The room was very nice, absolutely spotless, the bed, in fact the entire room and the lobby appear to have been updated recently. The room was very spacious, in fact, large enough for a sleeper sofa that looked like it would make into a second king size bed. 
+The room included a small balcony overlooking the street below. 
+The flat screen tv was very nice and functioned flawlessly. 
+The refrigerator was standard issue for a motel room, or a small apartment! 
+We did not have enough time to experience the swimming pool, or a jacuzzi that we spotted on the ground floor. 
+The hotel also has an Oriental Restaurant on site, but, alas, we did not have occasion to experience the restaurant. 
+The only reason I didn't give this hotel a 5 was breakfast. The omelet was okay, the sausages were good, but the banner ad in the lobby lead me to believe there would be  a hot waffle available.... wrong. They do have a pancake making machine, but it was very disappointing. Each push of button yielded two thin, pancakes smaller than the palm of my hand. The pancakes were rubbery and difficult to cut with the plastic cutlery provided. There...From the start almost to the finish, our stay here was stellar. Diego at the front desk was very welcoming and cordial during checkin. The hotel lobby and breakfast area are quite large, nicely appointed and very inviting. The room was very nice, absolutely spotless, the bed, in fact the entire room and the lobby appear to have been updated recently. The room was very spacious, in fact, large enough for a sleeper sofa that looked like it would make into a second king size bed. The room included a small balcony overlooking the street below. The flat screen tv was very nice and functioned flawlessly. The refrigerator was standard issue for a motel room, or a small apartment! We did not have enough time to experience the swimming pool, or a jacuzzi that we spotted on the ground floor. The hotel also has an Oriental Restaurant on site, but, alas, we did not have occasion to experience the restaurant. The only reason I didn't give this hotel a 5 was breakfast. The omelet was okay, the sausages were good, but the banner ad in the lobby lead me to believe there would be  a hot waffle available.... wrong. They do have a pancake making machine, but it was very disappointing. Each push of button yielded two thin, pancakes smaller than the palm of my hand. The pancakes were rubbery and difficult to cut with the plastic cutlery provided. There were other options, bagles, bread, etc. some fruit, plenty of juice and coffee; but I'm a fan of a well made waffle and really had my tastebuds ready for  a crisp golden brown waffle. Bummer dude!All in all, I would stay here again if given the opportunity, but I will probably skip breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>From the start almost to the finish, our stay here was stellar. Diego at the front desk was very welcoming and cordial during checkin. The hotel lobby and breakfast area are quite large, nicely appointed and very inviting. The room was very nice, absolutely spotless, the bed, in fact the entire room and the lobby appear to have been updated recently. The room was very spacious, in fact, large enough for a sleeper sofa that looked like it would make into a second king size bed. 
+The room included a small balcony overlooking the street below. 
+The flat screen tv was very nice and functioned flawlessly. 
+The refrigerator was standard issue for a motel room, or a small apartment! 
+We did not have enough time to experience the swimming pool, or a jacuzzi that we spotted on the ground floor. 
+The hotel also has an Oriental Restaurant on site, but, alas, we did not have occasion to experience the restaurant. 
+The only reason I didn't give this hotel a 5 was breakfast. The omelet was okay, the sausages were good, but the banner ad in the lobby lead me to believe there would be  a hot waffle available.... wrong. They do have a pancake making machine, but it was very disappointing. Each push of button yielded two thin, pancakes smaller than the palm of my hand. The pancakes were rubbery and difficult to cut with the plastic cutlery provided. There...From the start almost to the finish, our stay here was stellar. Diego at the front desk was very welcoming and cordial during checkin. The hotel lobby and breakfast area are quite large, nicely appointed and very inviting. The room was very nice, absolutely spotless, the bed, in fact the entire room and the lobby appear to have been updated recently. The room was very spacious, in fact, large enough for a sleeper sofa that looked like it would make into a second king size bed. The room included a small balcony overlooking the street below. The flat screen tv was very nice and functioned flawlessly. The refrigerator was standard issue for a motel room, or a small apartment! We did not have enough time to experience the swimming pool, or a jacuzzi that we spotted on the ground floor. The hotel also has an Oriental Restaurant on site, but, alas, we did not have occasion to experience the restaurant. The only reason I didn't give this hotel a 5 was breakfast. The omelet was okay, the sausages were good, but the banner ad in the lobby lead me to believe there would be  a hot waffle available.... wrong. They do have a pancake making machine, but it was very disappointing. Each push of button yielded two thin, pancakes smaller than the palm of my hand. The pancakes were rubbery and difficult to cut with the plastic cutlery provided. There were other options, bagles, bread, etc. some fruit, plenty of juice and coffee; but I'm a fan of a well made waffle and really had my tastebuds ready for  a crisp golden brown waffle. Bummer dude!All in all, I would stay here again if given the opportunity, but I will probably skip breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r528396021-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>528396021</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-owner </t>
+  </si>
+  <si>
+    <t>The staff is friendly. Penny And Jim have been extremely helpful. I recommend this location. Close to freeway, attractions, Food and Work. Rooms are clean and the Maids and are very polite and helpful. Thank You again everybody. Many thanks.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r520400161-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>520400161</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>More like "Atrocious Crackhouse Inn" Irvine Spectrum</t>
+  </si>
+  <si>
+    <t>Well this,experience has been the example of the WORST customer service I have been put through in my 15 years as a fitness professional who travels the nation teaching large gym chain staffs the importance of customer service and going the extra mile for the member or guest.
+It started earlier in the afternoon when the General Manager, Peggy Fleming was RUDE to a fault, put me on hold multiple times for over 5 minutes, hung up on me, didn't answer the phone when I tried calling back for over 30 minutes only to finally answer and put me on hold again. 
+I was calling to confirm my reservation I put on my boss's company card and to make sure that I would not need the card or a waiver to use it again for any other charges that were not explained to me because the GM wouldn't talk to me.
+When I arrived after driving 3 hours from San Diego where I live the evening receptionist Fadi explained to me that I needed a credit card for a deposit after seeing him tell the previous guests in front of me that he "could sneak them in and to not tell his manager Penny." Unfortunately since I didn't know this information, did not have the card on me, and was not allowed to use the card that my boss left on file because it had to be physically there or...Well this,experience has been the example of the WORST customer service I have been put through in my 15 years as a fitness professional who travels the nation teaching large gym chain staffs the importance of customer service and going the extra mile for the member or guest.It started earlier in the afternoon when the General Manager, Peggy Fleming was RUDE to a fault, put me on hold multiple times for over 5 minutes, hung up on me, didn't answer the phone when I tried calling back for over 30 minutes only to finally answer and put me on hold again. I was calling to confirm my reservation I put on my boss's company card and to make sure that I would not need the card or a waiver to use it again for any other charges that were not explained to me because the GM wouldn't talk to me.When I arrived after driving 3 hours from San Diego where I live the evening receptionist Fadi explained to me that I needed a credit card for a deposit after seeing him tell the previous guests in front of me that he "could sneak them in and to not tell his manager Penny." Unfortunately since I didn't know this information, did not have the card on me, and was not allowed to use the card that my boss left on file because it had to be physically there or some sort of waiver signed. **Job Description For Hotel General Manager** POSITION SUMMARY: The General manager is responsible for all aspects of operations at the hotel, day-to-day staff management and guests.Responsible for managing the Hotel's management team (HOD's) and overall hotel procedures (and here's the best part..) and TARGETS TO DELIVER AN EXCELLENT GUEST EXPERIENCE.E P I C    F A I L !I had to call another general manager from another one of my gyms who came down and was able to do that for me which I'm extremely grateful for. When she asked Fadi why he was giving such extremely poor, aggressively degrading, and confrontational customer service that she was receiving from him, he became very angry and started yelling at her saying that he can sneak anybody in he wants, he can do what he wants, if he wants to check people in early he can do that and that's it's none of her business. At this point there was a line behind us and the people were in shock for how he was treating her. I don't know if it was his ethnicity, being Middle Eastern, and how he is used to treating women, but it was extremely degrading and not something I can tolerate.I mean did I just wake up today in the wrong dimension or something because since when are guests of a hotel, or any type of customer at any business treated in this fashion?I am the District Manager for one of the largest gym chains in the United States and I've never seen this kind of belligerent, hostile, and combative customer service by anyone that I saw these two representatives of Choice Hotels give me and someone who came to help me for their error in my 15 years of experience in the fitness industry. I am appalled by both these individuals, If a customer service or guest relations representative from Choice Hotels or Quality Inn Suites doesn't contact me and explain why I deserved to go through this ordeal and treatment and don't fix it, I will go to the corporate offices of each, or as high as I need to, and I will take this up with them and I will make sure that this review gets put on each hotel search engine site and any other hotel and hospitality site, including social media, and expose this type of treatment to your guests by Penny Fleming and Fadi and shared with thousands.Unbelievable. Stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well this,experience has been the example of the WORST customer service I have been put through in my 15 years as a fitness professional who travels the nation teaching large gym chain staffs the importance of customer service and going the extra mile for the member or guest.
+It started earlier in the afternoon when the General Manager, Peggy Fleming was RUDE to a fault, put me on hold multiple times for over 5 minutes, hung up on me, didn't answer the phone when I tried calling back for over 30 minutes only to finally answer and put me on hold again. 
+I was calling to confirm my reservation I put on my boss's company card and to make sure that I would not need the card or a waiver to use it again for any other charges that were not explained to me because the GM wouldn't talk to me.
+When I arrived after driving 3 hours from San Diego where I live the evening receptionist Fadi explained to me that I needed a credit card for a deposit after seeing him tell the previous guests in front of me that he "could sneak them in and to not tell his manager Penny." Unfortunately since I didn't know this information, did not have the card on me, and was not allowed to use the card that my boss left on file because it had to be physically there or...Well this,experience has been the example of the WORST customer service I have been put through in my 15 years as a fitness professional who travels the nation teaching large gym chain staffs the importance of customer service and going the extra mile for the member or guest.It started earlier in the afternoon when the General Manager, Peggy Fleming was RUDE to a fault, put me on hold multiple times for over 5 minutes, hung up on me, didn't answer the phone when I tried calling back for over 30 minutes only to finally answer and put me on hold again. I was calling to confirm my reservation I put on my boss's company card and to make sure that I would not need the card or a waiver to use it again for any other charges that were not explained to me because the GM wouldn't talk to me.When I arrived after driving 3 hours from San Diego where I live the evening receptionist Fadi explained to me that I needed a credit card for a deposit after seeing him tell the previous guests in front of me that he "could sneak them in and to not tell his manager Penny." Unfortunately since I didn't know this information, did not have the card on me, and was not allowed to use the card that my boss left on file because it had to be physically there or some sort of waiver signed. **Job Description For Hotel General Manager** POSITION SUMMARY: The General manager is responsible for all aspects of operations at the hotel, day-to-day staff management and guests.Responsible for managing the Hotel's management team (HOD's) and overall hotel procedures (and here's the best part..) and TARGETS TO DELIVER AN EXCELLENT GUEST EXPERIENCE.E P I C    F A I L !I had to call another general manager from another one of my gyms who came down and was able to do that for me which I'm extremely grateful for. When she asked Fadi why he was giving such extremely poor, aggressively degrading, and confrontational customer service that she was receiving from him, he became very angry and started yelling at her saying that he can sneak anybody in he wants, he can do what he wants, if he wants to check people in early he can do that and that's it's none of her business. At this point there was a line behind us and the people were in shock for how he was treating her. I don't know if it was his ethnicity, being Middle Eastern, and how he is used to treating women, but it was extremely degrading and not something I can tolerate.I mean did I just wake up today in the wrong dimension or something because since when are guests of a hotel, or any type of customer at any business treated in this fashion?I am the District Manager for one of the largest gym chains in the United States and I've never seen this kind of belligerent, hostile, and combative customer service by anyone that I saw these two representatives of Choice Hotels give me and someone who came to help me for their error in my 15 years of experience in the fitness industry. I am appalled by both these individuals, If a customer service or guest relations representative from Choice Hotels or Quality Inn Suites doesn't contact me and explain why I deserved to go through this ordeal and treatment and don't fix it, I will go to the corporate offices of each, or as high as I need to, and I will take this up with them and I will make sure that this review gets put on each hotel search engine site and any other hotel and hospitality site, including social media, and expose this type of treatment to your guests by Penny Fleming and Fadi and shared with thousands.Unbelievable. Stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r512641163-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>512641163</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Poor Sunday Breakfast</t>
+  </si>
+  <si>
+    <t>We got there about 10:55pm on a Saturday evening.
+Room seemed clean, except for what it seemed a dead mosquito squashed on a bathroom wall.
+Beds were really comfortable
+Now for the negative stuff:
+- We first had to wait in line to get checked in for about 20 minutes.
+- We also noticed a lot of spills on the lobby as well as the dining room area.
+- The A/C had a weird noise when it when on during the night. Thankfully, my husband and I wear ear plugs so it wasn’t an issue.
+- The breakfast setup is not enough for the large crowd on Sunday morning when we got there around 8:30am:
+- No eggs
+- Only a few slices of white bread
+- No decaf
+- No coffee
+- No tea
+- No fruit
+- Somebody made the comment they were there around 7am and there was no food then either
+My observations:
+- The bacon and egg trays are way too small for the large crowd.
+- The attendant was gone for long times to get replenishment.
+- By the time she replenished the coffee, left to replenish the bread, the coffee was out again.
+- A gallon of milk was left on the attendant’s counter. I think it should have been refrigerated.
+- Though she finally replenished the bread tray, there was no wheat bread available.
+- Perhaps the replenishment of non-cooked goods could...We got there about 10:55pm on a Saturday evening.Room seemed clean, except for what it seemed a dead mosquito squashed on a bathroom wall.Beds were really comfortableNow for the negative stuff:- We first had to wait in line to get checked in for about 20 minutes.- We also noticed a lot of spills on the lobby as well as the dining room area.- The A/C had a weird noise when it when on during the night. Thankfully, my husband and I wear ear plugs so it wasn’t an issue.- The breakfast setup is not enough for the large crowd on Sunday morning when we got there around 8:30am:- No eggs- Only a few slices of white bread- No decaf- No coffee- No tea- No fruit- Somebody made the comment they were there around 7am and there was no food then eitherMy observations:- The bacon and egg trays are way too small for the large crowd.- The attendant was gone for long times to get replenishment.- By the time she replenished the coffee, left to replenish the bread, the coffee was out again.- A gallon of milk was left on the attendant’s counter. I think it should have been refrigerated.- Though she finally replenished the bread tray, there was no wheat bread available.- Perhaps the replenishment of non-cooked goods could be improved by having the products closer to the attendant: breads, fruit, coffee, etc.- There should be larger trays of bacon and egg available so the food runs out less often, and have it replaced at determined times even if the tray is not empty. Then we don’t run out of food.- There should be more coffee dispensers.- And perhaps for the large Sunday crowd, have 2 attendants.We were glad we were only staying one night!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We got there about 10:55pm on a Saturday evening.
+Room seemed clean, except for what it seemed a dead mosquito squashed on a bathroom wall.
+Beds were really comfortable
+Now for the negative stuff:
+- We first had to wait in line to get checked in for about 20 minutes.
+- We also noticed a lot of spills on the lobby as well as the dining room area.
+- The A/C had a weird noise when it when on during the night. Thankfully, my husband and I wear ear plugs so it wasn’t an issue.
+- The breakfast setup is not enough for the large crowd on Sunday morning when we got there around 8:30am:
+- No eggs
+- Only a few slices of white bread
+- No decaf
+- No coffee
+- No tea
+- No fruit
+- Somebody made the comment they were there around 7am and there was no food then either
+My observations:
+- The bacon and egg trays are way too small for the large crowd.
+- The attendant was gone for long times to get replenishment.
+- By the time she replenished the coffee, left to replenish the bread, the coffee was out again.
+- A gallon of milk was left on the attendant’s counter. I think it should have been refrigerated.
+- Though she finally replenished the bread tray, there was no wheat bread available.
+- Perhaps the replenishment of non-cooked goods could...We got there about 10:55pm on a Saturday evening.Room seemed clean, except for what it seemed a dead mosquito squashed on a bathroom wall.Beds were really comfortableNow for the negative stuff:- We first had to wait in line to get checked in for about 20 minutes.- We also noticed a lot of spills on the lobby as well as the dining room area.- The A/C had a weird noise when it when on during the night. Thankfully, my husband and I wear ear plugs so it wasn’t an issue.- The breakfast setup is not enough for the large crowd on Sunday morning when we got there around 8:30am:- No eggs- Only a few slices of white bread- No decaf- No coffee- No tea- No fruit- Somebody made the comment they were there around 7am and there was no food then eitherMy observations:- The bacon and egg trays are way too small for the large crowd.- The attendant was gone for long times to get replenishment.- By the time she replenished the coffee, left to replenish the bread, the coffee was out again.- A gallon of milk was left on the attendant’s counter. I think it should have been refrigerated.- Though she finally replenished the bread tray, there was no wheat bread available.- Perhaps the replenishment of non-cooked goods could be improved by having the products closer to the attendant: breads, fruit, coffee, etc.- There should be larger trays of bacon and egg available so the food runs out less often, and have it replaced at determined times even if the tray is not empty. Then we don’t run out of food.- There should be more coffee dispensers.- And perhaps for the large Sunday crowd, have 2 attendants.We were glad we were only staying one night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r504342930-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>504342930</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel.</t>
+  </si>
+  <si>
+    <t>Bottom line: comfy, nice accommodations, good breakfast, will go again if the need arrises. 
+Shocked by hotel sticker shock in the region, we happened upon this one and decided to book it. At this point we were wanting to get as close to our business mtg. as we could and didn't want to have to make a long drive in the middle of morning rush hour. It was a port in a storm. What was surprising was how nice the staff was, quick check in, but did not like that they wanted to copy my driver's license. Illegal in CA. We declined and explained the law and that they could not do it. Verification is one thing but they can't go beyond that. They gave us a very nice room but it was very hot and it took the a.c. a while to cool it down. The bed was comfy, bathroom was clean and the long counter at the sink was very nice for getting organised. The room was clean and comfy. Breakfast was very good. The pancakes were tasty. The morning desk guy would not let me get my paperwork until the time of actual check out. First time I ever experienced that. Not a big deal, but would have preferred to get a copy of the paperwork, load up the car, and drop off the key. It's not that important and we were pleased with the good service...Bottom line: comfy, nice accommodations, good breakfast, will go again if the need arrises. Shocked by hotel sticker shock in the region, we happened upon this one and decided to book it. At this point we were wanting to get as close to our business mtg. as we could and didn't want to have to make a long drive in the middle of morning rush hour. It was a port in a storm. What was surprising was how nice the staff was, quick check in, but did not like that they wanted to copy my driver's license. Illegal in CA. We declined and explained the law and that they could not do it. Verification is one thing but they can't go beyond that. They gave us a very nice room but it was very hot and it took the a.c. a while to cool it down. The bed was comfy, bathroom was clean and the long counter at the sink was very nice for getting organised. The room was clean and comfy. Breakfast was very good. The pancakes were tasty. The morning desk guy would not let me get my paperwork until the time of actual check out. First time I ever experienced that. Not a big deal, but would have preferred to get a copy of the paperwork, load up the car, and drop off the key. It's not that important and we were pleased with the good service and accommodations as mentioned. Will go back for sure in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Bottom line: comfy, nice accommodations, good breakfast, will go again if the need arrises. 
+Shocked by hotel sticker shock in the region, we happened upon this one and decided to book it. At this point we were wanting to get as close to our business mtg. as we could and didn't want to have to make a long drive in the middle of morning rush hour. It was a port in a storm. What was surprising was how nice the staff was, quick check in, but did not like that they wanted to copy my driver's license. Illegal in CA. We declined and explained the law and that they could not do it. Verification is one thing but they can't go beyond that. They gave us a very nice room but it was very hot and it took the a.c. a while to cool it down. The bed was comfy, bathroom was clean and the long counter at the sink was very nice for getting organised. The room was clean and comfy. Breakfast was very good. The pancakes were tasty. The morning desk guy would not let me get my paperwork until the time of actual check out. First time I ever experienced that. Not a big deal, but would have preferred to get a copy of the paperwork, load up the car, and drop off the key. It's not that important and we were pleased with the good service...Bottom line: comfy, nice accommodations, good breakfast, will go again if the need arrises. Shocked by hotel sticker shock in the region, we happened upon this one and decided to book it. At this point we were wanting to get as close to our business mtg. as we could and didn't want to have to make a long drive in the middle of morning rush hour. It was a port in a storm. What was surprising was how nice the staff was, quick check in, but did not like that they wanted to copy my driver's license. Illegal in CA. We declined and explained the law and that they could not do it. Verification is one thing but they can't go beyond that. They gave us a very nice room but it was very hot and it took the a.c. a while to cool it down. The bed was comfy, bathroom was clean and the long counter at the sink was very nice for getting organised. The room was clean and comfy. Breakfast was very good. The pancakes were tasty. The morning desk guy would not let me get my paperwork until the time of actual check out. First time I ever experienced that. Not a big deal, but would have preferred to get a copy of the paperwork, load up the car, and drop off the key. It's not that important and we were pleased with the good service and accommodations as mentioned. Will go back for sure in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r499560870-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>499560870</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Scored a nice room</t>
+  </si>
+  <si>
+    <t>Checked in late evening. Easy to find. Lots of food choices around and there's a Chinese restaurant attached. Free wifi, free parking, free breakfast, free friendly staff. I think I was helped by Penny. The nice lady friend Sydney Australia. At first my key didn't work. I tried a few times then she escorted me to my room to make sure I got in. Awesome customer service. There's a pool to cool off in this summer heat. Opened the door and wow was I surprised. I was expecting low budget sketchy room with things broken down.  Not at all. It's a lot better then a lot of other hotel rooms I've stayed at. Reminds me of a casino hotel room. Marble bathroom countertops, a sofa, large fridge with freezer. Nice wide table with comfy office chair. Nice lighting and aircon. Coffee with green recycle cups. Way to go! Ice bucket with toiletries. Clean wide bed and flat screen. I wish I was staying longer so I can enjoy my room longer. Totally staying here again. It's perfect.  There's a Mc. Donald's just yards away right by the pool. Scored an awesome suiteMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Checked in late evening. Easy to find. Lots of food choices around and there's a Chinese restaurant attached. Free wifi, free parking, free breakfast, free friendly staff. I think I was helped by Penny. The nice lady friend Sydney Australia. At first my key didn't work. I tried a few times then she escorted me to my room to make sure I got in. Awesome customer service. There's a pool to cool off in this summer heat. Opened the door and wow was I surprised. I was expecting low budget sketchy room with things broken down.  Not at all. It's a lot better then a lot of other hotel rooms I've stayed at. Reminds me of a casino hotel room. Marble bathroom countertops, a sofa, large fridge with freezer. Nice wide table with comfy office chair. Nice lighting and aircon. Coffee with green recycle cups. Way to go! Ice bucket with toiletries. Clean wide bed and flat screen. I wish I was staying longer so I can enjoy my room longer. Totally staying here again. It's perfect.  There's a Mc. Donald's just yards away right by the pool. Scored an awesome suiteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r498361211-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>498361211</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>As a business owner this was the most horrible customer service in the world and I have spent the last 33 days traveling the world over 12+ hotels stayed at and this one was the absolutely the worse, I will never come back our recommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r491002618-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>491002618</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Decent one night stay</t>
+  </si>
+  <si>
+    <t>I am a local of the area and stayed here over night. The property itself is very old and has been here for many many years. The rooms were not as bad as I thought though as I entered mine. There were a few things in the room that needed fixing or attention, but other than that the room was fine. The front desk employee was very fast and had great customer service. This was the cheaper option out of all the hotels in the area that is why I chose to stay here. In conclusion, I recommend staying here for a short amount of time because of its location to the freeway and the room was clean enough to live with.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>I am a local of the area and stayed here over night. The property itself is very old and has been here for many many years. The rooms were not as bad as I thought though as I entered mine. There were a few things in the room that needed fixing or attention, but other than that the room was fine. The front desk employee was very fast and had great customer service. This was the cheaper option out of all the hotels in the area that is why I chose to stay here. In conclusion, I recommend staying here for a short amount of time because of its location to the freeway and the room was clean enough to live with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r474702107-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>474702107</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>It wasn't too hideous.</t>
+  </si>
+  <si>
+    <t>I was OK with the missing toilet paper, lack of towels and even the top sheet for the bed. What did it for me was the stairwell that smelled so highly of urine that I I was about to throw up. I understand when u have to go but this was numerous occasions that it had been used as a toilet. Maybe a port o potty for the workers doing the renovation would help. Breakfast was good. Housekeeping was bothersome at 9am while myself and the boyfriend were getting busy. All in all-stay away from the stairwells.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r473678166-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>473678166</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Good breakfast, older hotel, but being updated</t>
+  </si>
+  <si>
+    <t>This is a larger Quality Inn that works well when staying in the area.The place is older and is getting some upgrades.  Overall, it's a fine place to stay when visiting the area.The breakfast is good and includes eggs, pancakes, yogurt, breads, cereals, etc.  One day there were scrambled eggs and sausage and the other days there were fried eggs -- cooked 'till the yolks were hard -- and sausage.  The scrambled eggs were better.The breakfast space is large, so there are enough tables for visitors -- something not all hotels have!The place appears to have had a second building added, so there are ramps on each floor -- inside -- to connect them.Finding stairs is tricky -- they aren't where you'd expect them, so look for the Exit signs.The Olive Chinese Restaurant, inside the hotel, is a funny one for a hotel, but the food is good and the price is right!Overall, a good choice for a place to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>This is a larger Quality Inn that works well when staying in the area.The place is older and is getting some upgrades.  Overall, it's a fine place to stay when visiting the area.The breakfast is good and includes eggs, pancakes, yogurt, breads, cereals, etc.  One day there were scrambled eggs and sausage and the other days there were fried eggs -- cooked 'till the yolks were hard -- and sausage.  The scrambled eggs were better.The breakfast space is large, so there are enough tables for visitors -- something not all hotels have!The place appears to have had a second building added, so there are ramps on each floor -- inside -- to connect them.Finding stairs is tricky -- they aren't where you'd expect them, so look for the Exit signs.The Olive Chinese Restaurant, inside the hotel, is a funny one for a hotel, but the food is good and the price is right!Overall, a good choice for a place to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r467823177-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>467823177</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Friendly staff and comfy beds. During my stay the hotel was going through some renovations. That didn't impact my stay though. My room was clean and roomy. The bed was very comfortable. I had a nice little balcony that caught the sun just right. There was a Continental breakfast included which had eggs, sausage, pancakes, toast, bagels, yogurt, juice, coffee, cereal, and oatmeal. Nearby there is a starbucks, Buffalo wild wings, McDonald's, and pizza studio and few more restaurant's within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff and comfy beds. During my stay the hotel was going through some renovations. That didn't impact my stay though. My room was clean and roomy. The bed was very comfortable. I had a nice little balcony that caught the sun just right. There was a Continental breakfast included which had eggs, sausage, pancakes, toast, bagels, yogurt, juice, coffee, cereal, and oatmeal. Nearby there is a starbucks, Buffalo wild wings, McDonald's, and pizza studio and few more restaurant's within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r444534676-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>444534676</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Clean - Comfortable - Afforable</t>
+  </si>
+  <si>
+    <t>I came in late and left early so I didn't try the wireless. The front desk staff was helpful and efficient. My room was clean and exactly what I wanted in space. I didn't eat breakfast so I can't comment on it.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r438192186-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>438192186</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Professional Hospitality</t>
+  </si>
+  <si>
+    <t>Professional HospitalityWhat we look for in places we stay are professionals that know what hospitality is all about and this Quality Inn location does.When it comes to hospitality and service this place gets a "10". The rooms are newly remodeled with new furniture, beds, paint and carpeting. My room was great!I have been luck to have FADI as my host at check-in. His service is excellent and makes check-in a breeze!This place is centrally located in Orange County with easy access to freeways. If you're in the area check them out...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r424553168-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>424553168</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Fair at best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is being renovated and I was told that I would be given a NEWLY renovated room.  The freezer section of the frig was frozen, the room smelled fresh, the linens were fresh but the sofa was recovered in a scary red shiney poka dot material.  Don't think I would sit on it.  I moved the sofa slightly away from the bed and the floor was dirty.....maybe in time things will very better. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r412960683-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>412960683</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible customer service </t>
+  </si>
+  <si>
+    <t>We arrived early and went to see if we could check in early.   The manager on duty (Peggy) told us to sit down, she'd have an answer in 15 minutes.  After about 10 minutes we asked her again and she told us very rudely that nothing was available, and to come back later. I was not happy with her poor attitude.   When we did check in, hours later, a very nice gentleman checked us in. We told him of our previous experience with Peggy,  he told us that he knew but couldn't say anything. The room was very clean, the hotel is going through a remodel but we didn't notice any construction.  Breakfast offered free was decent but not fancy.  Overall hotel was ok but that manager need to learn what working in hospitality service means.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We arrived early and went to see if we could check in early.   The manager on duty (Peggy) told us to sit down, she'd have an answer in 15 minutes.  After about 10 minutes we asked her again and she told us very rudely that nothing was available, and to come back later. I was not happy with her poor attitude.   When we did check in, hours later, a very nice gentleman checked us in. We told him of our previous experience with Peggy,  he told us that he knew but couldn't say anything. The room was very clean, the hotel is going through a remodel but we didn't notice any construction.  Breakfast offered free was decent but not fancy.  Overall hotel was ok but that manager need to learn what working in hospitality service means.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r412781666-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>412781666</t>
+  </si>
+  <si>
+    <t>Good Price, Noisy and Greasy Bacon</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one night in a room on the third floor.  Nearby are I-5 highway and Lake Forest blvd...which together creates road noise that is heard at night.  A/C is a separate unit that is wall mounted.  The air flow from it is noticeable when on the bed nearest it.  Beds were comfortable and bathroom is typical of a low/mid range hotel.  Compared to prices of nearby hotels it is quite reasonable.  Staff were nice.There is a breakfast provided with room.  It has a large seating area and has usual items, but instead of a waffle maker it has a pancake making machine that is automatic. Press a button and the batter is poured and the pancake is cooked. The pancake is small and thin.  I tried one and found it bland and a little "rubbery".  The bacon is cooked and in a tray that had a lot of liquid fat at the bottom and when I picked up a bacon piece it dripped fat.  Not my type of bacon.If I stayed again at the hotel it would only be because of the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one night in a room on the third floor.  Nearby are I-5 highway and Lake Forest blvd...which together creates road noise that is heard at night.  A/C is a separate unit that is wall mounted.  The air flow from it is noticeable when on the bed nearest it.  Beds were comfortable and bathroom is typical of a low/mid range hotel.  Compared to prices of nearby hotels it is quite reasonable.  Staff were nice.There is a breakfast provided with room.  It has a large seating area and has usual items, but instead of a waffle maker it has a pancake making machine that is automatic. Press a button and the batter is poured and the pancake is cooked. The pancake is small and thin.  I tried one and found it bland and a little "rubbery".  The bacon is cooked and in a tray that had a lot of liquid fat at the bottom and when I picked up a bacon piece it dripped fat.  Not my type of bacon.If I stayed again at the hotel it would only be because of the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r406834329-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>406834329</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Clean hotel with amazing customer service</t>
+  </si>
+  <si>
+    <t>I had an enjoyable experience during my stay. The room was clean and comfortable, the general manager Penny answered all of my questions and provided excellent customer service, and the breakfast was great. The next time I plan on visiting I will definitely book my stay again with the Quality Inn.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r403358270-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>403358270</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and wonder staff</t>
+  </si>
+  <si>
+    <t>My wife and I stayed 2 nights and had a wonderful experience. The staff was very friendly and the manager Penny provided great customer service at the front desk. I would 100% recommend this hotel and whenever we are visiting family we will be staying here. Thank you Penny and the Quality Inn &amp; Suites staff you were all amazing!!!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r398134859-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>398134859</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Great value, friendly staff</t>
+  </si>
+  <si>
+    <t>My friend and I checked in with our two teenagers at 9 pm on a Saturday night in July. Fortunately, we had a reservation because the hotel was packed, but we had no problem finding convenient parking near the entrance.  When my friend went down to the lobby for more towels, the lobby desk clerk brought them up a few minutes later.  Our room was on the 3rd floor, on the side of the hotel facing the street, but surprisingly quiet.  The beds were comfortably firm with fluffy pillows and a cozy, lightweight comforter.
+     I was impressed by the Olive Tree restaurant located inside the hotel.   Arriving at 9:10, after the official closing time, we were surprised to be welcomed in.  I was expecting a "cookie cutter" Chinese restaurant, but instead discovered a unique place run by a proud, skilled cook and his wife.  The pad Thai on the menu was authentic, and the orange chicken was declared by one of the picky eater teenagers to be "the best I've ever had."
+      The next morning, having stayed at plenty of hotels with only a few tables in the breakfast area, I was happy to discover plenty of space to sit.  However, with the hotel completely full, it was impossible for the one man working the area to keep everything stocked.  The buffet officially closed at 9:30, and by 8:45, almost all of the fruit, and all the scrambled eggs and...My friend and I checked in with our two teenagers at 9 pm on a Saturday night in July. Fortunately, we had a reservation because the hotel was packed, but we had no problem finding convenient parking near the entrance.  When my friend went down to the lobby for more towels, the lobby desk clerk brought them up a few minutes later.  Our room was on the 3rd floor, on the side of the hotel facing the street, but surprisingly quiet.  The beds were comfortably firm with fluffy pillows and a cozy, lightweight comforter.     I was impressed by the Olive Tree restaurant located inside the hotel.   Arriving at 9:10, after the official closing time, we were surprised to be welcomed in.  I was expecting a "cookie cutter" Chinese restaurant, but instead discovered a unique place run by a proud, skilled cook and his wife.  The pad Thai on the menu was authentic, and the orange chicken was declared by one of the picky eater teenagers to be "the best I've ever had."      The next morning, having stayed at plenty of hotels with only a few tables in the breakfast area, I was happy to discover plenty of space to sit.  However, with the hotel completely full, it was impossible for the one man working the area to keep everything stocked.  The buffet officially closed at 9:30, and by 8:45, almost all of the fruit, and all the scrambled eggs and sausage were gone.  However, if you had time to wait a while and willingness to ask, the attendant would get you what you needed.  After 9:30, as he worked putting away breakfast supplies and cleaning tables, he was very friendly and helpful with some questions about things to do in the area.     One last perk of this hotel was the small balcony off the room.  In Southern California, it's great to enjoy the night air on a balcony!     P.S.  In the lobby, look up!  There's a cool chandelier.MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I checked in with our two teenagers at 9 pm on a Saturday night in July. Fortunately, we had a reservation because the hotel was packed, but we had no problem finding convenient parking near the entrance.  When my friend went down to the lobby for more towels, the lobby desk clerk brought them up a few minutes later.  Our room was on the 3rd floor, on the side of the hotel facing the street, but surprisingly quiet.  The beds were comfortably firm with fluffy pillows and a cozy, lightweight comforter.
+     I was impressed by the Olive Tree restaurant located inside the hotel.   Arriving at 9:10, after the official closing time, we were surprised to be welcomed in.  I was expecting a "cookie cutter" Chinese restaurant, but instead discovered a unique place run by a proud, skilled cook and his wife.  The pad Thai on the menu was authentic, and the orange chicken was declared by one of the picky eater teenagers to be "the best I've ever had."
+      The next morning, having stayed at plenty of hotels with only a few tables in the breakfast area, I was happy to discover plenty of space to sit.  However, with the hotel completely full, it was impossible for the one man working the area to keep everything stocked.  The buffet officially closed at 9:30, and by 8:45, almost all of the fruit, and all the scrambled eggs and...My friend and I checked in with our two teenagers at 9 pm on a Saturday night in July. Fortunately, we had a reservation because the hotel was packed, but we had no problem finding convenient parking near the entrance.  When my friend went down to the lobby for more towels, the lobby desk clerk brought them up a few minutes later.  Our room was on the 3rd floor, on the side of the hotel facing the street, but surprisingly quiet.  The beds were comfortably firm with fluffy pillows and a cozy, lightweight comforter.     I was impressed by the Olive Tree restaurant located inside the hotel.   Arriving at 9:10, after the official closing time, we were surprised to be welcomed in.  I was expecting a "cookie cutter" Chinese restaurant, but instead discovered a unique place run by a proud, skilled cook and his wife.  The pad Thai on the menu was authentic, and the orange chicken was declared by one of the picky eater teenagers to be "the best I've ever had."      The next morning, having stayed at plenty of hotels with only a few tables in the breakfast area, I was happy to discover plenty of space to sit.  However, with the hotel completely full, it was impossible for the one man working the area to keep everything stocked.  The buffet officially closed at 9:30, and by 8:45, almost all of the fruit, and all the scrambled eggs and sausage were gone.  However, if you had time to wait a while and willingness to ask, the attendant would get you what you needed.  After 9:30, as he worked putting away breakfast supplies and cleaning tables, he was very friendly and helpful with some questions about things to do in the area.     One last perk of this hotel was the small balcony off the room.  In Southern California, it's great to enjoy the night air on a balcony!     P.S.  In the lobby, look up!  There's a cool chandelier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r396970373-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>396970373</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great budget hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night while attending a concert at Irvine Meadows. Two miles from venue, easy to Uber to and from. Honestly, I had read the bad reviews and took a chance. It maybe in the midst of renovation, but our room, above lobby, was quiet, very clean, and the air worked great as well as everything else in the room. The bed was one of the best mattresses I have slept on, even compared to some higher end hotels. Breakfast was your basic type, bujt hey, it is included. WiFi was actually suprisongly fast and I will go back there again. Look, for the price you pay for a room, it is better than most. It is a smiple yet functionable room, and even has a balcony. Conviently located, able to waalk to whatever you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night while attending a concert at Irvine Meadows. Two miles from venue, easy to Uber to and from. Honestly, I had read the bad reviews and took a chance. It maybe in the midst of renovation, but our room, above lobby, was quiet, very clean, and the air worked great as well as everything else in the room. The bed was one of the best mattresses I have slept on, even compared to some higher end hotels. Breakfast was your basic type, bujt hey, it is included. WiFi was actually suprisongly fast and I will go back there again. Look, for the price you pay for a room, it is better than most. It is a smiple yet functionable room, and even has a balcony. Conviently located, able to waalk to whatever you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r390468904-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>390468904</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly and eager to serve  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very friendly service. The hotel is under major renovation and we where given a newer room. Reasonable price considering the location... I would stay again When I'm in the area.  This hotel is centrally located in Orange County and is about 15 minutes from the beach or Disneyland. It's easy to find just off of the 5 freeway. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r388486504-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>388486504</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Lovely hotel</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay here. It has a beautiful lobby to begin with! Our room was nice and clean. We brought our little dog and they were very welcoming. We had a little trouble having to wait to check in because the computer system was down butt that was not their fault.  Nice hot water!  There were signs saying they were renovating but we never saw signs of it. Beautiful pool too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r370906043-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>370906043</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, comfortable, relaxing.</t>
+  </si>
+  <si>
+    <t>Upon arrival the general manager resolved a billing issue in my favor which I later realized was entirely my fault! Fadi at front desk was courteous, friendly and super helpful - professional. The room was clean. Bathroom spotless and updated. Nice decor. Bed was oh so comfortable. Free parking, wi-fi, breakfast (delicious). I will stay again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r350710466-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>350710466</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Budget Hotel</t>
+  </si>
+  <si>
+    <t>Parking: Free lot with plenty of spaces.Staff:  Very friendly and helpful.Location:  Off the 5 freeway and easy to find.  Lots of things nearby, McDonald's is literally next door and so is a Shell gas station.  But plenty of other eateries and shopping nearby.Hotel:  Beds are so so, rooms are adequate.  In terms of budget, this hotel fits your needs.  One comment about the TV, basic cable with no HBO or Showtime.  Wifi:  Free but slow, I would have rather paid for WiFi.Breakfast:  Not bad at all with pancakes, coffee, bagels, and yogurts.Overall:  3/5 stars, average hotel that will fit your budget needs.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r348703881-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>348703881</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was very close to the business I had to do while in town. The restaurant inside had some great food. Did not have any transportation so I can't tell what was nearby. Staff was very friendly and helpful to get me to where I needed to be when checking out.  Was pretty quiet slept OK </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r347727777-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>347727777</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>We booked last minute needing somewhere for the night on a business trip. Good location right off the freeway. We arrived late and got right in. The room is okay. The bathroom had somewhat been renovated leaving old with new. I had left my purse on the dresser and in the morning picked it up and it was filled with bugs. Promptly threw it away. We will spend a few more dollars for the hotel next door.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r330745437-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>330745437</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Clean and low cost</t>
+  </si>
+  <si>
+    <t>I needed a place for a quick in-out one night stay.  My class was nearby and started earlier than I could arrive by air, so the only choice was to fly down the night before.  I did a search on TripAdvisor for places nearby and the Quality Inn popped up.  I have stayed at Quality Inns before, and while not luxurious, the do have free wifi and free breakfast.  On occasion, I have run into hotels that don't start the breakfast until 7 or 7:30, later than I can deal with.  This hotel started at 6:30 so it worked well.  Food wasn't gourmet, but quite acceptable and it is nice that they have take-away cups for the coffee for the ride to the class.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a place for a quick in-out one night stay.  My class was nearby and started earlier than I could arrive by air, so the only choice was to fly down the night before.  I did a search on TripAdvisor for places nearby and the Quality Inn popped up.  I have stayed at Quality Inns before, and while not luxurious, the do have free wifi and free breakfast.  On occasion, I have run into hotels that don't start the breakfast until 7 or 7:30, later than I can deal with.  This hotel started at 6:30 so it worked well.  Food wasn't gourmet, but quite acceptable and it is nice that they have take-away cups for the coffee for the ride to the class.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r325041390-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>325041390</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Cheap, clean, free WiFi, and breakfast.</t>
+  </si>
+  <si>
+    <t>Like my namesake, Jonathan H reviewed, this hotel is clean and cheap and sometimes that's all you need.  We just cleared out a house that we sold so we were tired, it was raining, and the Quality Inn was in front of us.  The rooms are large enough and definitely clean.   We originally were only going to stay for two days but ended up adding two more as the hotel was so convenient to the freeway and surrounding restaurants.  Olive Tree Chinese Kitchen inside the hotel is a diamond in the rough---fabulous food that is not salty or smothered in goopy sauces.  Dumplings rivaled China town.  Breakfast at the hotel was fine with full-sized yogurts, eggs, sausages, and good coffee.  Service is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Like my namesake, Jonathan H reviewed, this hotel is clean and cheap and sometimes that's all you need.  We just cleared out a house that we sold so we were tired, it was raining, and the Quality Inn was in front of us.  The rooms are large enough and definitely clean.   We originally were only going to stay for two days but ended up adding two more as the hotel was so convenient to the freeway and surrounding restaurants.  Olive Tree Chinese Kitchen inside the hotel is a diamond in the rough---fabulous food that is not salty or smothered in goopy sauces.  Dumplings rivaled China town.  Breakfast at the hotel was fine with full-sized yogurts, eggs, sausages, and good coffee.  Service is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r321624671-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>321624671</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Two stars might be too generous</t>
+  </si>
+  <si>
+    <t>If you look up the definition of a 2-star hotel, you might find a picture of this Quality Inn in Irvine. It certainly meets all the criteria: It's outdated but serviceable, and you probably wouldn't want to stay more than one night.Among the negatives: A sliding glass door to the balcony that wouldn't lock, awful WiFi speed, and zero hot water in the shower. The room is in desperate need of an upgrade, and the TV remote didn't work. But if your expectations are low before you arrive, it's fine. The front desk cashier was friendly and they had a decent free breakfast in the morning. The hotel is located next to a McDonalds, and there's a Starbucks/gas station just two minutes away. It's also close to the freeway. As long as you're not expecting anything more than 2 stars, this property will do. We were only there for a total of about 10 hours, and that was more than enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>If you look up the definition of a 2-star hotel, you might find a picture of this Quality Inn in Irvine. It certainly meets all the criteria: It's outdated but serviceable, and you probably wouldn't want to stay more than one night.Among the negatives: A sliding glass door to the balcony that wouldn't lock, awful WiFi speed, and zero hot water in the shower. The room is in desperate need of an upgrade, and the TV remote didn't work. But if your expectations are low before you arrive, it's fine. The front desk cashier was friendly and they had a decent free breakfast in the morning. The hotel is located next to a McDonalds, and there's a Starbucks/gas station just two minutes away. It's also close to the freeway. As long as you're not expecting anything more than 2 stars, this property will do. We were only there for a total of about 10 hours, and that was more than enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r305551146-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>305551146</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Needs a facelift.</t>
+  </si>
+  <si>
+    <t>This hotel was ok for our purposes. it was a place to shower and sleep. We did not intend to make it a resort stay.  It was really convenient to the freeway, shopping, and the place we were going each day. The hotel needs refurbishing. Everything was worn, but clean, except for the long black hairs on the bathroom floor after the maid had been there each day. It wasn't that the staff was unfriendly, they were just indifferent. Breakfast was mediocre at best. With all the hotels in the area, we probably wouldn't stay here again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r304476225-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>304476225</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Sufficient place to stay on a budget</t>
+  </si>
+  <si>
+    <t>I was traveling with a very budget conscious group for a conference in the area.  The hotel was fine, but worn. It definitely needs a cosmetic updates.  Some of the King bed rooms on the interior hall of the 3rd floor of the front building have cool vaulted ceilings so they seemed more spacious.  The outer rooms are just plain and small.  The beds/bath were clean, but there were some cigarette burns on the comforters and weird stains on the wall.  The area looks a little dodgy, but is near some decent neighborhoods.  We also think that the gas from our van may have been siphoned/stolen one night. It is hard to find good deals in Southern California so this place works if your money is tight.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was traveling with a very budget conscious group for a conference in the area.  The hotel was fine, but worn. It definitely needs a cosmetic updates.  Some of the King bed rooms on the interior hall of the 3rd floor of the front building have cool vaulted ceilings so they seemed more spacious.  The outer rooms are just plain and small.  The beds/bath were clean, but there were some cigarette burns on the comforters and weird stains on the wall.  The area looks a little dodgy, but is near some decent neighborhoods.  We also think that the gas from our van may have been siphoned/stolen one night. It is hard to find good deals in Southern California so this place works if your money is tight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r303725778-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>303725778</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Room was too hot</t>
+  </si>
+  <si>
+    <t>Staff not very friendly, Room was too hot when I arrived, by the time it cooled down enough to sleep it was 3:30 am and I had to get up at 5:30 am, the web site they said they offer a free shuttle within a 5 mile radius and when I asked they said we don't do that.Had I known this I would not have booked here. I don't think I would booking here again when I come to Cali again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r289645391-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>289645391</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Right off the freeway!</t>
+  </si>
+  <si>
+    <t>Right off the freeway, easy to find.Hotel needs a remodel. Rooms are dated but functional. Beds are ok. Shower is good. Pool is nice, outdoor.Staff need a training in customer service. Looks and acts like they don't want to be there. Not very focused on customer service.Free computer and printer access.Parking is free.Chinese restaurant at hotel, nice staff and food is fair.AC unit is loud in the rooms.Breakfast is basic, fruit, bagels, waffles eggs...Would look at other options for next trip.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r286507881-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>286507881</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Quality Hotel in Lake Forest, CA.</t>
+  </si>
+  <si>
+    <t>I really like this place when I need to visit my Kids. It is a very nice locationand what I really enjoy is the free breakfast. The way the room was arranged wasjust perfect because When I would return from a short day or long day. The room was  in excellent condition.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r285665852-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>285665852</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Travel Agent Review</t>
+  </si>
+  <si>
+    <t>As a Travel Agent/Owner of CruiseOne - Erik Fischer &amp; Associates I would have to say this is on my top 5 of worst properties I have ever stayed at. Upon arrival in the early afternoon the employee (unknown when we drove up) was smoking and looked agitated when he put it out and walked inside behind the desk. They gave me a smaller room than requested. When I questioned him about this he was fairly argumentative and said I booked it online. I advised I called because they had the same picture for all the suites and I particularly wanted a 1 bedroom. Instead he put us in a junior suite and stated thats all they had. He then went on to tell me I was lucky he was checking me in before 3:00 pm as that is when check in time is. I told him I gave never had an issue with checking in early at other hotels and he argued with me no other hotel does it either. I asked if he wanted me to name who does and he said yes. It was like he was calling me a liar. Turns out he was the General Manager of this property and his name was Darren Yang. 
+Room as as far back as you could get on the property. Upon entering I got hit with a extremely strong oder of mildew/mold. It was strong everywhere. The comforter...As a Travel Agent/Owner of CruiseOne - Erik Fischer &amp; Associates I would have to say this is on my top 5 of worst properties I have ever stayed at. Upon arrival in the early afternoon the employee (unknown when we drove up) was smoking and looked agitated when he put it out and walked inside behind the desk. They gave me a smaller room than requested. When I questioned him about this he was fairly argumentative and said I booked it online. I advised I called because they had the same picture for all the suites and I particularly wanted a 1 bedroom. Instead he put us in a junior suite and stated thats all they had. He then went on to tell me I was lucky he was checking me in before 3:00 pm as that is when check in time is. I told him I gave never had an issue with checking in early at other hotels and he argued with me no other hotel does it either. I asked if he wanted me to name who does and he said yes. It was like he was calling me a liar. Turns out he was the General Manager of this property and his name was Darren Yang. Room as as far back as you could get on the property. Upon entering I got hit with a extremely strong oder of mildew/mold. It was strong everywhere. The comforter really smelled of mildew. My nose instantly clogged up. When I went to call the phone did not work. I then found ants all over the bath tub. They were coming and going from the water valve and the overflow drain and I was on the third floor. I chose not to eat there as this hotel was a train wreck. Management was so very unprofessional and room was horrible. I told him what I did professionally and I would be reviewing his property but he did not care.Bottom line.... stay clear of this property unless you don't care about the things I mentioned. I have stayed at all types of properties for my job from 5 star resorts to 1 star small family run properties and this is most definitely on my top 5 of worst which is disappointing as it is in a great location. It just needs new management and to be shut down for a renovation and fumigation.Again, I will never return and I recommend the same to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a Travel Agent/Owner of CruiseOne - Erik Fischer &amp; Associates I would have to say this is on my top 5 of worst properties I have ever stayed at. Upon arrival in the early afternoon the employee (unknown when we drove up) was smoking and looked agitated when he put it out and walked inside behind the desk. They gave me a smaller room than requested. When I questioned him about this he was fairly argumentative and said I booked it online. I advised I called because they had the same picture for all the suites and I particularly wanted a 1 bedroom. Instead he put us in a junior suite and stated thats all they had. He then went on to tell me I was lucky he was checking me in before 3:00 pm as that is when check in time is. I told him I gave never had an issue with checking in early at other hotels and he argued with me no other hotel does it either. I asked if he wanted me to name who does and he said yes. It was like he was calling me a liar. Turns out he was the General Manager of this property and his name was Darren Yang. 
+Room as as far back as you could get on the property. Upon entering I got hit with a extremely strong oder of mildew/mold. It was strong everywhere. The comforter...As a Travel Agent/Owner of CruiseOne - Erik Fischer &amp; Associates I would have to say this is on my top 5 of worst properties I have ever stayed at. Upon arrival in the early afternoon the employee (unknown when we drove up) was smoking and looked agitated when he put it out and walked inside behind the desk. They gave me a smaller room than requested. When I questioned him about this he was fairly argumentative and said I booked it online. I advised I called because they had the same picture for all the suites and I particularly wanted a 1 bedroom. Instead he put us in a junior suite and stated thats all they had. He then went on to tell me I was lucky he was checking me in before 3:00 pm as that is when check in time is. I told him I gave never had an issue with checking in early at other hotels and he argued with me no other hotel does it either. I asked if he wanted me to name who does and he said yes. It was like he was calling me a liar. Turns out he was the General Manager of this property and his name was Darren Yang. Room as as far back as you could get on the property. Upon entering I got hit with a extremely strong oder of mildew/mold. It was strong everywhere. The comforter really smelled of mildew. My nose instantly clogged up. When I went to call the phone did not work. I then found ants all over the bath tub. They were coming and going from the water valve and the overflow drain and I was on the third floor. I chose not to eat there as this hotel was a train wreck. Management was so very unprofessional and room was horrible. I told him what I did professionally and I would be reviewing his property but he did not care.Bottom line.... stay clear of this property unless you don't care about the things I mentioned. I have stayed at all types of properties for my job from 5 star resorts to 1 star small family run properties and this is most definitely on my top 5 of worst which is disappointing as it is in a great location. It just needs new management and to be shut down for a renovation and fumigation.Again, I will never return and I recommend the same to you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r277501122-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>277501122</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Poor hot water service.</t>
+  </si>
+  <si>
+    <t>This is an old building that has been reasonably maintained, but shows it's age in some common areas like the garage, stairwells and pool area. I would have given this just an "okay" review, but for the 4 days I stayed there was always a problem with the hot water in my third floor room.  On two mornings there was none at all until I complained at the front desk and they said they had just "reset" the boiler. I had to wait a half hour an then the water was only tepid and barely warm enough to take a shower. On the third day the said the boiler had been "fixed" but in the next morning it was back to "barely warm enough" water.  In the afternoon and evening the water was properly hot so I decided to bathe before bed to ensure I had some. The room I had overlooked the pool located in the central courtyard, and it can be quite noisy with a group of people there.  On one night a large noisy group of teens decided to have a pool party until closing time, and I couldn't get to sleep for the noise even with the window closed.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an old building that has been reasonably maintained, but shows it's age in some common areas like the garage, stairwells and pool area. I would have given this just an "okay" review, but for the 4 days I stayed there was always a problem with the hot water in my third floor room.  On two mornings there was none at all until I complained at the front desk and they said they had just "reset" the boiler. I had to wait a half hour an then the water was only tepid and barely warm enough to take a shower. On the third day the said the boiler had been "fixed" but in the next morning it was back to "barely warm enough" water.  In the afternoon and evening the water was properly hot so I decided to bathe before bed to ensure I had some. The room I had overlooked the pool located in the central courtyard, and it can be quite noisy with a group of people there.  On one night a large noisy group of teens decided to have a pool party until closing time, and I couldn't get to sleep for the noise even with the window closed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r274923964-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>274923964</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>FIRST IMPRESSION IS NOT SUPPORTED BY AMENITIES</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel recently when attending a concert at the Verizon Ampitheater (now Irvine Meadows).  The first impression is that this is a very nice place as the lobby area is beautiful.  However, once we got into our room it was apparent that this is an older hotel that has had some cosmetic improvements but is still in need of a major overhaul and maintenance.  The drain stoppers in both the bathroom sink and tub were broken.  We also found a dirty t-shirt left on the floor from a previous occupant so the cleaning staff is questionable as far as their attention to duty.  They have a restaurant at this hotel which was ok.  (Chinese food)  The desk staff was also very slow and they didn't seem to know what they were doing.  I can't recommend this hotel as I am sure there are better places to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel recently when attending a concert at the Verizon Ampitheater (now Irvine Meadows).  The first impression is that this is a very nice place as the lobby area is beautiful.  However, once we got into our room it was apparent that this is an older hotel that has had some cosmetic improvements but is still in need of a major overhaul and maintenance.  The drain stoppers in both the bathroom sink and tub were broken.  We also found a dirty t-shirt left on the floor from a previous occupant so the cleaning staff is questionable as far as their attention to duty.  They have a restaurant at this hotel which was ok.  (Chinese food)  The desk staff was also very slow and they didn't seem to know what they were doing.  I can't recommend this hotel as I am sure there are better places to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r274110771-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>274110771</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Nice, But...</t>
+  </si>
+  <si>
+    <t>I picked this hotel because of its close proximity to the Irvine Amphitheater and the fact that they had shuttle service.  I booked ahead as the weekend was a surprise birthday present for my wife.  I called two days before to confirm everything and was informed they no longer did any shuttle service.  Alright, we'll work around the inconvenience.  Upon arrival, I was greeted with a big smile by Maj.  This, of course, was after she finished her texting.  Later I visited the front desk with a question, and again waited while the texting continued.  The next day at checkout, I was surprised to see Maj again with front-desk duty, with the obligatory wait while texts are completed.  Other than that, our visit was pleasant but too brief.  The room was clean and comfortable.  The TV was large but with only local and standard channels.  I would consider staying here again.  I would have given four stars, but having my own business, it was irritating to see someone who was hired to do a job playing on her phone.MoreShow less</t>
+  </si>
+  <si>
+    <t>I picked this hotel because of its close proximity to the Irvine Amphitheater and the fact that they had shuttle service.  I booked ahead as the weekend was a surprise birthday present for my wife.  I called two days before to confirm everything and was informed they no longer did any shuttle service.  Alright, we'll work around the inconvenience.  Upon arrival, I was greeted with a big smile by Maj.  This, of course, was after she finished her texting.  Later I visited the front desk with a question, and again waited while the texting continued.  The next day at checkout, I was surprised to see Maj again with front-desk duty, with the obligatory wait while texts are completed.  Other than that, our visit was pleasant but too brief.  The room was clean and comfortable.  The TV was large but with only local and standard channels.  I would consider staying here again.  I would have given four stars, but having my own business, it was irritating to see someone who was hired to do a job playing on her phone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r257878576-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>257878576</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>As long as MAJ or JIM are working... It's all good</t>
+  </si>
+  <si>
+    <t>I have to admit it... I am a high maintenance Hotel customer. I like to stay at nicer places because they make me feel like I'm somebody important. MAJ and JIM both work the front desk at the Quality Suites and they handled all my high maintenance requests without even losing their smile. These are great employees and are excellent at customer service.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r252676159-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>252676159</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>When I arrived I was greeted by a sign in the counter saying someone will be back in five minutes, should have said ten.  My credit card imprint for incidentals was taken on an old imprinter on a piece of paper which now sits who knows where?  I had to walk through a wall of water pouring through the ceiling on the second floor walkway.  Literally a wall of water.  As I walked into the room there was a musty smell and many cosmetic flaws (wallpaper peeling) and possible water damage that was poorly repaired. Soffit above sink was only about 6 feet tall causing many head bumps. Bathroom was poorly lit and there was some mold on the ceiling in the shower.  There was no attention to detail anywhere.  All spaces were dated and needed updating.  Stairways weren't marked well I had to look at map in room to find their locations.  When i did use them they were dirty and were clumsily repaired including screws used to Hold down the plastic traction coverings.  Tripping hazard?  I booked this online.  Maybe they give the online bookings unremodeled rooms?  Pool had debris on the bottom. I won't ever stay here again.  Staff could use hospitality training also. Not friendly not hostile either just didn't seem professional or outgoing. Fridge and micro were stacked several feet from desk and looked out of place. Two lights weren't plugged in and the clock...When I arrived I was greeted by a sign in the counter saying someone will be back in five minutes, should have said ten.  My credit card imprint for incidentals was taken on an old imprinter on a piece of paper which now sits who knows where?  I had to walk through a wall of water pouring through the ceiling on the second floor walkway.  Literally a wall of water.  As I walked into the room there was a musty smell and many cosmetic flaws (wallpaper peeling) and possible water damage that was poorly repaired. Soffit above sink was only about 6 feet tall causing many head bumps. Bathroom was poorly lit and there was some mold on the ceiling in the shower.  There was no attention to detail anywhere.  All spaces were dated and needed updating.  Stairways weren't marked well I had to look at map in room to find their locations.  When i did use them they were dirty and were clumsily repaired including screws used to Hold down the plastic traction coverings.  Tripping hazard?  I booked this online.  Maybe they give the online bookings unremodeled rooms?  Pool had debris on the bottom. I won't ever stay here again.  Staff could use hospitality training also. Not friendly not hostile either just didn't seem professional or outgoing. Fridge and micro were stacked several feet from desk and looked out of place. Two lights weren't plugged in and the clock was not set even close to the correct time.  No attention to details.  I took photos, but apparently it's not possible to attach them when posting from a mobile device?MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>When I arrived I was greeted by a sign in the counter saying someone will be back in five minutes, should have said ten.  My credit card imprint for incidentals was taken on an old imprinter on a piece of paper which now sits who knows where?  I had to walk through a wall of water pouring through the ceiling on the second floor walkway.  Literally a wall of water.  As I walked into the room there was a musty smell and many cosmetic flaws (wallpaper peeling) and possible water damage that was poorly repaired. Soffit above sink was only about 6 feet tall causing many head bumps. Bathroom was poorly lit and there was some mold on the ceiling in the shower.  There was no attention to detail anywhere.  All spaces were dated and needed updating.  Stairways weren't marked well I had to look at map in room to find their locations.  When i did use them they were dirty and were clumsily repaired including screws used to Hold down the plastic traction coverings.  Tripping hazard?  I booked this online.  Maybe they give the online bookings unremodeled rooms?  Pool had debris on the bottom. I won't ever stay here again.  Staff could use hospitality training also. Not friendly not hostile either just didn't seem professional or outgoing. Fridge and micro were stacked several feet from desk and looked out of place. Two lights weren't plugged in and the clock...When I arrived I was greeted by a sign in the counter saying someone will be back in five minutes, should have said ten.  My credit card imprint for incidentals was taken on an old imprinter on a piece of paper which now sits who knows where?  I had to walk through a wall of water pouring through the ceiling on the second floor walkway.  Literally a wall of water.  As I walked into the room there was a musty smell and many cosmetic flaws (wallpaper peeling) and possible water damage that was poorly repaired. Soffit above sink was only about 6 feet tall causing many head bumps. Bathroom was poorly lit and there was some mold on the ceiling in the shower.  There was no attention to detail anywhere.  All spaces were dated and needed updating.  Stairways weren't marked well I had to look at map in room to find their locations.  When i did use them they were dirty and were clumsily repaired including screws used to Hold down the plastic traction coverings.  Tripping hazard?  I booked this online.  Maybe they give the online bookings unremodeled rooms?  Pool had debris on the bottom. I won't ever stay here again.  Staff could use hospitality training also. Not friendly not hostile either just didn't seem professional or outgoing. Fridge and micro were stacked several feet from desk and looked out of place. Two lights weren't plugged in and the clock was not set even close to the correct time.  No attention to details.  I took photos, but apparently it's not possible to attach them when posting from a mobile device?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r245037835-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>245037835</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Quality means quality</t>
+  </si>
+  <si>
+    <t>Wonderful suite at modest price.  Clean, classy room.  Great bed.  Pool/spa.  Hot buffet breakfast...bacon...yum.  QUiet; away from Freeway.  Fast food next door;half a dozen good restaurants in walking distance.  Perfect location just off Lake Forest and I-5.  Staff was professional and efficient. Will be back!  Great AARP rates make us oldsters feel wanted!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r221122565-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>221122565</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice price.</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend only stayed for one night while we were visiting Laguna Beach for a small budgeted getaway. However we had a very nice stay for a decent price. We checked in late at night and the front desk was exceptional. This hotel was clean and I would stay again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r218904516-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>218904516</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Moderate Motel Near Freeway Exit With Easy Driving To Beaches</t>
+  </si>
+  <si>
+    <t>This motel is average at best. It's off of the 5 Freeway on Rockfield in a business park next to a McDonald's. If you see the McDonald's turn there! Otherwise you might bypass the motel. There are other ways of accessing this place, but this is the easiest. The neighborhood houses mid-scale types of restaurants and shops. Nothing fancy. Nothing real good. The mall down the road has seen better days. My room overlooked the pool. On stuffy days (which I had while I was there) the chlorine suspended in the air. So I closed the balcony door and turned on the air conditioner. The pool, though, is actually useful and there is a small exercise area. When I was there youth baseball players were using the facilities. The lobby is large, there's a guest computer useful for replacing the "iffy" Wi-Fi, and there's also an on-site Chinese restaurant. The continental breakfast is free but, if there is a large group staying there, try to eat early so you still have some good food choices left. My room had a fridge and microwave. Good for storing some drinks, groceries, and cookies. But I didn't like the bed pillows. They were shaped like rectangles and too firm. The motel is an easy drive down to the beachfront at Laguna. But you'll need to get an early start for free parking. Otherwise, you can feed the meters or park in the pay...This motel is average at best. It's off of the 5 Freeway on Rockfield in a business park next to a McDonald's. If you see the McDonald's turn there! Otherwise you might bypass the motel. There are other ways of accessing this place, but this is the easiest. The neighborhood houses mid-scale types of restaurants and shops. Nothing fancy. Nothing real good. The mall down the road has seen better days. My room overlooked the pool. On stuffy days (which I had while I was there) the chlorine suspended in the air. So I closed the balcony door and turned on the air conditioner. The pool, though, is actually useful and there is a small exercise area. When I was there youth baseball players were using the facilities. The lobby is large, there's a guest computer useful for replacing the "iffy" Wi-Fi, and there's also an on-site Chinese restaurant. The continental breakfast is free but, if there is a large group staying there, try to eat early so you still have some good food choices left. My room had a fridge and microwave. Good for storing some drinks, groceries, and cookies. But I didn't like the bed pillows. They were shaped like rectangles and too firm. The motel is an easy drive down to the beachfront at Laguna. But you'll need to get an early start for free parking. Otherwise, you can feed the meters or park in the pay lots. Laguna does provide shuttle service. Free in the summer, a small fee other times. But I parked at the Laguna Hills Mall, hailed the 89 bus, paid a small fare and, 25 minutes later, was dropped 4 blocks from the sand. If you do this, check the schedule for the return because the evening buses run but once an hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This motel is average at best. It's off of the 5 Freeway on Rockfield in a business park next to a McDonald's. If you see the McDonald's turn there! Otherwise you might bypass the motel. There are other ways of accessing this place, but this is the easiest. The neighborhood houses mid-scale types of restaurants and shops. Nothing fancy. Nothing real good. The mall down the road has seen better days. My room overlooked the pool. On stuffy days (which I had while I was there) the chlorine suspended in the air. So I closed the balcony door and turned on the air conditioner. The pool, though, is actually useful and there is a small exercise area. When I was there youth baseball players were using the facilities. The lobby is large, there's a guest computer useful for replacing the "iffy" Wi-Fi, and there's also an on-site Chinese restaurant. The continental breakfast is free but, if there is a large group staying there, try to eat early so you still have some good food choices left. My room had a fridge and microwave. Good for storing some drinks, groceries, and cookies. But I didn't like the bed pillows. They were shaped like rectangles and too firm. The motel is an easy drive down to the beachfront at Laguna. But you'll need to get an early start for free parking. Otherwise, you can feed the meters or park in the pay...This motel is average at best. It's off of the 5 Freeway on Rockfield in a business park next to a McDonald's. If you see the McDonald's turn there! Otherwise you might bypass the motel. There are other ways of accessing this place, but this is the easiest. The neighborhood houses mid-scale types of restaurants and shops. Nothing fancy. Nothing real good. The mall down the road has seen better days. My room overlooked the pool. On stuffy days (which I had while I was there) the chlorine suspended in the air. So I closed the balcony door and turned on the air conditioner. The pool, though, is actually useful and there is a small exercise area. When I was there youth baseball players were using the facilities. The lobby is large, there's a guest computer useful for replacing the "iffy" Wi-Fi, and there's also an on-site Chinese restaurant. The continental breakfast is free but, if there is a large group staying there, try to eat early so you still have some good food choices left. My room had a fridge and microwave. Good for storing some drinks, groceries, and cookies. But I didn't like the bed pillows. They were shaped like rectangles and too firm. The motel is an easy drive down to the beachfront at Laguna. But you'll need to get an early start for free parking. Otherwise, you can feed the meters or park in the pay lots. Laguna does provide shuttle service. Free in the summer, a small fee other times. But I parked at the Laguna Hills Mall, hailed the 89 bus, paid a small fare and, 25 minutes later, was dropped 4 blocks from the sand. If you do this, check the schedule for the return because the evening buses run but once an hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r218353059-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>218353059</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here. It's only a place to sleep, expect nothing more.</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience for our money we have ever had. We paid $159/night and this hotel is more in value compared to a Motel 6, pretending to be something better. We reserved a non-smoking room, which wreaked of smoke. A dirty towel was left on the floor. A bed skirt was splattered with who knows what. The decor and decorations are cheap and thrown together. No coffee packets were provided in the room. When we did get them, we found out the coffee maker did not work properly, had coffee all over the place. The sliding door lock was broken, only the bar to keep it secure. Pool edge was about 5 feet from our room, extremely noisy, room 142. TV was not plugged in, but figured that out eventually. Someone elses hairs were in the sink upon arrival. Witnessed a server snap at a guest at breakfast, for no apparent reason, other than she was overworked and frustrated. Only one server was not enough for the amount of people trying to get breakfast. Coffee out, pastries out, forks gone, regular waffle mix out. Sand or some odd substance inside the entry to the outside. Halls/stairwells to outside were filthy. Carpets in the room made you feel dirty. Room door would not close unless you pulled it closed. This hotel is outdated and in need of major upgrades and deep down cleaning, as well as better management...This was the worst hotel experience for our money we have ever had. We paid $159/night and this hotel is more in value compared to a Motel 6, pretending to be something better. We reserved a non-smoking room, which wreaked of smoke. A dirty towel was left on the floor. A bed skirt was splattered with who knows what. The decor and decorations are cheap and thrown together. No coffee packets were provided in the room. When we did get them, we found out the coffee maker did not work properly, had coffee all over the place. The sliding door lock was broken, only the bar to keep it secure. Pool edge was about 5 feet from our room, extremely noisy, room 142. TV was not plugged in, but figured that out eventually. Someone elses hairs were in the sink upon arrival. Witnessed a server snap at a guest at breakfast, for no apparent reason, other than she was overworked and frustrated. Only one server was not enough for the amount of people trying to get breakfast. Coffee out, pastries out, forks gone, regular waffle mix out. Sand or some odd substance inside the entry to the outside. Halls/stairwells to outside were filthy. Carpets in the room made you feel dirty. Room door would not close unless you pulled it closed. This hotel is outdated and in need of major upgrades and deep down cleaning, as well as better management of housekeeping and maintenance.It was a place to sleep, nothing more, and we won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience for our money we have ever had. We paid $159/night and this hotel is more in value compared to a Motel 6, pretending to be something better. We reserved a non-smoking room, which wreaked of smoke. A dirty towel was left on the floor. A bed skirt was splattered with who knows what. The decor and decorations are cheap and thrown together. No coffee packets were provided in the room. When we did get them, we found out the coffee maker did not work properly, had coffee all over the place. The sliding door lock was broken, only the bar to keep it secure. Pool edge was about 5 feet from our room, extremely noisy, room 142. TV was not plugged in, but figured that out eventually. Someone elses hairs were in the sink upon arrival. Witnessed a server snap at a guest at breakfast, for no apparent reason, other than she was overworked and frustrated. Only one server was not enough for the amount of people trying to get breakfast. Coffee out, pastries out, forks gone, regular waffle mix out. Sand or some odd substance inside the entry to the outside. Halls/stairwells to outside were filthy. Carpets in the room made you feel dirty. Room door would not close unless you pulled it closed. This hotel is outdated and in need of major upgrades and deep down cleaning, as well as better management...This was the worst hotel experience for our money we have ever had. We paid $159/night and this hotel is more in value compared to a Motel 6, pretending to be something better. We reserved a non-smoking room, which wreaked of smoke. A dirty towel was left on the floor. A bed skirt was splattered with who knows what. The decor and decorations are cheap and thrown together. No coffee packets were provided in the room. When we did get them, we found out the coffee maker did not work properly, had coffee all over the place. The sliding door lock was broken, only the bar to keep it secure. Pool edge was about 5 feet from our room, extremely noisy, room 142. TV was not plugged in, but figured that out eventually. Someone elses hairs were in the sink upon arrival. Witnessed a server snap at a guest at breakfast, for no apparent reason, other than she was overworked and frustrated. Only one server was not enough for the amount of people trying to get breakfast. Coffee out, pastries out, forks gone, regular waffle mix out. Sand or some odd substance inside the entry to the outside. Halls/stairwells to outside were filthy. Carpets in the room made you feel dirty. Room door would not close unless you pulled it closed. This hotel is outdated and in need of major upgrades and deep down cleaning, as well as better management of housekeeping and maintenance.It was a place to sleep, nothing more, and we won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r210843943-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>210843943</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>No Sheets ??? What A Dump !!</t>
+  </si>
+  <si>
+    <t>I booked a five night stay. When I returned to the room it was cleaned but all the blankets were thrown on the sofa. I tried to call but the phone didn’t work. I called the hotel from my Cell and spoke to Jim. I told him that I was in room 231 and the phone didn’t work. He responded with a smart answer that I needed to push a button to get a dial tone, which I tried and pushed line one and line two. Then I explained my issue with the blankets. Again a smart answer - that means they should be back in maybe 10 minutes to make the bed. Twenty minutes later I called the toll free number but was told I couldn’t file a complaint until I checked out. So I  checked out early and booked with Best Western located behind thier location. Basically this location didn’t have enough sheets for the rooms occupied. I been a customer for a while but this is the last time I will stay at a Choice Hotel. By the Wat Best Wester Spectrum is Awesome !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>homeawayfromhome1, Director of Sales at Quality Inn &amp; Suites Irvine Spectrum, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>I booked a five night stay. When I returned to the room it was cleaned but all the blankets were thrown on the sofa. I tried to call but the phone didn’t work. I called the hotel from my Cell and spoke to Jim. I told him that I was in room 231 and the phone didn’t work. He responded with a smart answer that I needed to push a button to get a dial tone, which I tried and pushed line one and line two. Then I explained my issue with the blankets. Again a smart answer - that means they should be back in maybe 10 minutes to make the bed. Twenty minutes later I called the toll free number but was told I couldn’t file a complaint until I checked out. So I  checked out early and booked with Best Western located behind thier location. Basically this location didn’t have enough sheets for the rooms occupied. I been a customer for a while but this is the last time I will stay at a Choice Hotel. By the Wat Best Wester Spectrum is Awesome !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r209940486-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>209940486</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Well above my expectations!</t>
+  </si>
+  <si>
+    <t>I went to Orange County for a sporting event from 6/5 to 6/9/2014 and got a great deal on this Hotel through priceline. My expectations were not too high considering the relatively low star rating and some critical reviews. I have to say that the Hotel exceeded all my expectations in any way.. I got there at 2:30, 30 minutes prior to their 3 PM check in time and the friendly young lady at the front desk were able to get me into a room after checking with the cleaning staff. The lobby looked very clean.. The front doors looked a little dated and could use a fresh coat of paint and the AC vents in the lobby showed a little bit of age, but other than that, the impression was flawless.. When I got to the room, I was pleasantly surprised.. The room was good size with a small balcony. The room appeared remodeled with upgraded bathroom and newer looking furniture. Bed was comfortable for me as I do like firmer beds like the one they had. Pillows are kinda small but as there were 4 of them on the king size bed, that wasn't a problem.  There was no noise etc. at any time that I spent in my room.. Just quiet and relaxing. Everything in the room was working and I took advantage of the little fridge to keep my sports drinks cool. 
+The breakfast was a...I went to Orange County for a sporting event from 6/5 to 6/9/2014 and got a great deal on this Hotel through priceline. My expectations were not too high considering the relatively low star rating and some critical reviews. I have to say that the Hotel exceeded all my expectations in any way.. I got there at 2:30, 30 minutes prior to their 3 PM check in time and the friendly young lady at the front desk were able to get me into a room after checking with the cleaning staff. The lobby looked very clean.. The front doors looked a little dated and could use a fresh coat of paint and the AC vents in the lobby showed a little bit of age, but other than that, the impression was flawless.. When I got to the room, I was pleasantly surprised.. The room was good size with a small balcony. The room appeared remodeled with upgraded bathroom and newer looking furniture. Bed was comfortable for me as I do like firmer beds like the one they had. Pillows are kinda small but as there were 4 of them on the king size bed, that wasn't a problem.  There was no noise etc. at any time that I spent in my room.. Just quiet and relaxing. Everything in the room was working and I took advantage of the little fridge to keep my sports drinks cool. The breakfast was a typical Hotel breakfast. The sausage was actually pretty good! The location is very good and lots of places in walking distance including the #1 rated Restaurant in the area, Peppino's.. There is also a Panera right in front of Peppino's. For those who prefer McDonalds, there is one right across from the Hotel. I did not use the pool but it appeared clean and inviting.I think that with a little bit of minor maintenance (like painting the exterior right where the main entrance is), painting or replacing the front doors and replacing some of the ac vents that show some age, this should be at least one star higher rated.. I've been to 3.5 star Hotels that weren't any nicer than this one. I will likely be back at the Quality in in Lake Forest next year when I'm in the area again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to Orange County for a sporting event from 6/5 to 6/9/2014 and got a great deal on this Hotel through priceline. My expectations were not too high considering the relatively low star rating and some critical reviews. I have to say that the Hotel exceeded all my expectations in any way.. I got there at 2:30, 30 minutes prior to their 3 PM check in time and the friendly young lady at the front desk were able to get me into a room after checking with the cleaning staff. The lobby looked very clean.. The front doors looked a little dated and could use a fresh coat of paint and the AC vents in the lobby showed a little bit of age, but other than that, the impression was flawless.. When I got to the room, I was pleasantly surprised.. The room was good size with a small balcony. The room appeared remodeled with upgraded bathroom and newer looking furniture. Bed was comfortable for me as I do like firmer beds like the one they had. Pillows are kinda small but as there were 4 of them on the king size bed, that wasn't a problem.  There was no noise etc. at any time that I spent in my room.. Just quiet and relaxing. Everything in the room was working and I took advantage of the little fridge to keep my sports drinks cool. 
+The breakfast was a...I went to Orange County for a sporting event from 6/5 to 6/9/2014 and got a great deal on this Hotel through priceline. My expectations were not too high considering the relatively low star rating and some critical reviews. I have to say that the Hotel exceeded all my expectations in any way.. I got there at 2:30, 30 minutes prior to their 3 PM check in time and the friendly young lady at the front desk were able to get me into a room after checking with the cleaning staff. The lobby looked very clean.. The front doors looked a little dated and could use a fresh coat of paint and the AC vents in the lobby showed a little bit of age, but other than that, the impression was flawless.. When I got to the room, I was pleasantly surprised.. The room was good size with a small balcony. The room appeared remodeled with upgraded bathroom and newer looking furniture. Bed was comfortable for me as I do like firmer beds like the one they had. Pillows are kinda small but as there were 4 of them on the king size bed, that wasn't a problem.  There was no noise etc. at any time that I spent in my room.. Just quiet and relaxing. Everything in the room was working and I took advantage of the little fridge to keep my sports drinks cool. The breakfast was a typical Hotel breakfast. The sausage was actually pretty good! The location is very good and lots of places in walking distance including the #1 rated Restaurant in the area, Peppino's.. There is also a Panera right in front of Peppino's. For those who prefer McDonalds, there is one right across from the Hotel. I did not use the pool but it appeared clean and inviting.I think that with a little bit of minor maintenance (like painting the exterior right where the main entrance is), painting or replacing the front doors and replacing some of the ac vents that show some age, this should be at least one star higher rated.. I've been to 3.5 star Hotels that weren't any nicer than this one. I will likely be back at the Quality in in Lake Forest next year when I'm in the area again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r208712058-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>208712058</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Great location an clean rooms</t>
+  </si>
+  <si>
+    <t>Clean rooms and comfortable accommodations.  The breakfast was the best, especially if you love waffles.  The staff was kind and professional during my entire stay.  There is also a Chinese restaurant on the grounds, very good food.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>homeawayfromhome1, Director of Sales at Quality Inn &amp; Suites Irvine Spectrum, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Clean rooms and comfortable accommodations.  The breakfast was the best, especially if you love waffles.  The staff was kind and professional during my entire stay.  There is also a Chinese restaurant on the grounds, very good food.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r199896316-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>199896316</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>No electricity</t>
+  </si>
+  <si>
+    <t>We were in Lake Forest for a family reunion.  We arrived a few days ahead of others in our group.  The hotel was once nice but badly in need of updating. Soiled paint and peeling wall paper.  The hotel is clean enough but gives an overall shabby appearance due to paint and wall paper issues.  There was also a very large, beautiful chandelier in the lobby.  The chandelier had not been cleaned in a very long time and looked dull and dirty.The hotel was understaffed and I had to go to desk to get items needed for the room.The day the rest of our party arrived there was a small letter sized sign at the desk advising that the electricity would be off from 10 pm until 6 am.  Several in our group had small children and would need to be up changing diapers and feeding.  No electricity was NOT an option.  When the desk personnel was told they did not desire to stay under these circumstances, the hotel told them they would NOT refund their deposit.   We would not have even known there would be no electrify if our group had not been checking in and seen the small sign.MoreShow less</t>
+  </si>
+  <si>
+    <t>homeawayfromhome1, Director of Sales at Quality Inn &amp; Suites Irvine Spectrum, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>We were in Lake Forest for a family reunion.  We arrived a few days ahead of others in our group.  The hotel was once nice but badly in need of updating. Soiled paint and peeling wall paper.  The hotel is clean enough but gives an overall shabby appearance due to paint and wall paper issues.  There was also a very large, beautiful chandelier in the lobby.  The chandelier had not been cleaned in a very long time and looked dull and dirty.The hotel was understaffed and I had to go to desk to get items needed for the room.The day the rest of our party arrived there was a small letter sized sign at the desk advising that the electricity would be off from 10 pm until 6 am.  Several in our group had small children and would need to be up changing diapers and feeding.  No electricity was NOT an option.  When the desk personnel was told they did not desire to stay under these circumstances, the hotel told them they would NOT refund their deposit.   We would not have even known there would be no electrify if our group had not been checking in and seen the small sign.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r197602854-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>197602854</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Great service and affordable prices</t>
+  </si>
+  <si>
+    <t>I recently had to stay here for a business trip and I will say that the service that your front desk associate Jose was truly exceptional.  He was efficient and had a great personality.  My room was a little outdated but very clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently had to stay here for a business trip and I will say that the service that your front desk associate Jose was truly exceptional.  He was efficient and had a great personality.  My room was a little outdated but very clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r197324039-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>197324039</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Nice staff but to many problems to fix</t>
+  </si>
+  <si>
+    <t>First views are nice, lobby and outside.  Room large but a little worn and non smoking room was smoky, moved to new room fast.  Only one towel and no soap once again call to front desk quick fix.  Exercise room light was out two of the three days we were there.  Breakfast was ok onsite Chinese Restaurant.  was good also a great Thai place close by.  This hotel is not a 2 1/2 star but a good value for over price area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r178781599-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>178781599</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We hosted a family reunion and our family members (more than 40) stayed in this hotel.  They were very happy with the accommodations, services and food.  The location and price are excellent.  Rooms are clean.  Breakfast are good.  The restaurant is great.  We definitely would recommend to our friends.y</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r178637030-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>178637030</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Great place great staff great location!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay here often and it's a really nice hotel I travel a lot so I stay at a lot of hotels this one makes me feel like I'm at home my room is always ready for me the staff is always friendly and they treat you great!!! The rooms are big and roomy and it's probably one of the cleanest hotels I've stayed at. I love it here!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r177682886-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>177682886</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Stay in you car</t>
+  </si>
+  <si>
+    <t>When we (3 rooms booked) it was before 3 -2:15p.m. The two men in our party, my husband and another man were allowed to check in BUT the one woman in group was told she and her sister had to wait until 3. Why? So we all waited for her to check in. By the by hotel was not busy. Rooms were clean enough although our bathtub would not turn off all the way-so quite a waste of water. Hot breakfast? A joke. WE waited 20 minutes for scrambled eggs-they didn't materialize so I went to front desk-same guy as day before still didn't care and neither did the young woman preparing food. Remember the commercial "1 potato, 2 potato...?" No milk for cereal, no coffee (reg or decaf), no fruit just some remnants of what might have been an hour earlier AND "breakfast" still had 40 minutes to go. reiterating, hotel not busy. Front guy didn't care about leaky tub. We don't care to go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we (3 rooms booked) it was before 3 -2:15p.m. The two men in our party, my husband and another man were allowed to check in BUT the one woman in group was told she and her sister had to wait until 3. Why? So we all waited for her to check in. By the by hotel was not busy. Rooms were clean enough although our bathtub would not turn off all the way-so quite a waste of water. Hot breakfast? A joke. WE waited 20 minutes for scrambled eggs-they didn't materialize so I went to front desk-same guy as day before still didn't care and neither did the young woman preparing food. Remember the commercial "1 potato, 2 potato...?" No milk for cereal, no coffee (reg or decaf), no fruit just some remnants of what might have been an hour earlier AND "breakfast" still had 40 minutes to go. reiterating, hotel not busy. Front guy didn't care about leaky tub. We don't care to go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r172387822-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>172387822</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>Someone tried to come into our room at 3am.  I was woken up by a loud bang, and thought I saw light by the door.  I just figured my daughter was in the bathroom.  Turns out she wasn't. I noticed the security bar was pushed against the wall the next morning, and realized someone did try to come in. I told the manager at the desk the next morning, he was rude, snotty, and asked why I didn't "call him when it happened since he was there all night, there was nothing he could do about it now". I'd already explained I didn't realize what had happened until I got up later.Besides the fact that unless a person has the card keyed for the room, no one should have been trying to get in at 3am.The breakfast was terrible, and overall the staff we encountered were very unfriendly.We travel often for soccer tournaments, and I will be passing the word on this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Someone tried to come into our room at 3am.  I was woken up by a loud bang, and thought I saw light by the door.  I just figured my daughter was in the bathroom.  Turns out she wasn't. I noticed the security bar was pushed against the wall the next morning, and realized someone did try to come in. I told the manager at the desk the next morning, he was rude, snotty, and asked why I didn't "call him when it happened since he was there all night, there was nothing he could do about it now". I'd already explained I didn't realize what had happened until I got up later.Besides the fact that unless a person has the card keyed for the room, no one should have been trying to get in at 3am.The breakfast was terrible, and overall the staff we encountered were very unfriendly.We travel often for soccer tournaments, and I will be passing the word on this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r172304662-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>172304662</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Ok place if passing through</t>
+  </si>
+  <si>
+    <t>Stayed here Saturday Aug 10th on our way from San Diego to Long Beach. Book online after reading all the reviews on TA.When we arrive we had to wait just a short time for the desk clerk to come back but once he showed we were registered and in our room quick. The room felt a little dirty but wasn't worth complaining about, though it did smell like someone had been smoking in it and was evident by the burn on the bed sheets.The positive thing was that after 10:00pm there was a lot of noise coming from the pool, we called the front desk and the clerk was apologetic for not having been aware but within 5 minutes of being told the noise stopped. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here Saturday Aug 10th on our way from San Diego to Long Beach. Book online after reading all the reviews on TA.When we arrive we had to wait just a short time for the desk clerk to come back but once he showed we were registered and in our room quick. The room felt a little dirty but wasn't worth complaining about, though it did smell like someone had been smoking in it and was evident by the burn on the bed sheets.The positive thing was that after 10:00pm there was a lot of noise coming from the pool, we called the front desk and the clerk was apologetic for not having been aware but within 5 minutes of being told the noise stopped. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r171562365-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>171562365</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Just the facts... re-think going here.</t>
+  </si>
+  <si>
+    <t>First the good: Centrally located -- close to highways, shopping, and restaurants. Housekeeping kept the rooms stocked and cleaned up. Wi-fi was slow, but free. 
+Everything else was mediocre to heinous. The full breakfast wasn't very appetizing -- mostly pre-made stuff except for the waffles which you could make yourself. This "non-smoking" hotel was anything but. Smoke smell was everywhere. And we're not just talking cigarettes -- people were visibly lighting up pot on the balcony of their room. Worst of all -- the front desk staff, Jim especially, was exceptionally rude and did not exhibit the slightest bit of good customer service.If that weren't bad enough, a photocopy of my credit card (as well as others who checked in) was made at check-in -- even though it had already been run through the charge machine -- and when I found this out, he outright refused to give it back and said that he would have to check me out if he gave it back. When I did check out, he still refused to give it back citing that every hotel in the country does it. I reported it to my credit card company and they were appalled (they luckily reported it to their fraud division and sent me a new card).
+Long story short, it was better than nothing -- but next time I'll pay the extra bucks and go to a hotel where they know the meaning of...First the good: Centrally located -- close to highways, shopping, and restaurants. Housekeeping kept the rooms stocked and cleaned up. Wi-fi was slow, but free. Everything else was mediocre to heinous. The full breakfast wasn't very appetizing -- mostly pre-made stuff except for the waffles which you could make yourself. This "non-smoking" hotel was anything but. Smoke smell was everywhere. And we're not just talking cigarettes -- people were visibly lighting up pot on the balcony of their room. Worst of all -- the front desk staff, Jim especially, was exceptionally rude and did not exhibit the slightest bit of good customer service.If that weren't bad enough, a photocopy of my credit card (as well as others who checked in) was made at check-in -- even though it had already been run through the charge machine -- and when I found this out, he outright refused to give it back and said that he would have to check me out if he gave it back. When I did check out, he still refused to give it back citing that every hotel in the country does it. I reported it to my credit card company and they were appalled (they luckily reported it to their fraud division and sent me a new card).Long story short, it was better than nothing -- but next time I'll pay the extra bucks and go to a hotel where they know the meaning of hospitality instead of trying to make you feel like they're doing you a favor.MoreShow less</t>
+  </si>
+  <si>
+    <t>First the good: Centrally located -- close to highways, shopping, and restaurants. Housekeeping kept the rooms stocked and cleaned up. Wi-fi was slow, but free. 
+Everything else was mediocre to heinous. The full breakfast wasn't very appetizing -- mostly pre-made stuff except for the waffles which you could make yourself. This "non-smoking" hotel was anything but. Smoke smell was everywhere. And we're not just talking cigarettes -- people were visibly lighting up pot on the balcony of their room. Worst of all -- the front desk staff, Jim especially, was exceptionally rude and did not exhibit the slightest bit of good customer service.If that weren't bad enough, a photocopy of my credit card (as well as others who checked in) was made at check-in -- even though it had already been run through the charge machine -- and when I found this out, he outright refused to give it back and said that he would have to check me out if he gave it back. When I did check out, he still refused to give it back citing that every hotel in the country does it. I reported it to my credit card company and they were appalled (they luckily reported it to their fraud division and sent me a new card).
+Long story short, it was better than nothing -- but next time I'll pay the extra bucks and go to a hotel where they know the meaning of...First the good: Centrally located -- close to highways, shopping, and restaurants. Housekeeping kept the rooms stocked and cleaned up. Wi-fi was slow, but free. Everything else was mediocre to heinous. The full breakfast wasn't very appetizing -- mostly pre-made stuff except for the waffles which you could make yourself. This "non-smoking" hotel was anything but. Smoke smell was everywhere. And we're not just talking cigarettes -- people were visibly lighting up pot on the balcony of their room. Worst of all -- the front desk staff, Jim especially, was exceptionally rude and did not exhibit the slightest bit of good customer service.If that weren't bad enough, a photocopy of my credit card (as well as others who checked in) was made at check-in -- even though it had already been run through the charge machine -- and when I found this out, he outright refused to give it back and said that he would have to check me out if he gave it back. When I did check out, he still refused to give it back citing that every hotel in the country does it. I reported it to my credit card company and they were appalled (they luckily reported it to their fraud division and sent me a new card).Long story short, it was better than nothing -- but next time I'll pay the extra bucks and go to a hotel where they know the meaning of hospitality instead of trying to make you feel like they're doing you a favor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r168614365-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>168614365</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>It started off so promising ...</t>
+  </si>
+  <si>
+    <t>I spent nearly a week at this hotel.  As a business traveler, my needs are simple: peace and quiet, hot shower, temperature control, wake-up call.  I was offered a choice of several hotels in the area by my client, and chose this Quality Inn because of the perks: free hot breakfast, parking, wifi, fridge and microwave.
+Things started going south upon check-in, when the desk clerk put me in a room that didn't remotely resemble the one that had been booked for me: a king bed suite with a pull-out sofa and balcony.  Instead, I was given a regular room with 2 queen beds and no balcony or sofa bed.  The clerk said she'd move me to another room the following day, but although I saw her at the front desk literally every day that week, she never followed through.
+I soon discovered the refrigerator in my room didn't close properly, and thus spoiled $15 worth of leftovers.  A male desk clerk replaced the fridge for me the following day--good.  However, that night the same female desk clerk failed to plug in my wakeup call for the following morning--bad.  Luckily I had my iPhone alarm as a backup.
+On the second night of my stay, I was extremely tired, and at 8:30PM ready for bed.  I had no sooner doused the lights when a ruckus in the parking lot outside my window woke me up; it was a screeching chorus...I spent nearly a week at this hotel.  As a business traveler, my needs are simple: peace and quiet, hot shower, temperature control, wake-up call.  I was offered a choice of several hotels in the area by my client, and chose this Quality Inn because of the perks: free hot breakfast, parking, wifi, fridge and microwave.Things started going south upon check-in, when the desk clerk put me in a room that didn't remotely resemble the one that had been booked for me: a king bed suite with a pull-out sofa and balcony.  Instead, I was given a regular room with 2 queen beds and no balcony or sofa bed.  The clerk said she'd move me to another room the following day, but although I saw her at the front desk literally every day that week, she never followed through.I soon discovered the refrigerator in my room didn't close properly, and thus spoiled $15 worth of leftovers.  A male desk clerk replaced the fridge for me the following day--good.  However, that night the same female desk clerk failed to plug in my wakeup call for the following morning--bad.  Luckily I had my iPhone alarm as a backup.On the second night of my stay, I was extremely tired, and at 8:30PM ready for bed.  I had no sooner doused the lights when a ruckus in the parking lot outside my window woke me up; it was a screeching chorus of hundreds of pre-teen children's voices, in a Chinese dialect.  At first I thought, "Oh, surely they're just making a pit stop at the McDonald's next door," never dreaming the screeching throng would be checking into the hotel.  But they did, by the busload.Yes, this rowdy group of at least 100 noisy children swarmed into the hotel lobby, which was just below my room.  In her infinite wisdom, the female desk clerk managed to book two groups of pre-pubescent boys--4 to the room--in the room adjacent to mine, and the one directly above me.  My room had a shared door with the room next door, and the kids continuously tried to enter my room, pounding and shaking the door as they hollered at one another.  The kids above me must moonlight as gymnasts, because they were constantly stomping and pounding on the floor, to the point that the ceiling and walls in my room actually shook.After half an hour of chaos, I went down to complain to the front desk clerk.  She said "we're getting a lot of complaints," as if our conversation should somehow end there.  Luckily, the hotel's manager, who is of Chinese ancestry and spoke the same dialect as the youngsters, appeared, and said he personally would speak with the children in the room next to mine.  True to his word, he admonished the kids to keep quiet, as did the 3(!) adults traveling with the 100+(!) children.  The kids did settle down; but the little gymnasts upstairs tumbled for another hour.After another complaint to the front desk clerk yielded zero results, I finally went upstairs myself.  A young kid who couldn't have been older than 8 opened the door; he spoke enough English to understand what I was saying, and apologized for the stomping/jumping.  I asked him if there was an adult in the room, but there wasn't, only 3 other boys, none of whom appeared to be older than age 10.  All was well for about 20 minutes; then the stomping resumed.  Again I had to contact the front desk, and after about 30 more minutes, things were finally quiet.  By that point I had lost 2 hours of sleep.The next morning I woke at about 7:30 and went down to the breakfast bar; to my dismay, the horde of children had descended upon it en masse, and 6 deep.  A tiny opening appeared in front of the coffee machine; I had no sooner edged toward it than 5 kids ran right in front of me, cutting off access.  Even more maddeningly, they just stood there, obviously not interested in coffee, merely wanting to cut in line just in case there was something they did want.  The poor woman who serviced the breakfast bar tried to wade through the kiddie swarm, holding hot dishes aloft and hollering "excuse me, excuse me!" to no avail, as the kids wouldn't even let her through to service the bar.  Finally, an adult connected to the group appeared, lectured the children loudly, and managed to get them to form a queue--which lasted for about 15 minutes.  I grabbed what sustenance I could and escaped to my room.Shortly before I left that morning, I saw the children's bus outside my window; the kids were boarding, suitcases in tow.  "Good!" I thought, optimistic this episode was a fluke, that the rest of the week would be quiet, and the hotel would in fact revert from a playground to a hotel.Alas, the following evening--and EVERY evening thereafter--a similar group of children appeared like clockwork at 8:30PM, swarmed the lobby, and treated the hotel like it was their personal, noisy playspace.  Same complaints to the front desk, every night.  Same problems with the breakfast bar ... every morning.It's unfortunate, because this hotel had such promise in the beginning.  Yes, they're doing some things right--free perks, even underground parking--but there's no substitute for peace and quiet and a good night's sleep.  Business travelers, caveat emptor.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent nearly a week at this hotel.  As a business traveler, my needs are simple: peace and quiet, hot shower, temperature control, wake-up call.  I was offered a choice of several hotels in the area by my client, and chose this Quality Inn because of the perks: free hot breakfast, parking, wifi, fridge and microwave.
+Things started going south upon check-in, when the desk clerk put me in a room that didn't remotely resemble the one that had been booked for me: a king bed suite with a pull-out sofa and balcony.  Instead, I was given a regular room with 2 queen beds and no balcony or sofa bed.  The clerk said she'd move me to another room the following day, but although I saw her at the front desk literally every day that week, she never followed through.
+I soon discovered the refrigerator in my room didn't close properly, and thus spoiled $15 worth of leftovers.  A male desk clerk replaced the fridge for me the following day--good.  However, that night the same female desk clerk failed to plug in my wakeup call for the following morning--bad.  Luckily I had my iPhone alarm as a backup.
+On the second night of my stay, I was extremely tired, and at 8:30PM ready for bed.  I had no sooner doused the lights when a ruckus in the parking lot outside my window woke me up; it was a screeching chorus...I spent nearly a week at this hotel.  As a business traveler, my needs are simple: peace and quiet, hot shower, temperature control, wake-up call.  I was offered a choice of several hotels in the area by my client, and chose this Quality Inn because of the perks: free hot breakfast, parking, wifi, fridge and microwave.Things started going south upon check-in, when the desk clerk put me in a room that didn't remotely resemble the one that had been booked for me: a king bed suite with a pull-out sofa and balcony.  Instead, I was given a regular room with 2 queen beds and no balcony or sofa bed.  The clerk said she'd move me to another room the following day, but although I saw her at the front desk literally every day that week, she never followed through.I soon discovered the refrigerator in my room didn't close properly, and thus spoiled $15 worth of leftovers.  A male desk clerk replaced the fridge for me the following day--good.  However, that night the same female desk clerk failed to plug in my wakeup call for the following morning--bad.  Luckily I had my iPhone alarm as a backup.On the second night of my stay, I was extremely tired, and at 8:30PM ready for bed.  I had no sooner doused the lights when a ruckus in the parking lot outside my window woke me up; it was a screeching chorus of hundreds of pre-teen children's voices, in a Chinese dialect.  At first I thought, "Oh, surely they're just making a pit stop at the McDonald's next door," never dreaming the screeching throng would be checking into the hotel.  But they did, by the busload.Yes, this rowdy group of at least 100 noisy children swarmed into the hotel lobby, which was just below my room.  In her infinite wisdom, the female desk clerk managed to book two groups of pre-pubescent boys--4 to the room--in the room adjacent to mine, and the one directly above me.  My room had a shared door with the room next door, and the kids continuously tried to enter my room, pounding and shaking the door as they hollered at one another.  The kids above me must moonlight as gymnasts, because they were constantly stomping and pounding on the floor, to the point that the ceiling and walls in my room actually shook.After half an hour of chaos, I went down to complain to the front desk clerk.  She said "we're getting a lot of complaints," as if our conversation should somehow end there.  Luckily, the hotel's manager, who is of Chinese ancestry and spoke the same dialect as the youngsters, appeared, and said he personally would speak with the children in the room next to mine.  True to his word, he admonished the kids to keep quiet, as did the 3(!) adults traveling with the 100+(!) children.  The kids did settle down; but the little gymnasts upstairs tumbled for another hour.After another complaint to the front desk clerk yielded zero results, I finally went upstairs myself.  A young kid who couldn't have been older than 8 opened the door; he spoke enough English to understand what I was saying, and apologized for the stomping/jumping.  I asked him if there was an adult in the room, but there wasn't, only 3 other boys, none of whom appeared to be older than age 10.  All was well for about 20 minutes; then the stomping resumed.  Again I had to contact the front desk, and after about 30 more minutes, things were finally quiet.  By that point I had lost 2 hours of sleep.The next morning I woke at about 7:30 and went down to the breakfast bar; to my dismay, the horde of children had descended upon it en masse, and 6 deep.  A tiny opening appeared in front of the coffee machine; I had no sooner edged toward it than 5 kids ran right in front of me, cutting off access.  Even more maddeningly, they just stood there, obviously not interested in coffee, merely wanting to cut in line just in case there was something they did want.  The poor woman who serviced the breakfast bar tried to wade through the kiddie swarm, holding hot dishes aloft and hollering "excuse me, excuse me!" to no avail, as the kids wouldn't even let her through to service the bar.  Finally, an adult connected to the group appeared, lectured the children loudly, and managed to get them to form a queue--which lasted for about 15 minutes.  I grabbed what sustenance I could and escaped to my room.Shortly before I left that morning, I saw the children's bus outside my window; the kids were boarding, suitcases in tow.  "Good!" I thought, optimistic this episode was a fluke, that the rest of the week would be quiet, and the hotel would in fact revert from a playground to a hotel.Alas, the following evening--and EVERY evening thereafter--a similar group of children appeared like clockwork at 8:30PM, swarmed the lobby, and treated the hotel like it was their personal, noisy playspace.  Same complaints to the front desk, every night.  Same problems with the breakfast bar ... every morning.It's unfortunate, because this hotel had such promise in the beginning.  Yes, they're doing some things right--free perks, even underground parking--but there's no substitute for peace and quiet and a good night's sleep.  Business travelers, caveat emptor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r166665021-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>166665021</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We came to this hotel after leaving another nightmare place in the middle of the night. This was so much better! We travel with little ones, so our expectation's are not exceptionally high, being that we have to stay within a tight budget, but this hotel exceeded our expectations. Location was great, right off the freeway and in a good part of town. The breakfast was fine, better that most with the sausage and eggs. Orange juice was a little strong though. The room was a decent size and clean, beds were comfy. Nice bathroom. My husband used the fitness center and said that was a joke. Every machine was not only broken, but destroyed. Looked like there had not been a staff member in there to clean things up for fix the place in years. He said he also wouldn't touch the hot tub with a 10 foot pole. Didn't use the pool, but it looked decent. Lots of restaurants within walking distance and the staff was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to this hotel after leaving another nightmare place in the middle of the night. This was so much better! We travel with little ones, so our expectation's are not exceptionally high, being that we have to stay within a tight budget, but this hotel exceeded our expectations. Location was great, right off the freeway and in a good part of town. The breakfast was fine, better that most with the sausage and eggs. Orange juice was a little strong though. The room was a decent size and clean, beds were comfy. Nice bathroom. My husband used the fitness center and said that was a joke. Every machine was not only broken, but destroyed. Looked like there had not been a staff member in there to clean things up for fix the place in years. He said he also wouldn't touch the hot tub with a 10 foot pole. Didn't use the pool, but it looked decent. Lots of restaurants within walking distance and the staff was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r166658263-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>166658263</t>
+  </si>
+  <si>
+    <t>A Nice Surprise</t>
+  </si>
+  <si>
+    <t>Was really surprised at how nice this hotel turned out to be. The hotel lobby was very nice and the rooms were better than I thought. The staff was very nice and friendly. The location is also very nice being close to Irvine Spectrum. Would definitely stay here again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r161537664-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>161537664</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Dingy Party hotel</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel about four times in the last three years. Every stay it gets worse and worse. First they had a nice restaurant and bar that they closed down for no good reason. The meeting room had leaks in the ceiling which made the room smell like mold. They fixed the leak the next time we were there, but that smell might never go away. The hotel is clean most of the time, but at all hours of the night there is always some sort of party going on. At the end of our relationship with this hotel, the manager was so sour and bitter, she slammed doors around and pouted.If you want to stay at an average hotel, stay here. The front desk and other staff is friendly, but thats about it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>homeawayfromhome1, Director of Sales at Quality Inn &amp; Suites Irvine Spectrum, responded to this reviewResponded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel about four times in the last three years. Every stay it gets worse and worse. First they had a nice restaurant and bar that they closed down for no good reason. The meeting room had leaks in the ceiling which made the room smell like mold. They fixed the leak the next time we were there, but that smell might never go away. The hotel is clean most of the time, but at all hours of the night there is always some sort of party going on. At the end of our relationship with this hotel, the manager was so sour and bitter, she slammed doors around and pouted.If you want to stay at an average hotel, stay here. The front desk and other staff is friendly, but thats about it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r148742450-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>148742450</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>New Year's Epic Stay</t>
+  </si>
+  <si>
+    <t>We had a party there and the hotel and staff where great. The place is clean and well laid out. They did everything possible to make our stay a joyous one. A special thank you to Linda for keeping up on all the little details so the party would run smoothly. And thank you to the cleaning staff for afterwards. And the price was great for the nice rooms we had and the fun spa.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r148092812-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>148092812</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>The Price was right</t>
+  </si>
+  <si>
+    <t>First impression was not great...our clerk was a bit odd and was not helpful at all, when we asked where the best place to park to be closest to our room he said "anywhere on the property" which was not the case... our room he said was "just down the hall" which was not the case.  He did allow us to check in a hour before 'check in time' which was nice.  The rooms were average..a couple of things that stood out to me were the bed spreads seemed very worn, you could not have the refrigerator and the microwave plugged in at the same time (but hey not all rooms come with such amenities.)   The heater worked great but it sounded like a freight train wreck each and every time it kicked on all through the night.  The hot tub was not working until the morning we left. One more added note:  The breakfast area offered a great hot waffle breakfast with eggs and bacon but is not in any way handicap accessible it is down four steps with no other entry, I watched an elderly lady trying to manage her wheeled walker down and the attendant was "not allowed to help her down the stairs." I would probably not stay here again I would try the Comfort Inn and Suites located just around the corner.MoreShow less</t>
+  </si>
+  <si>
+    <t>First impression was not great...our clerk was a bit odd and was not helpful at all, when we asked where the best place to park to be closest to our room he said "anywhere on the property" which was not the case... our room he said was "just down the hall" which was not the case.  He did allow us to check in a hour before 'check in time' which was nice.  The rooms were average..a couple of things that stood out to me were the bed spreads seemed very worn, you could not have the refrigerator and the microwave plugged in at the same time (but hey not all rooms come with such amenities.)   The heater worked great but it sounded like a freight train wreck each and every time it kicked on all through the night.  The hot tub was not working until the morning we left. One more added note:  The breakfast area offered a great hot waffle breakfast with eggs and bacon but is not in any way handicap accessible it is down four steps with no other entry, I watched an elderly lady trying to manage her wheeled walker down and the attendant was "not allowed to help her down the stairs." I would probably not stay here again I would try the Comfort Inn and Suites located just around the corner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r137214595-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>137214595</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>It's ok nothing exceptional</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights on a business trip.  Why I picked a Quality Inn considering my last experience with them in San Diego is beyond me but this one was a step up from the last one.  The grounds need some cleaning.  When walking up the steps to check in you can see there are alot of old drink stops that have not been washed in ages and it also looks like the steps haven't been swept in a while.  The room was exactly like the other except the bathroom was alot bigger and at least had more room for your stuff.  The bed was alright.  The breakfast was not too bad had plenty of choices.  If you want to have a drink at the bar has the front desk for a couple of tickets and you can get a glass of wine or beer.  It's clost to the freeway and the 5 minutes to the Irvine Center that has plenty of food, shopping and movies.  Stay out of the gym it is in the basement and creepy.  The equipment did work your better off going for a walk.  And the place had a funny smell from the time you walked in.  It is ok if you are on a budget and I have stayed at alot worse for more money.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights on a business trip.  Why I picked a Quality Inn considering my last experience with them in San Diego is beyond me but this one was a step up from the last one.  The grounds need some cleaning.  When walking up the steps to check in you can see there are alot of old drink stops that have not been washed in ages and it also looks like the steps haven't been swept in a while.  The room was exactly like the other except the bathroom was alot bigger and at least had more room for your stuff.  The bed was alright.  The breakfast was not too bad had plenty of choices.  If you want to have a drink at the bar has the front desk for a couple of tickets and you can get a glass of wine or beer.  It's clost to the freeway and the 5 minutes to the Irvine Center that has plenty of food, shopping and movies.  Stay out of the gym it is in the basement and creepy.  The equipment did work your better off going for a walk.  And the place had a funny smell from the time you walked in.  It is ok if you are on a budget and I have stayed at alot worse for more money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r133402392-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>133402392</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Close to everything!</t>
+  </si>
+  <si>
+    <t>This is a great place to stay, it is centrally located, prices are good, parking great, nice, helpful staff...everyone.  Noise level was not a problem even though it was close to I5/405 split, I'm a very light sleeper.  Easy freeway access, many restaurants within easy walking distance.  Breakfast - had plenty of items to choose from but I'm not a big breakfast eater, they kept the breakfast items warm and replenished often.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r133307732-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>133307732</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Modest Splendor</t>
+  </si>
+  <si>
+    <t>I stay at Quality Inns often. This is one of THE BEST! Convenient location, friendly staff, pool, jacuzzi, spacious room, HDTV, couch, m/w, reefer, clean and modern and inexpensive. My room was nearest freeway w/ no noise issues, and on top floor (3rd) so I had high ceiling. High marks for everything "important" but... jacuzzi was only tepid and jets didn't work, breakfast was typical, but coffee was cold and proprietary waffles were "flimsy". I'll be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r125961134-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>125961134</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is easy to get to off the 5 and is comfortable  enough. Breakfast is standard but adequate. Staff very nice and rooms clean </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r123548425-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>123548425</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Return Visit December 2011 through the Holidays</t>
+  </si>
+  <si>
+    <t>I previously reviewed this hotel in June 2011, and stayed here again through the holidays from about mid December through the first week of January 2012. 
+As before, this hotel in the Choice Hotel chain is quiet, a great place to de-stress after long work stretches, or for travelers, or seniors just trying to get some peace and quiet away from the grandkids. Not a Party Hotel for the drinking set, but gets plenty of guests who don't mind their absence! Making reservations through the ChoiceHotels.com site worked best for me and was very competitively priced.  
+  The Staff and Manager here go really out of their way to be friendly, efficient and professional - and which makes any stay here a real pleasure. Other hotels I have traveled and stayed with aren't nearly so nice usually - some feel  "customer service" ends the moment you check in. By contrast - this Quality Inn &amp; Suites makes you feel at home. On some wintery cold nights the smell of their lobby fireplace wafting through the building reminds you of hotels as they used to be decades ago - but with all the modern amenities you expect these days.  The rooms are large, comfortable, very clean and well maintained, the beds are firm and have good heavy blankets - and coffee pots, microwaves and good small refrigerators set it apart really from lesser rated hotels. 
+  Breakfast was great as usual, (though half...I previously reviewed this hotel in June 2011, and stayed here again through the holidays from about mid December through the first week of January 2012. As before, this hotel in the Choice Hotel chain is quiet, a great place to de-stress after long work stretches, or for travelers, or seniors just trying to get some peace and quiet away from the grandkids. Not a Party Hotel for the drinking set, but gets plenty of guests who don't mind their absence! Making reservations through the ChoiceHotels.com site worked best for me and was very competitively priced.    The Staff and Manager here go really out of their way to be friendly, efficient and professional - and which makes any stay here a real pleasure. Other hotels I have traveled and stayed with aren't nearly so nice usually - some feel  "customer service" ends the moment you check in. By contrast - this Quality Inn &amp; Suites makes you feel at home. On some wintery cold nights the smell of their lobby fireplace wafting through the building reminds you of hotels as they used to be decades ago - but with all the modern amenities you expect these days.  The rooms are large, comfortable, very clean and well maintained, the beds are firm and have good heavy blankets - and coffee pots, microwaves and good small refrigerators set it apart really from lesser rated hotels.   Breakfast was great as usual, (though half the time I sleep through it- retirement is good for one thing at least!) but when I do get down to the spacious lobby dining area, the food is consistently hot, varied and tasty -and the line (if you go after 7:30 am) moves quickly. There's also a Chinese restaurant near the lobby that offers room service and has very decent prices for those days you just don't want to leave the room. WiFi is good for laptops and Androids, cell phone reception is good also. There's also a small exercise room on the bottom level next to a hot jacuzzi, one floor down from the very clean pool.    For a home away from home - this Quality Inn &amp; Suites will be on my list of favorites for a long time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I previously reviewed this hotel in June 2011, and stayed here again through the holidays from about mid December through the first week of January 2012. 
+As before, this hotel in the Choice Hotel chain is quiet, a great place to de-stress after long work stretches, or for travelers, or seniors just trying to get some peace and quiet away from the grandkids. Not a Party Hotel for the drinking set, but gets plenty of guests who don't mind their absence! Making reservations through the ChoiceHotels.com site worked best for me and was very competitively priced.  
+  The Staff and Manager here go really out of their way to be friendly, efficient and professional - and which makes any stay here a real pleasure. Other hotels I have traveled and stayed with aren't nearly so nice usually - some feel  "customer service" ends the moment you check in. By contrast - this Quality Inn &amp; Suites makes you feel at home. On some wintery cold nights the smell of their lobby fireplace wafting through the building reminds you of hotels as they used to be decades ago - but with all the modern amenities you expect these days.  The rooms are large, comfortable, very clean and well maintained, the beds are firm and have good heavy blankets - and coffee pots, microwaves and good small refrigerators set it apart really from lesser rated hotels. 
+  Breakfast was great as usual, (though half...I previously reviewed this hotel in June 2011, and stayed here again through the holidays from about mid December through the first week of January 2012. As before, this hotel in the Choice Hotel chain is quiet, a great place to de-stress after long work stretches, or for travelers, or seniors just trying to get some peace and quiet away from the grandkids. Not a Party Hotel for the drinking set, but gets plenty of guests who don't mind their absence! Making reservations through the ChoiceHotels.com site worked best for me and was very competitively priced.    The Staff and Manager here go really out of their way to be friendly, efficient and professional - and which makes any stay here a real pleasure. Other hotels I have traveled and stayed with aren't nearly so nice usually - some feel  "customer service" ends the moment you check in. By contrast - this Quality Inn &amp; Suites makes you feel at home. On some wintery cold nights the smell of their lobby fireplace wafting through the building reminds you of hotels as they used to be decades ago - but with all the modern amenities you expect these days.  The rooms are large, comfortable, very clean and well maintained, the beds are firm and have good heavy blankets - and coffee pots, microwaves and good small refrigerators set it apart really from lesser rated hotels.   Breakfast was great as usual, (though half the time I sleep through it- retirement is good for one thing at least!) but when I do get down to the spacious lobby dining area, the food is consistently hot, varied and tasty -and the line (if you go after 7:30 am) moves quickly. There's also a Chinese restaurant near the lobby that offers room service and has very decent prices for those days you just don't want to leave the room. WiFi is good for laptops and Androids, cell phone reception is good also. There's also a small exercise room on the bottom level next to a hot jacuzzi, one floor down from the very clean pool.    For a home away from home - this Quality Inn &amp; Suites will be on my list of favorites for a long time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122943991-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>122943991</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Thanks for a great New Years Eve!</t>
+  </si>
+  <si>
+    <t>Thank you Quality Inn &amp; Suites very much for making our groups New Years Eve party a success! The staff was very friendly and helpful!  The accommodations were very nice and clean.  I will be coming back to the area in May for a business meeting and will be staying with them again. I have also encouraged co-workers to stay here as well!  Great Job!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122716682-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>122716682</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>Thanks for the Memories</t>
+  </si>
+  <si>
+    <t>We had a great time there New Years Eve.  We had a group of over 100 people.  We had breakfast in the hotel and dinner in their Chinese Restaurant.  This is the fourth or fifth time that our group has been there and we are looking forward to going back again next year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122693102-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>122693102</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>New Year's Eve Running Group Celebration</t>
+  </si>
+  <si>
+    <t>It was a safe, fun and wonderful New Year's Eve Party in the Community Rooms.  My sleeping room was clean, smelled good and was very comfortable.Great way to welcome in the New Year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122609150-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>122609150</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>New Year's Eve they did Grrreat!</t>
+  </si>
+  <si>
+    <t>I was the organizer and we had booked about 1/3 of the hotel. They worked with me often to make sure things went well. The front staff was always professional and did what they could to fulfill all our requirements. They even placed my guest near the banquet room so the noise would be kept to only my guest. For the price you would not believe how nice the place is, tasteful decor in the rooms, the lobby beautiful. The breakfast the next day was lovely, even though the hotel had been fully booked the server was great and tried to accommodate everyone best to her supplies. And the location is perfect and easy to find. Plus it has McDonald's next door for those who want a late night nibble. This was our second year having a party and I would recommend this to anyone, even my Mom who also went to the party and had a great time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was the organizer and we had booked about 1/3 of the hotel. They worked with me often to make sure things went well. The front staff was always professional and did what they could to fulfill all our requirements. They even placed my guest near the banquet room so the noise would be kept to only my guest. For the price you would not believe how nice the place is, tasteful decor in the rooms, the lobby beautiful. The breakfast the next day was lovely, even though the hotel had been fully booked the server was great and tried to accommodate everyone best to her supplies. And the location is perfect and easy to find. Plus it has McDonald's next door for those who want a late night nibble. This was our second year having a party and I would recommend this to anyone, even my Mom who also went to the party and had a great time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r118015005-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>118015005</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>Our soccer team stayed here during Labor Day weekend for a local tournament.   This was a terrific hotel, with 2 queen beds for $79.99 per night, including breakfast.  The rooms were clean and the beds extremely comfortable.   The staff and housekeepers are very friendly; our room was even cleaned twice one day!   Our kids enjoyed the pool and spa.   Breakfast is okay, with bagels,  bananas, eggs, and yogurt (get there early!).   We loved the proximity to lots of great family dining options, including Round Table Pizza and Panera Bread.  All in all, a very happy experience.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r117368890-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>117368890</t>
+  </si>
+  <si>
+    <t>08/28/2011</t>
+  </si>
+  <si>
+    <t>Will definitely return</t>
+  </si>
+  <si>
+    <t>Our second stay in less than two months to visit ill family. Front desk clerk on days (a young guy, don't know his name) was VERY accommodating. On each trip the first room offered had a strong chemical cleaning odor (and one room was by the pool -- bad choice). When I complained, both times the clerk switched us to quieter and just as clean but near-odorless room. If not for him, we would have left, and missed an otherwise great visit. Breakfast is acceptable (cereals, eggs, waffles, fruit, etc). Rooms were clean and quiet. Air conditioner worked well. Balcony was a nice touch.  We expect to have to return to OC in the near future. We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Our second stay in less than two months to visit ill family. Front desk clerk on days (a young guy, don't know his name) was VERY accommodating. On each trip the first room offered had a strong chemical cleaning odor (and one room was by the pool -- bad choice). When I complained, both times the clerk switched us to quieter and just as clean but near-odorless room. If not for him, we would have left, and missed an otherwise great visit. Breakfast is acceptable (cereals, eggs, waffles, fruit, etc). Rooms were clean and quiet. Air conditioner worked well. Balcony was a nice touch.  We expect to have to return to OC in the near future. We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r115169560-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>115169560</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>Nice improvement over LF-ESA</t>
+  </si>
+  <si>
+    <t>We moved from another area hotel to this one and were sooo glad we did.  This hotel has been remodeled, is very clean and offers its' guest(s) a pleasant stay with nice garden areas. It offers guests a large pool area with a seperate large hottub area that can be reached by stairs or elevator.  The complimentary drinks in the evening is a nice touch and allows you to relax and chat with the other guests. The onsite restuarant was notable (even to our guests who do not normally eat Chinese food.)  The complinetary breakfast was enjoyable with hot and cold choices.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r110130461-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>110130461</t>
+  </si>
+  <si>
+    <t>05/27/2011</t>
+  </si>
+  <si>
+    <t>Excellent stay, with just one quirk!</t>
+  </si>
+  <si>
+    <t>My fiancee and I recently had the pleasure of staying at this surprisingly accommodating hotel, it is centrally located right off of the 5 freeway close to just about everything. I went to High School in Lake Forest and never had the pleasure of exploring the hotel until now and I can assure you it does impress! It is quite affordable and as with all Choice Hotel brands everything was exceptionally clean and the property was very well maintained. The clerk at the front desk welcomed us warmly and the night auditor was exceedingly helpful when we checked out early. The only single drawback of the room was that the faucet in the bathroom was barely long enough to hang over the sink and consequently you cannot avoid bumping your hands on the sink while trying to wash them- nothing a little update couldn’t fix- other than that my only suggestion is an upgrade to flat screen LCD televisions but the room was just fine without one.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>My fiancee and I recently had the pleasure of staying at this surprisingly accommodating hotel, it is centrally located right off of the 5 freeway close to just about everything. I went to High School in Lake Forest and never had the pleasure of exploring the hotel until now and I can assure you it does impress! It is quite affordable and as with all Choice Hotel brands everything was exceptionally clean and the property was very well maintained. The clerk at the front desk welcomed us warmly and the night auditor was exceedingly helpful when we checked out early. The only single drawback of the room was that the faucet in the bathroom was barely long enough to hang over the sink and consequently you cannot avoid bumping your hands on the sink while trying to wash them- nothing a little update couldn’t fix- other than that my only suggestion is an upgrade to flat screen LCD televisions but the room was just fine without one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r104669299-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>104669299</t>
+  </si>
+  <si>
+    <t>04/19/2011</t>
+  </si>
+  <si>
+    <t>Very quiet!!Always will come back!!</t>
+  </si>
+  <si>
+    <t>Great environment! ! Stay here when I am in town... clean.. &amp;comfortable love it here .. not to expensive either ...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r98021056-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>98021056</t>
+  </si>
+  <si>
+    <t>02/25/2011</t>
+  </si>
+  <si>
+    <t>There is no other comparison</t>
+  </si>
+  <si>
+    <t>I was pleased and impressed with the hotel service. The staff goes out their way to serve the customer. We also enjoyed to the excellant chinese restaurant. In addition, we found the rates to be very competative and affordable. Thanks again,                                                                               Sincerely,                                                                                Camille Mendoza</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r78793632-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>78793632</t>
+  </si>
+  <si>
+    <t>09/08/2010</t>
+  </si>
+  <si>
+    <t>Exceptional value . . .</t>
+  </si>
+  <si>
+    <t>We stayed last weekend with our daughter's soccer team.  All of the parents kept commenting about how nice the hotel was for the price we paid.  Clean rooms, excellent customer service, great breakfast options for the girls and convenient location.  I would highly recommend this hotel to anyone staying in the area and our soccer team will definitely return again next year!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r76839846-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>76839846</t>
+  </si>
+  <si>
+    <t>08/25/2010</t>
+  </si>
+  <si>
+    <t>Perfect DMB location</t>
+  </si>
+  <si>
+    <t>My husband, dog, and I were traveling along the coast for vacation and to hit as many Dave Matthews shows as possible in 2010.  This hotel was one of the nicest we stayed in.  The bathroom looked like it had just been remodeled and the main bedroom was spacious.  Upon arriving there were a ton of kids there for a soccer tournament and thought it would be noisy but we had no issues. Great location too!  Close to Irvine Spectrum mall, easy drive to Laguna Beach, and only about a 2 minute drive to the Verizon Wireless Amphitheater.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r75496763-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>75496763</t>
+  </si>
+  <si>
+    <t>08/16/2010</t>
+  </si>
+  <si>
+    <t>Wonderful and Relaxion at its best</t>
+  </si>
+  <si>
+    <t>Thank you for everything your hotel was one of the best of I have ever stayed at , and especially because of your Customer Quality of Service... Jim at the front desk was absolutely amazing and very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>homeawayfromhome1, Director of Sales at Quality Inn &amp; Suites Irvine Spectrum, responded to this reviewResponded August 23, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2010</t>
+  </si>
+  <si>
+    <t>Thank you for everything your hotel was one of the best of I have ever stayed at , and especially because of your Customer Quality of Service... Jim at the front desk was absolutely amazing and very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r75081553-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>75081553</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>It was great-will return next year for sure.</t>
+  </si>
+  <si>
+    <t>I was very happy with this hotel.  The on line description fit the real place very well.  It was close to everything I wanted to do.  The staff was most helpful and the room an breakfast area was clean and great.  Even the cocktail hour was good. Would go back in a heartbeat and will recommend it to my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very happy with this hotel.  The on line description fit the real place very well.  It was close to everything I wanted to do.  The staff was most helpful and the room an breakfast area was clean and great.  Even the cocktail hour was good. Would go back in a heartbeat and will recommend it to my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r74620616-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>74620616</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>Pretty good stay</t>
+  </si>
+  <si>
+    <t>Hotel is very pretty.  Lobby is beautiful.  McDonald's so close I thought we were parked in their parking lot!  Lady at desk, nice, but rough around the edges!  Gave us our key, went up to the room....TV on and suitcases....someone else already assigned to room.  Sat in hallway with kids while husband got us another room.  Bathroom was small.  Sink was outside of toilet and shower area.  Room was a tad small, but fine. Breakfast area was large, but still crowded.  Man filling the food was terrible at it.  Couldn't keep up.  Dropped huge boxes of plasticware on counter because he couldn't even keep those filled.  There were round eggs that were gross, sausage, cereals, breads, juices, coffee, and waffles.  There are two waffle makers....second one was over on the other counter, nobody noticed it at first.  Lots of little bugs flying around....probably because doors were open when we arrived the night before.  Chinese restaurant on property, didn't eat there.  Overall....good stay.  Stayed here because it was near Wild Rivers Water Park....literally like three minutes up the road.  Just stayed one night.  Was the most expensive hotel we stayed at during our trip to California from the east coast.  Payed about $130 with AAA discount. Nieghborhood was nice and felt safe.  There was an outdoor pool, but we didn't use it. Internet didn't work with my new lap top.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Hotel is very pretty.  Lobby is beautiful.  McDonald's so close I thought we were parked in their parking lot!  Lady at desk, nice, but rough around the edges!  Gave us our key, went up to the room....TV on and suitcases....someone else already assigned to room.  Sat in hallway with kids while husband got us another room.  Bathroom was small.  Sink was outside of toilet and shower area.  Room was a tad small, but fine. Breakfast area was large, but still crowded.  Man filling the food was terrible at it.  Couldn't keep up.  Dropped huge boxes of plasticware on counter because he couldn't even keep those filled.  There were round eggs that were gross, sausage, cereals, breads, juices, coffee, and waffles.  There are two waffle makers....second one was over on the other counter, nobody noticed it at first.  Lots of little bugs flying around....probably because doors were open when we arrived the night before.  Chinese restaurant on property, didn't eat there.  Overall....good stay.  Stayed here because it was near Wild Rivers Water Park....literally like three minutes up the road.  Just stayed one night.  Was the most expensive hotel we stayed at during our trip to California from the east coast.  Payed about $130 with AAA discount. Nieghborhood was nice and felt safe.  There was an outdoor pool, but we didn't use it. Internet didn't work with my new lap top.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r67980047-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>67980047</t>
+  </si>
+  <si>
+    <t>06/19/2010</t>
+  </si>
+  <si>
+    <t>Fantastic!!</t>
+  </si>
+  <si>
+    <t>Very good hotel, wel taken care off.Friendly staff, good breakfast and lovely rooms. Not a bad thing to say about.Would definetely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>homeawayfromhome1, Director of Sales at Quality Inn &amp; Suites Irvine Spectrum, responded to this reviewResponded August 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2010</t>
+  </si>
+  <si>
+    <t>Very good hotel, wel taken care off.Friendly staff, good breakfast and lovely rooms. Not a bad thing to say about.Would definetely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r17623265-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>17623265</t>
+  </si>
+  <si>
+    <t>07/07/2008</t>
+  </si>
+  <si>
+    <t>Better Value Elsewhere</t>
+  </si>
+  <si>
+    <t>I am usually tolerant of economy motels, but I would not go back here.  To be fair, the property looked nice, and it was clean. The water pressure was good, and the iron and fridge were in working order. The bagels were fresh.  And I paid only $109 for a room with 2 queen beds.  But...
+First of all, it was very humid inside. The weather outside was not, so it was clearly an issue at the motel. The room was strangely shaped, so the air conditioner was actually pointed at an angle towards a wall, rather than into the room, so it didn't help much. In addition, the exhaust fan in the bathroom was not very effective, and it just made the humidity worse.
+The bed was uncomfortable, and the pillows were lumpy and flat.  The towels were thin.  
+In this age of cable and satellite TV, there were very few TV channels available.
+I can see now why motel rooms often have an extra sink outside the bathroom - this one didn't. Traveling with my husband and two sons, I did not have an extra place to do my hair, put on make-up, etc. I even had to move the coffee pot out onto the dresser, and had to announce myself as I opened the bathroom door to get water.
+The staff did not replace the cofffee or cups we used on the first day.
+Warning: While the...I am usually tolerant of economy motels, but I would not go back here.  To be fair, the property looked nice, and it was clean. The water pressure was good, and the iron and fridge were in working order. The bagels were fresh.  And I paid only $109 for a room with 2 queen beds.  But...First of all, it was very humid inside. The weather outside was not, so it was clearly an issue at the motel. The room was strangely shaped, so the air conditioner was actually pointed at an angle towards a wall, rather than into the room, so it didn't help much. In addition, the exhaust fan in the bathroom was not very effective, and it just made the humidity worse.The bed was uncomfortable, and the pillows were lumpy and flat.  The towels were thin.  In this age of cable and satellite TV, there were very few TV channels available.I can see now why motel rooms often have an extra sink outside the bathroom - this one didn't. Traveling with my husband and two sons, I did not have an extra place to do my hair, put on make-up, etc. I even had to move the coffee pot out onto the dresser, and had to announce myself as I opened the bathroom door to get water.The staff did not replace the cofffee or cups we used on the first day.Warning: While the water in the pool was nice, the pool had an "L" shape, and you couldn't see around the corner. A parent of young children would have to be particularly vigilant.I thought that Best Western was a higher quality chain than some others in the area, but I was wrong.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I am usually tolerant of economy motels, but I would not go back here.  To be fair, the property looked nice, and it was clean. The water pressure was good, and the iron and fridge were in working order. The bagels were fresh.  And I paid only $109 for a room with 2 queen beds.  But...
+First of all, it was very humid inside. The weather outside was not, so it was clearly an issue at the motel. The room was strangely shaped, so the air conditioner was actually pointed at an angle towards a wall, rather than into the room, so it didn't help much. In addition, the exhaust fan in the bathroom was not very effective, and it just made the humidity worse.
+The bed was uncomfortable, and the pillows were lumpy and flat.  The towels were thin.  
+In this age of cable and satellite TV, there were very few TV channels available.
+I can see now why motel rooms often have an extra sink outside the bathroom - this one didn't. Traveling with my husband and two sons, I did not have an extra place to do my hair, put on make-up, etc. I even had to move the coffee pot out onto the dresser, and had to announce myself as I opened the bathroom door to get water.
+The staff did not replace the cofffee or cups we used on the first day.
+Warning: While the...I am usually tolerant of economy motels, but I would not go back here.  To be fair, the property looked nice, and it was clean. The water pressure was good, and the iron and fridge were in working order. The bagels were fresh.  And I paid only $109 for a room with 2 queen beds.  But...First of all, it was very humid inside. The weather outside was not, so it was clearly an issue at the motel. The room was strangely shaped, so the air conditioner was actually pointed at an angle towards a wall, rather than into the room, so it didn't help much. In addition, the exhaust fan in the bathroom was not very effective, and it just made the humidity worse.The bed was uncomfortable, and the pillows were lumpy and flat.  The towels were thin.  In this age of cable and satellite TV, there were very few TV channels available.I can see now why motel rooms often have an extra sink outside the bathroom - this one didn't. Traveling with my husband and two sons, I did not have an extra place to do my hair, put on make-up, etc. I even had to move the coffee pot out onto the dresser, and had to announce myself as I opened the bathroom door to get water.The staff did not replace the cofffee or cups we used on the first day.Warning: While the water in the pool was nice, the pool had an "L" shape, and you couldn't see around the corner. A parent of young children would have to be particularly vigilant.I thought that Best Western was a higher quality chain than some others in the area, but I was wrong.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r15330565-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>15330565</t>
+  </si>
+  <si>
+    <t>04/24/2008</t>
+  </si>
+  <si>
+    <t>Smells like Chinese Food - EVERYWHERE</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business travel. The room was just acceptable - clean, but not much natural light, and a little claustrophobia inducing. The main problem with this place is that there is a Chinese restaurant on the first floor, so the entire place smells of Chinese food. I like the food as much as the next person, but it was nauseating to smell it all the time. Plus I saw someone drying noodles over a bucket outside (seriously). The pool did not look like something most people would want to swim in. A colleague of mine got stuck in the elevator there for about 10 minutes, and the staff did not seem concerned or apologetic when she finally got out.I stayed in a room toward the front of the hotel and was OK, but a friend of mine who stayed farther back said she didn't feel safe.The continental breakfast is a joke - some apples, plastic-wrapped danishes, bad coffee, and hard-boiled eggs (which were my saving grace, incidentally). Generally nasty, and the smell of Chinese food doesn't help.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for business travel. The room was just acceptable - clean, but not much natural light, and a little claustrophobia inducing. The main problem with this place is that there is a Chinese restaurant on the first floor, so the entire place smells of Chinese food. I like the food as much as the next person, but it was nauseating to smell it all the time. Plus I saw someone drying noodles over a bucket outside (seriously). The pool did not look like something most people would want to swim in. A colleague of mine got stuck in the elevator there for about 10 minutes, and the staff did not seem concerned or apologetic when she finally got out.I stayed in a room toward the front of the hotel and was OK, but a friend of mine who stayed farther back said she didn't feel safe.The continental breakfast is a joke - some apples, plastic-wrapped danishes, bad coffee, and hard-boiled eggs (which were my saving grace, incidentally). Generally nasty, and the smell of Chinese food doesn't help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r11468108-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>11468108</t>
+  </si>
+  <si>
+    <t>12/10/2007</t>
+  </si>
+  <si>
+    <t>Decent Motel with a Few Minor Issues</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights while my house, three blocks away, was being tented and fumigated for termites.  So obviously the location was ideal - I could easily go home to check my mail and pick up the newspaper out of the driveway!
+Overall, I was content.  The room was quite quiet, with the soundproofing good enough to not be bothered by adjacent rooms or from the nearby Interstate 5.  The king bed seemed exceptionally comfortable, and the room heater easily kept the room comfy on a cool, rainy day.  There was adequate storage area, even for my wife, who brought a ridiculous amount of stuff for a short stay.   The wired and wireless internet connectivity let me use my three laptops without incident and with no disconnects.  There were two refrigerators and a two-burner stove which I didn't use.  Lots of more-upscale amenIties: Ironing board/iron, hair drier, coffee maker with proletarian coffee.  There was a sofa-bed couch.  The room was quite full of furniture for its size.  The continental breakfast was adequate, and there was a free "Happy Hour" that I used one of the two evenings to unwind with a rather mediocre white zin - I think Inglenook.  
+The odd: The building is shaped like a tall "T", with the lobby at the base of the T.  I was at the furthest point possible from the lobby - the end of the cross of the T.  And...I stayed here for two nights while my house, three blocks away, was being tented and fumigated for termites.  So obviously the location was ideal - I could easily go home to check my mail and pick up the newspaper out of the driveway!Overall, I was content.  The room was quite quiet, with the soundproofing good enough to not be bothered by adjacent rooms or from the nearby Interstate 5.  The king bed seemed exceptionally comfortable, and the room heater easily kept the room comfy on a cool, rainy day.  There was adequate storage area, even for my wife, who brought a ridiculous amount of stuff for a short stay.   The wired and wireless internet connectivity let me use my three laptops without incident and with no disconnects.  There were two refrigerators and a two-burner stove which I didn't use.  Lots of more-upscale amenIties: Ironing board/iron, hair drier, coffee maker with proletarian coffee.  There was a sofa-bed couch.  The room was quite full of furniture for its size.  The continental breakfast was adequate, and there was a free "Happy Hour" that I used one of the two evenings to unwind with a rather mediocre white zin - I think Inglenook.  The odd: The building is shaped like a tall "T", with the lobby at the base of the T.  I was at the furthest point possible from the lobby - the end of the cross of the T.  And the stairwell right next to my room only went between floors, not to the outside.  So while I might have expected to park near my room, in reality it was a fairly long walk to get to my car because the only hotel entrance is the lobby!The bad: checkin was slow.  The single desk clerk was apparently processing multiple reservations from a travel agent or consolidator, reading off confirmation numbers as he typed stuff into his computer.  It took about  15 minutes before he would acknowledge me standing there.  The disposable paper-thin plastic glasses were a joke - happily I had brought a mug from home.  The bathtub was surprisingly small, and it had one of those impossible to use (and I'm an engineer) faucets which is either totally on or totally off with the dial rotation somehow adjusting the temperature.  Well, it took me as long as five minutes to figure out how to get passably warm (never hot) water.  The crummy clock radio seemed to be the one universally found in motels and which can barely receive the strongest AM stations without being overwhelmed by hum.  (Again, I brought my own.)  And there were insufficient electrical outlets; almost every one in the room was already used for something.  I coped, but wish I had brought an outlet strip as I often do.Oh yeah - they allow pets, but at $50 / head I wasn't about to bring the four kitties.  They were boarded at the vet's, a fairly traumatic ordeal for them, but I would have loved to have them in the room.So these few minor quibbles really don't outweigh the fact that I had a quiet, comfortable stay without spending a fortune.  I'd go back without complaint.Art ShapiroMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights while my house, three blocks away, was being tented and fumigated for termites.  So obviously the location was ideal - I could easily go home to check my mail and pick up the newspaper out of the driveway!
+Overall, I was content.  The room was quite quiet, with the soundproofing good enough to not be bothered by adjacent rooms or from the nearby Interstate 5.  The king bed seemed exceptionally comfortable, and the room heater easily kept the room comfy on a cool, rainy day.  There was adequate storage area, even for my wife, who brought a ridiculous amount of stuff for a short stay.   The wired and wireless internet connectivity let me use my three laptops without incident and with no disconnects.  There were two refrigerators and a two-burner stove which I didn't use.  Lots of more-upscale amenIties: Ironing board/iron, hair drier, coffee maker with proletarian coffee.  There was a sofa-bed couch.  The room was quite full of furniture for its size.  The continental breakfast was adequate, and there was a free "Happy Hour" that I used one of the two evenings to unwind with a rather mediocre white zin - I think Inglenook.  
+The odd: The building is shaped like a tall "T", with the lobby at the base of the T.  I was at the furthest point possible from the lobby - the end of the cross of the T.  And...I stayed here for two nights while my house, three blocks away, was being tented and fumigated for termites.  So obviously the location was ideal - I could easily go home to check my mail and pick up the newspaper out of the driveway!Overall, I was content.  The room was quite quiet, with the soundproofing good enough to not be bothered by adjacent rooms or from the nearby Interstate 5.  The king bed seemed exceptionally comfortable, and the room heater easily kept the room comfy on a cool, rainy day.  There was adequate storage area, even for my wife, who brought a ridiculous amount of stuff for a short stay.   The wired and wireless internet connectivity let me use my three laptops without incident and with no disconnects.  There were two refrigerators and a two-burner stove which I didn't use.  Lots of more-upscale amenIties: Ironing board/iron, hair drier, coffee maker with proletarian coffee.  There was a sofa-bed couch.  The room was quite full of furniture for its size.  The continental breakfast was adequate, and there was a free "Happy Hour" that I used one of the two evenings to unwind with a rather mediocre white zin - I think Inglenook.  The odd: The building is shaped like a tall "T", with the lobby at the base of the T.  I was at the furthest point possible from the lobby - the end of the cross of the T.  And the stairwell right next to my room only went between floors, not to the outside.  So while I might have expected to park near my room, in reality it was a fairly long walk to get to my car because the only hotel entrance is the lobby!The bad: checkin was slow.  The single desk clerk was apparently processing multiple reservations from a travel agent or consolidator, reading off confirmation numbers as he typed stuff into his computer.  It took about  15 minutes before he would acknowledge me standing there.  The disposable paper-thin plastic glasses were a joke - happily I had brought a mug from home.  The bathtub was surprisingly small, and it had one of those impossible to use (and I'm an engineer) faucets which is either totally on or totally off with the dial rotation somehow adjusting the temperature.  Well, it took me as long as five minutes to figure out how to get passably warm (never hot) water.  The crummy clock radio seemed to be the one universally found in motels and which can barely receive the strongest AM stations without being overwhelmed by hum.  (Again, I brought my own.)  And there were insufficient electrical outlets; almost every one in the room was already used for something.  I coped, but wish I had brought an outlet strip as I often do.Oh yeah - they allow pets, but at $50 / head I wasn't about to bring the four kitties.  They were boarded at the vet's, a fairly traumatic ordeal for them, but I would have loved to have them in the room.So these few minor quibbles really don't outweigh the fact that I had a quiet, comfortable stay without spending a fortune.  I'd go back without complaint.Art ShapiroMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r7545915-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>7545915</t>
+  </si>
+  <si>
+    <t>05/03/2007</t>
+  </si>
+  <si>
+    <t>Worst ever YUCKKY</t>
+  </si>
+  <si>
+    <t>We usually stay in the area and could not get our hotel of choice and they suggested the Best Western.  It was aweful, the hotel has a chinese restaurant with poor ventilation and you can smell the food in the lobby and the walkways it ws disgusting.  It looked as they just redid the lobby which was nice, but the rooms were terrible.  The worst condition, poorly decorated and the bathroom had avocado green tiles.  The sink was dirty and the hotel just had a terrible feel to it.  The pool/spa/gym and the whole area was run down with broken concreate and it was just dirty.  I was to stay their for four days, but after the first night I moved to another hotel out of the area.  This was one of the worst hotel stays I have ever had, it was just dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay in the area and could not get our hotel of choice and they suggested the Best Western.  It was aweful, the hotel has a chinese restaurant with poor ventilation and you can smell the food in the lobby and the walkways it ws disgusting.  It looked as they just redid the lobby which was nice, but the rooms were terrible.  The worst condition, poorly decorated and the bathroom had avocado green tiles.  The sink was dirty and the hotel just had a terrible feel to it.  The pool/spa/gym and the whole area was run down with broken concreate and it was just dirty.  I was to stay their for four days, but after the first night I moved to another hotel out of the area.  This was one of the worst hotel stays I have ever had, it was just dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r5972184-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>5972184</t>
+  </si>
+  <si>
+    <t>10/18/2006</t>
+  </si>
+  <si>
+    <t>Shabby and run down.</t>
+  </si>
+  <si>
+    <t>Their web site says they are committed to excellence, but the hotel was a big disappointment.  Located right off the freeway and noisey - our choice - it was shabby and run down.   If it was clean, it didn't have that impression because the property didn't look cared for.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r5763299-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>5763299</t>
+  </si>
+  <si>
+    <t>09/01/2006</t>
+  </si>
+  <si>
+    <t>R U Kidding?!?!?!?</t>
+  </si>
+  <si>
+    <t>My Mom came to visit me from out of town and booked 3 nights here, at $135/night.  They checked her into a room directly above the Chinese restaurant, which as all the reviews have stated, stink up the place something fierce.  Well, this room had a bathroom that looked as if it hadn't been cleaned in a month. When we asked to have the bathroom cleaned, we were told that housekeeping had gone home for the day, and that someone would have to be called to come back in, and that this would take a few hours.  O.K.??.....  When we inquired as to moving her to another room, the only room available was in the main lobby, right next to the front desk.  Well, we found out the hard way, by me trying to call her in the room, that the phone didn't work.  They said they had no replacement, or anyway to fix it.  Needless to say, this is by far the worst experience we've ever had with a hotel/motel, and we have traveled all over the country.  It is an injustice that they charge $135 for a night in their facility. 
+We ended up canceling the rest of the reservation after 1 night, and moved to Laguna Woods Lodge, only 1 more exit down the freeway, where the rooms were clean, the staff was very friendly, and the price was only approx. $85 for a single queen bed....My Mom came to visit me from out of town and booked 3 nights here, at $135/night.  They checked her into a room directly above the Chinese restaurant, which as all the reviews have stated, stink up the place something fierce.  Well, this room had a bathroom that looked as if it hadn't been cleaned in a month. When we asked to have the bathroom cleaned, we were told that housekeeping had gone home for the day, and that someone would have to be called to come back in, and that this would take a few hours.  O.K.??.....  When we inquired as to moving her to another room, the only room available was in the main lobby, right next to the front desk.  Well, we found out the hard way, by me trying to call her in the room, that the phone didn't work.  They said they had no replacement, or anyway to fix it.  Needless to say, this is by far the worst experience we've ever had with a hotel/motel, and we have traveled all over the country.  It is an injustice that they charge $135 for a night in their facility. We ended up canceling the rest of the reservation after 1 night, and moved to Laguna Woods Lodge, only 1 more exit down the freeway, where the rooms were clean, the staff was very friendly, and the price was only approx. $85 for a single queen bed.I would not recommend the Best Western in El Toro/Lake Forest under any circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>My Mom came to visit me from out of town and booked 3 nights here, at $135/night.  They checked her into a room directly above the Chinese restaurant, which as all the reviews have stated, stink up the place something fierce.  Well, this room had a bathroom that looked as if it hadn't been cleaned in a month. When we asked to have the bathroom cleaned, we were told that housekeeping had gone home for the day, and that someone would have to be called to come back in, and that this would take a few hours.  O.K.??.....  When we inquired as to moving her to another room, the only room available was in the main lobby, right next to the front desk.  Well, we found out the hard way, by me trying to call her in the room, that the phone didn't work.  They said they had no replacement, or anyway to fix it.  Needless to say, this is by far the worst experience we've ever had with a hotel/motel, and we have traveled all over the country.  It is an injustice that they charge $135 for a night in their facility. 
+We ended up canceling the rest of the reservation after 1 night, and moved to Laguna Woods Lodge, only 1 more exit down the freeway, where the rooms were clean, the staff was very friendly, and the price was only approx. $85 for a single queen bed....My Mom came to visit me from out of town and booked 3 nights here, at $135/night.  They checked her into a room directly above the Chinese restaurant, which as all the reviews have stated, stink up the place something fierce.  Well, this room had a bathroom that looked as if it hadn't been cleaned in a month. When we asked to have the bathroom cleaned, we were told that housekeeping had gone home for the day, and that someone would have to be called to come back in, and that this would take a few hours.  O.K.??.....  When we inquired as to moving her to another room, the only room available was in the main lobby, right next to the front desk.  Well, we found out the hard way, by me trying to call her in the room, that the phone didn't work.  They said they had no replacement, or anyway to fix it.  Needless to say, this is by far the worst experience we've ever had with a hotel/motel, and we have traveled all over the country.  It is an injustice that they charge $135 for a night in their facility. We ended up canceling the rest of the reservation after 1 night, and moved to Laguna Woods Lodge, only 1 more exit down the freeway, where the rooms were clean, the staff was very friendly, and the price was only approx. $85 for a single queen bed.I would not recommend the Best Western in El Toro/Lake Forest under any circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r3808297-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>3808297</t>
+  </si>
+  <si>
+    <t>08/25/2005</t>
+  </si>
+  <si>
+    <t>Best Price, Nice people, big room, good Hotel</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights there.I got the coupons from IHOB, just 1 minute away from the Hotel. With the Coupon, the price was fantastic.You can find that price only in a small stinky Super 8 motel.The room was clean and roomy, the staff were friendly.The pool was fine, the jacuzzi was in the basement :(2 minutes from Irvine Spectrum, less than a mile from I-405.simple breakfast in the morning (free of course).I will go there again, whenever I need a hotel in S. OC.</t>
+  </si>
+  <si>
+    <t>August 2005</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2542,5954 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>257</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>301</v>
+      </c>
+      <c r="J42" t="s">
+        <v>302</v>
+      </c>
+      <c r="K42" t="s">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>304</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>318</v>
+      </c>
+      <c r="O44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>337</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" t="s">
+        <v>340</v>
+      </c>
+      <c r="K48" t="s">
+        <v>341</v>
+      </c>
+      <c r="L48" t="s">
+        <v>342</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" t="s">
+        <v>354</v>
+      </c>
+      <c r="L50" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>356</v>
+      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>357</v>
+      </c>
+      <c r="X50" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51" t="s">
+        <v>364</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>356</v>
+      </c>
+      <c r="O51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>357</v>
+      </c>
+      <c r="X51" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>367</v>
+      </c>
+      <c r="J52" t="s">
+        <v>368</v>
+      </c>
+      <c r="K52" t="s">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>371</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>372</v>
+      </c>
+      <c r="X52" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
+      <c r="J53" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>357</v>
+      </c>
+      <c r="X54" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>389</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>390</v>
+      </c>
+      <c r="J55" t="s">
+        <v>391</v>
+      </c>
+      <c r="K55" t="s">
+        <v>392</v>
+      </c>
+      <c r="L55" t="s">
+        <v>393</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>337</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>395</v>
+      </c>
+      <c r="J56" t="s">
+        <v>396</v>
+      </c>
+      <c r="K56" t="s">
+        <v>397</v>
+      </c>
+      <c r="L56" t="s">
+        <v>398</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>399</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>400</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" t="s">
+        <v>402</v>
+      </c>
+      <c r="K57" t="s">
+        <v>403</v>
+      </c>
+      <c r="L57" t="s">
+        <v>404</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>406</v>
+      </c>
+      <c r="J58" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" t="s">
+        <v>408</v>
+      </c>
+      <c r="L58" t="s">
+        <v>409</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>399</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>411</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>412</v>
+      </c>
+      <c r="J59" t="s">
+        <v>413</v>
+      </c>
+      <c r="K59" t="s">
+        <v>414</v>
+      </c>
+      <c r="L59" t="s">
+        <v>415</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>416</v>
+      </c>
+      <c r="O59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>419</v>
+      </c>
+      <c r="J60" t="s">
+        <v>420</v>
+      </c>
+      <c r="K60" t="s">
+        <v>421</v>
+      </c>
+      <c r="L60" t="s">
+        <v>422</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>424</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>425</v>
+      </c>
+      <c r="J61" t="s">
+        <v>426</v>
+      </c>
+      <c r="K61" t="s">
+        <v>427</v>
+      </c>
+      <c r="L61" t="s">
+        <v>428</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>399</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>430</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>431</v>
+      </c>
+      <c r="J62" t="s">
+        <v>432</v>
+      </c>
+      <c r="K62" t="s">
+        <v>433</v>
+      </c>
+      <c r="L62" t="s">
+        <v>434</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>399</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>436</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>437</v>
+      </c>
+      <c r="J63" t="s">
+        <v>438</v>
+      </c>
+      <c r="K63" t="s">
+        <v>439</v>
+      </c>
+      <c r="L63" t="s">
+        <v>440</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>399</v>
+      </c>
+      <c r="O63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>442</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" t="s">
+        <v>438</v>
+      </c>
+      <c r="K64" t="s">
+        <v>444</v>
+      </c>
+      <c r="L64" t="s">
+        <v>445</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+      <c r="J65" t="s">
+        <v>448</v>
+      </c>
+      <c r="K65" t="s">
+        <v>449</v>
+      </c>
+      <c r="L65" t="s">
+        <v>450</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>452</v>
+      </c>
+      <c r="X65" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>455</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>456</v>
+      </c>
+      <c r="J66" t="s">
+        <v>457</v>
+      </c>
+      <c r="K66" t="s">
+        <v>458</v>
+      </c>
+      <c r="L66" t="s">
+        <v>459</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>460</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>461</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>462</v>
+      </c>
+      <c r="J67" t="s">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s">
+        <v>465</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>460</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>468</v>
+      </c>
+      <c r="J68" t="s">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s">
+        <v>471</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>472</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>474</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>475</v>
+      </c>
+      <c r="J69" t="s">
+        <v>476</v>
+      </c>
+      <c r="K69" t="s">
+        <v>477</v>
+      </c>
+      <c r="L69" t="s">
+        <v>478</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>479</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>480</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>481</v>
+      </c>
+      <c r="J70" t="s">
+        <v>482</v>
+      </c>
+      <c r="K70" t="s">
+        <v>483</v>
+      </c>
+      <c r="L70" t="s">
+        <v>484</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>479</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>485</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>486</v>
+      </c>
+      <c r="J71" t="s">
+        <v>487</v>
+      </c>
+      <c r="K71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L71" t="s">
+        <v>488</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>489</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>490</v>
+      </c>
+      <c r="J72" t="s">
+        <v>491</v>
+      </c>
+      <c r="K72" t="s">
+        <v>492</v>
+      </c>
+      <c r="L72" t="s">
+        <v>493</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>114</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>497</v>
+      </c>
+      <c r="J73" t="s">
+        <v>498</v>
+      </c>
+      <c r="K73" t="s">
+        <v>499</v>
+      </c>
+      <c r="L73" t="s">
+        <v>500</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>494</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>501</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>502</v>
+      </c>
+      <c r="J74" t="s">
+        <v>503</v>
+      </c>
+      <c r="K74" t="s">
+        <v>504</v>
+      </c>
+      <c r="L74" t="s">
+        <v>505</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>506</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>507</v>
+      </c>
+      <c r="J75" t="s">
+        <v>508</v>
+      </c>
+      <c r="K75" t="s">
+        <v>509</v>
+      </c>
+      <c r="L75" t="s">
+        <v>510</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>494</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>511</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>512</v>
+      </c>
+      <c r="J76" t="s">
+        <v>513</v>
+      </c>
+      <c r="K76" t="s">
+        <v>514</v>
+      </c>
+      <c r="L76" t="s">
+        <v>515</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>494</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>517</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>518</v>
+      </c>
+      <c r="J77" t="s">
+        <v>519</v>
+      </c>
+      <c r="K77" t="s">
+        <v>520</v>
+      </c>
+      <c r="L77" t="s">
+        <v>521</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>522</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>523</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>524</v>
+      </c>
+      <c r="J78" t="s">
+        <v>525</v>
+      </c>
+      <c r="K78" t="s">
+        <v>526</v>
+      </c>
+      <c r="L78" t="s">
+        <v>527</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>528</v>
+      </c>
+      <c r="O78" t="s">
+        <v>74</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>530</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>531</v>
+      </c>
+      <c r="J79" t="s">
+        <v>532</v>
+      </c>
+      <c r="K79" t="s">
+        <v>533</v>
+      </c>
+      <c r="L79" t="s">
+        <v>534</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>535</v>
+      </c>
+      <c r="O79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>536</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>537</v>
+      </c>
+      <c r="J80" t="s">
+        <v>538</v>
+      </c>
+      <c r="K80" t="s">
+        <v>539</v>
+      </c>
+      <c r="L80" t="s">
+        <v>540</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>541</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>543</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>544</v>
+      </c>
+      <c r="J81" t="s">
+        <v>545</v>
+      </c>
+      <c r="K81" t="s">
+        <v>546</v>
+      </c>
+      <c r="L81" t="s">
+        <v>547</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>548</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>549</v>
+      </c>
+      <c r="J82" t="s">
+        <v>550</v>
+      </c>
+      <c r="K82" t="s">
+        <v>551</v>
+      </c>
+      <c r="L82" t="s">
+        <v>552</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>553</v>
+      </c>
+      <c r="O82" t="s">
+        <v>67</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>554</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>555</v>
+      </c>
+      <c r="J83" t="s">
+        <v>556</v>
+      </c>
+      <c r="K83" t="s">
+        <v>557</v>
+      </c>
+      <c r="L83" t="s">
+        <v>558</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>559</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>560</v>
+      </c>
+      <c r="J84" t="s">
+        <v>561</v>
+      </c>
+      <c r="K84" t="s">
+        <v>562</v>
+      </c>
+      <c r="L84" t="s">
+        <v>563</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>564</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>565</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>566</v>
+      </c>
+      <c r="J85" t="s">
+        <v>567</v>
+      </c>
+      <c r="K85" t="s">
+        <v>568</v>
+      </c>
+      <c r="L85" t="s">
+        <v>569</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>564</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>570</v>
+      </c>
+      <c r="X85" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>573</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>574</v>
+      </c>
+      <c r="J86" t="s">
+        <v>575</v>
+      </c>
+      <c r="K86" t="s">
+        <v>576</v>
+      </c>
+      <c r="L86" t="s">
+        <v>577</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>564</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>570</v>
+      </c>
+      <c r="X86" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>579</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>580</v>
+      </c>
+      <c r="J87" t="s">
+        <v>581</v>
+      </c>
+      <c r="K87" t="s">
+        <v>582</v>
+      </c>
+      <c r="L87" t="s">
+        <v>583</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>584</v>
+      </c>
+      <c r="O87" t="s">
+        <v>74</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>586</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>587</v>
+      </c>
+      <c r="J88" t="s">
+        <v>588</v>
+      </c>
+      <c r="K88" t="s">
+        <v>589</v>
+      </c>
+      <c r="L88" t="s">
+        <v>590</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>591</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>592</v>
+      </c>
+      <c r="X88" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>595</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>596</v>
+      </c>
+      <c r="J89" t="s">
+        <v>597</v>
+      </c>
+      <c r="K89" t="s">
+        <v>598</v>
+      </c>
+      <c r="L89" t="s">
+        <v>599</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>600</v>
+      </c>
+      <c r="O89" t="s">
+        <v>67</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>602</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>603</v>
+      </c>
+      <c r="J90" t="s">
+        <v>604</v>
+      </c>
+      <c r="K90" t="s">
+        <v>605</v>
+      </c>
+      <c r="L90" t="s">
+        <v>606</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>607</v>
+      </c>
+      <c r="O90" t="s">
+        <v>67</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>609</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>610</v>
+      </c>
+      <c r="J91" t="s">
+        <v>611</v>
+      </c>
+      <c r="K91" t="s">
+        <v>612</v>
+      </c>
+      <c r="L91" t="s">
+        <v>613</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>615</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>616</v>
+      </c>
+      <c r="J92" t="s">
+        <v>617</v>
+      </c>
+      <c r="K92" t="s">
+        <v>618</v>
+      </c>
+      <c r="L92" t="s">
+        <v>619</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>621</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>622</v>
+      </c>
+      <c r="J93" t="s">
+        <v>623</v>
+      </c>
+      <c r="K93" t="s">
+        <v>624</v>
+      </c>
+      <c r="L93" t="s">
+        <v>625</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>626</v>
+      </c>
+      <c r="O93" t="s">
+        <v>67</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>627</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>628</v>
+      </c>
+      <c r="J94" t="s">
+        <v>629</v>
+      </c>
+      <c r="K94" t="s">
+        <v>630</v>
+      </c>
+      <c r="L94" t="s">
+        <v>631</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>632</v>
+      </c>
+      <c r="O94" t="s">
+        <v>114</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>25532</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>634</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>635</v>
+      </c>
+      <c r="J95" t="s">
+        <v>636</v>
+      </c>
+      <c r="K95" t="s">
+        <v>637</v>
+      </c>
+      <c r="L95" t="s">
+        <v>638</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>639</v>
+      </c>
+      <c r="O95" t="s">
+        <v>67</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_591.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_591.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="729">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>nataliashipkova1981</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I wish i could leave a 0 star...... It was the worst experience of my life. As soon we are entered to the hotel for check-in, front desk was so rude with sarcasm her name is Penny she is the manager is the rudest person I have ever met. We were in shock. There were cockroaches in the room, on the table, in the shower, and on the beds. We had to complain 3 times. The people from the front desk were so rude not helpful to us……how it's possible?! We were so stressful and one my friend just cry because the vacation was spoiled. I never ever in my life didn’t see service like that. Manager Penny she was had no reaction on that, she said:" it's your problems, something else ?" We are very disappointed. Stay away from this hotel and manager Penny Fleming, it's the rudest person I ever met in my life.More</t>
   </si>
   <si>
+    <t>mlisscomeau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r586784047-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Jay H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r579524208-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Holly M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r540779715-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -246,6 +258,9 @@
   <si>
     <t>We've stayed at several Choice Hotel properties in the past, with good service and value.  This hotel is not as nice as any of the others in the brand.  
 We looked at this hotel prior to our stay and were shown a nice "renovated" room.  When reserving on-line, we requested a "renovated" room for 2 people.  Got a room with a broken front door handle, with peeling paint, mold in the shower, rusty shower fixtures, stained carpeting, 2 bath towels and 1 set of very small toiletries.  Asked for extra towels and another shampoo/conditioner; was told we had to wait until morning.  Walkway to the room had safety cones placed around broken, unglued floor tiles that moved.  Breakfast items were very sparse; the scrambled eggs weren't real and the sausages looked pretty bad.  Breakfast cabinet doors were padlocked, which really makes a guest worry about safety/theft in the hotel overall.  Our room had no soundproofing; we could hear everything from next door and the hallway.  We were told when checking out, since we were leaving early, we couldn't be checked out or receive the final bill as reservation was made on-line.  And that a general manager had to OK our bill since we booked on-line, and she wasn't in for awhile.  We've traveled for over 30 years in many hotels in the US and overseas; and have never been told we couldn't be checked out of a hotel.  Very disappointing...We've stayed at several Choice Hotel properties in the past, with good service and value.  This hotel is not as nice as any of the others in the brand.  We looked at this hotel prior to our stay and were shown a nice "renovated" room.  When reserving on-line, we requested a "renovated" room for 2 people.  Got a room with a broken front door handle, with peeling paint, mold in the shower, rusty shower fixtures, stained carpeting, 2 bath towels and 1 set of very small toiletries.  Asked for extra towels and another shampoo/conditioner; was told we had to wait until morning.  Walkway to the room had safety cones placed around broken, unglued floor tiles that moved.  Breakfast items were very sparse; the scrambled eggs weren't real and the sausages looked pretty bad.  Breakfast cabinet doors were padlocked, which really makes a guest worry about safety/theft in the hotel overall.  Our room had no soundproofing; we could hear everything from next door and the hallway.  We were told when checking out, since we were leaving early, we couldn't be checked out or receive the final bill as reservation was made on-line.  And that a general manager had to OK our bill since we booked on-line, and she wasn't in for awhile.  We've traveled for over 30 years in many hotels in the US and overseas; and have never been told we couldn't be checked out of a hotel.  Very disappointing stay.More</t>
+  </si>
+  <si>
+    <t>Steve S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r533578114-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -299,6 +314,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Ali C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r520400161-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
 It started earlier in the afternoon when the General Manager, Peggy Fleming was RUDE to a fault, put me on hold multiple times for over 5 minutes, hung up on me, didn't answer the phone when I tried calling back for over 30 minutes only to finally answer and put me on hold again. 
 I was calling to confirm my reservation I put on my boss's company card and to make sure that I would not need the card or a waiver to use it again for any other charges that were not explained to me because the GM wouldn't talk to me.
 When I arrived after driving 3 hours from San Diego where I live the evening receptionist Fadi explained to me that I needed a credit card for a deposit after seeing him tell the previous guests in front of me that he "could sneak them in and to not tell his manager Penny." Unfortunately since I didn't know this information, did not have the card on me, and was not allowed to use the card that my boss left on file because it had to be physically there or...Well this,experience has been the example of the WORST customer service I have been put through in my 15 years as a fitness professional who travels the nation teaching large gym chain staffs the importance of customer service and going the extra mile for the member or guest.It started earlier in the afternoon when the General Manager, Peggy Fleming was RUDE to a fault, put me on hold multiple times for over 5 minutes, hung up on me, didn't answer the phone when I tried calling back for over 30 minutes only to finally answer and put me on hold again. I was calling to confirm my reservation I put on my boss's company card and to make sure that I would not need the card or a waiver to use it again for any other charges that were not explained to me because the GM wouldn't talk to me.When I arrived after driving 3 hours from San Diego where I live the evening receptionist Fadi explained to me that I needed a credit card for a deposit after seeing him tell the previous guests in front of me that he "could sneak them in and to not tell his manager Penny." Unfortunately since I didn't know this information, did not have the card on me, and was not allowed to use the card that my boss left on file because it had to be physically there or some sort of waiver signed. **Job Description For Hotel General Manager** POSITION SUMMARY: The General manager is responsible for all aspects of operations at the hotel, day-to-day staff management and guests.Responsible for managing the Hotel's management team (HOD's) and overall hotel procedures (and here's the best part..) and TARGETS TO DELIVER AN EXCELLENT GUEST EXPERIENCE.E P I C    F A I L !I had to call another general manager from another one of my gyms who came down and was able to do that for me which I'm extremely grateful for. When she asked Fadi why he was giving such extremely poor, aggressively degrading, and confrontational customer service that she was receiving from him, he became very angry and started yelling at her saying that he can sneak anybody in he wants, he can do what he wants, if he wants to check people in early he can do that and that's it's none of her business. At this point there was a line behind us and the people were in shock for how he was treating her. I don't know if it was his ethnicity, being Middle Eastern, and how he is used to treating women, but it was extremely degrading and not something I can tolerate.I mean did I just wake up today in the wrong dimension or something because since when are guests of a hotel, or any type of customer at any business treated in this fashion?I am the District Manager for one of the largest gym chains in the United States and I've never seen this kind of belligerent, hostile, and combative customer service by anyone that I saw these two representatives of Choice Hotels give me and someone who came to help me for their error in my 15 years of experience in the fitness industry. I am appalled by both these individuals, If a customer service or guest relations representative from Choice Hotels or Quality Inn Suites doesn't contact me and explain why I deserved to go through this ordeal and treatment and don't fix it, I will go to the corporate offices of each, or as high as I need to, and I will take this up with them and I will make sure that this review gets put on each hotel search engine site and any other hotel and hospitality site, including social media, and expose this type of treatment to your guests by Penny Fleming and Fadi and shared with thousands.Unbelievable. Stay away.More</t>
+  </si>
+  <si>
+    <t>amk900</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r512641163-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -386,6 +407,9 @@
 - Perhaps the replenishment of non-cooked goods could...We got there about 10:55pm on a Saturday evening.Room seemed clean, except for what it seemed a dead mosquito squashed on a bathroom wall.Beds were really comfortableNow for the negative stuff:- We first had to wait in line to get checked in for about 20 minutes.- We also noticed a lot of spills on the lobby as well as the dining room area.- The A/C had a weird noise when it when on during the night. Thankfully, my husband and I wear ear plugs so it wasn’t an issue.- The breakfast setup is not enough for the large crowd on Sunday morning when we got there around 8:30am:- No eggs- Only a few slices of white bread- No decaf- No coffee- No tea- No fruit- Somebody made the comment they were there around 7am and there was no food then eitherMy observations:- The bacon and egg trays are way too small for the large crowd.- The attendant was gone for long times to get replenishment.- By the time she replenished the coffee, left to replenish the bread, the coffee was out again.- A gallon of milk was left on the attendant’s counter. I think it should have been refrigerated.- Though she finally replenished the bread tray, there was no wheat bread available.- Perhaps the replenishment of non-cooked goods could be improved by having the products closer to the attendant: breads, fruit, coffee, etc.- There should be larger trays of bacon and egg available so the food runs out less often, and have it replaced at determined times even if the tray is not empty. Then we don’t run out of food.- There should be more coffee dispensers.- And perhaps for the large Sunday crowd, have 2 attendants.We were glad we were only staying one night!More</t>
   </si>
   <si>
+    <t>johntrak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r504342930-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -409,6 +433,9 @@
 Shocked by hotel sticker shock in the region, we happened upon this one and decided to book it. At this point we were wanting to get as close to our business mtg. as we could and didn't want to have to make a long drive in the middle of morning rush hour. It was a port in a storm. What was surprising was how nice the staff was, quick check in, but did not like that they wanted to copy my driver's license. Illegal in CA. We declined and explained the law and that they could not do it. Verification is one thing but they can't go beyond that. They gave us a very nice room but it was very hot and it took the a.c. a while to cool it down. The bed was comfy, bathroom was clean and the long counter at the sink was very nice for getting organised. The room was clean and comfy. Breakfast was very good. The pancakes were tasty. The morning desk guy would not let me get my paperwork until the time of actual check out. First time I ever experienced that. Not a big deal, but would have preferred to get a copy of the paperwork, load up the car, and drop off the key. It's not that important and we were pleased with the good service...Bottom line: comfy, nice accommodations, good breakfast, will go again if the need arrises. Shocked by hotel sticker shock in the region, we happened upon this one and decided to book it. At this point we were wanting to get as close to our business mtg. as we could and didn't want to have to make a long drive in the middle of morning rush hour. It was a port in a storm. What was surprising was how nice the staff was, quick check in, but did not like that they wanted to copy my driver's license. Illegal in CA. We declined and explained the law and that they could not do it. Verification is one thing but they can't go beyond that. They gave us a very nice room but it was very hot and it took the a.c. a while to cool it down. The bed was comfy, bathroom was clean and the long counter at the sink was very nice for getting organised. The room was clean and comfy. Breakfast was very good. The pancakes were tasty. The morning desk guy would not let me get my paperwork until the time of actual check out. First time I ever experienced that. Not a big deal, but would have preferred to get a copy of the paperwork, load up the car, and drop off the key. It's not that important and we were pleased with the good service and accommodations as mentioned. Will go back for sure in the future.More</t>
   </si>
   <si>
+    <t>Jetset18MelM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r499560870-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -430,6 +457,9 @@
     <t>Checked in late evening. Easy to find. Lots of food choices around and there's a Chinese restaurant attached. Free wifi, free parking, free breakfast, free friendly staff. I think I was helped by Penny. The nice lady friend Sydney Australia. At first my key didn't work. I tried a few times then she escorted me to my room to make sure I got in. Awesome customer service. There's a pool to cool off in this summer heat. Opened the door and wow was I surprised. I was expecting low budget sketchy room with things broken down.  Not at all. It's a lot better then a lot of other hotel rooms I've stayed at. Reminds me of a casino hotel room. Marble bathroom countertops, a sofa, large fridge with freezer. Nice wide table with comfy office chair. Nice lighting and aircon. Coffee with green recycle cups. Way to go! Ice bucket with toiletries. Clean wide bed and flat screen. I wish I was staying longer so I can enjoy my room longer. Totally staying here again. It's perfect.  There's a Mc. Donald's just yards away right by the pool. Scored an awesome suiteMore</t>
   </si>
   <si>
+    <t>Rudy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r498361211-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -445,6 +475,9 @@
     <t>As a business owner this was the most horrible customer service in the world and I have spent the last 33 days traveling the world over 12+ hotels stayed at and this one was the absolutely the worse, I will never come back our recommend this hotel to anyone.</t>
   </si>
   <si>
+    <t>Solstice63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r491002618-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -472,6 +505,9 @@
     <t>I am a local of the area and stayed here over night. The property itself is very old and has been here for many many years. The rooms were not as bad as I thought though as I entered mine. There were a few things in the room that needed fixing or attention, but other than that the room was fine. The front desk employee was very fast and had great customer service. This was the cheaper option out of all the hotels in the area that is why I chose to stay here. In conclusion, I recommend staying here for a short amount of time because of its location to the freeway and the room was clean enough to live with.More</t>
   </si>
   <si>
+    <t>Shawna d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r474702107-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -490,6 +526,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>MikeVdP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r473678166-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -514,6 +553,9 @@
     <t>This is a larger Quality Inn that works well when staying in the area.The place is older and is getting some upgrades.  Overall, it's a fine place to stay when visiting the area.The breakfast is good and includes eggs, pancakes, yogurt, breads, cereals, etc.  One day there were scrambled eggs and sausage and the other days there were fried eggs -- cooked 'till the yolks were hard -- and sausage.  The scrambled eggs were better.The breakfast space is large, so there are enough tables for visitors -- something not all hotels have!The place appears to have had a second building added, so there are ramps on each floor -- inside -- to connect them.Finding stairs is tricky -- they aren't where you'd expect them, so look for the Exit signs.The Olive Chinese Restaurant, inside the hotel, is a funny one for a hotel, but the food is good and the price is right!Overall, a good choice for a place to stay in the area.More</t>
   </si>
   <si>
+    <t>Martin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r467823177-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -541,6 +583,9 @@
     <t>Friendly staff and comfy beds. During my stay the hotel was going through some renovations. That didn't impact my stay though. My room was clean and roomy. The bed was very comfortable. I had a nice little balcony that caught the sun just right. There was a Continental breakfast included which had eggs, sausage, pancakes, toast, bagels, yogurt, juice, coffee, cereal, and oatmeal. Nearby there is a starbucks, Buffalo wild wings, McDonald's, and pizza studio and few more restaurant's within walking distance.More</t>
   </si>
   <si>
+    <t>Kevin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r444534676-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -559,6 +604,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>TravelXer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r438192186-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -574,6 +622,9 @@
     <t>Professional HospitalityWhat we look for in places we stay are professionals that know what hospitality is all about and this Quality Inn location does.When it comes to hospitality and service this place gets a "10". The rooms are newly remodeled with new furniture, beds, paint and carpeting. My room was great!I have been luck to have FADI as my host at check-in. His service is excellent and makes check-in a breeze!This place is centrally located in Orange County with easy access to freeways. If you're in the area check them out...</t>
   </si>
   <si>
+    <t>Nonna4308</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r424553168-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -592,6 +643,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r412960683-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -613,6 +667,9 @@
     <t>We arrived early and went to see if we could check in early.   The manager on duty (Peggy) told us to sit down, she'd have an answer in 15 minutes.  After about 10 minutes we asked her again and she told us very rudely that nothing was available, and to come back later. I was not happy with her poor attitude.   When we did check in, hours later, a very nice gentleman checked us in. We told him of our previous experience with Peggy,  he told us that he knew but couldn't say anything. The room was very clean, the hotel is going through a remodel but we didn't notice any construction.  Breakfast offered free was decent but not fancy.  Overall hotel was ok but that manager need to learn what working in hospitality service means.More</t>
   </si>
   <si>
+    <t>travelnice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r412781666-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -628,6 +685,9 @@
     <t>My wife and I stayed one night in a room on the third floor.  Nearby are I-5 highway and Lake Forest blvd...which together creates road noise that is heard at night.  A/C is a separate unit that is wall mounted.  The air flow from it is noticeable when on the bed nearest it.  Beds were comfortable and bathroom is typical of a low/mid range hotel.  Compared to prices of nearby hotels it is quite reasonable.  Staff were nice.There is a breakfast provided with room.  It has a large seating area and has usual items, but instead of a waffle maker it has a pancake making machine that is automatic. Press a button and the batter is poured and the pancake is cooked. The pancake is small and thin.  I tried one and found it bland and a little "rubbery".  The bacon is cooked and in a tray that had a lot of liquid fat at the bottom and when I picked up a bacon piece it dripped fat.  Not my type of bacon.If I stayed again at the hotel it would only be because of the price.More</t>
   </si>
   <si>
+    <t>Aisha W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r406834329-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -646,6 +706,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>jakekosh26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r403358270-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -662,6 +725,9 @@
   </si>
   <si>
     <t>January 2016</t>
+  </si>
+  <si>
+    <t>teacherkaren2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r398134859-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -686,6 +752,9 @@
       The next morning, having stayed at plenty of hotels with only a few tables in the breakfast area, I was happy to discover plenty of space to sit.  However, with the hotel completely full, it was impossible for the one man working the area to keep everything stocked.  The buffet officially closed at 9:30, and by 8:45, almost all of the fruit, and all the scrambled eggs and...My friend and I checked in with our two teenagers at 9 pm on a Saturday night in July. Fortunately, we had a reservation because the hotel was packed, but we had no problem finding convenient parking near the entrance.  When my friend went down to the lobby for more towels, the lobby desk clerk brought them up a few minutes later.  Our room was on the 3rd floor, on the side of the hotel facing the street, but surprisingly quiet.  The beds were comfortably firm with fluffy pillows and a cozy, lightweight comforter.     I was impressed by the Olive Tree restaurant located inside the hotel.   Arriving at 9:10, after the official closing time, we were surprised to be welcomed in.  I was expecting a "cookie cutter" Chinese restaurant, but instead discovered a unique place run by a proud, skilled cook and his wife.  The pad Thai on the menu was authentic, and the orange chicken was declared by one of the picky eater teenagers to be "the best I've ever had."      The next morning, having stayed at plenty of hotels with only a few tables in the breakfast area, I was happy to discover plenty of space to sit.  However, with the hotel completely full, it was impossible for the one man working the area to keep everything stocked.  The buffet officially closed at 9:30, and by 8:45, almost all of the fruit, and all the scrambled eggs and sausage were gone.  However, if you had time to wait a while and willingness to ask, the attendant would get you what you needed.  After 9:30, as he worked putting away breakfast supplies and cleaning tables, he was very friendly and helpful with some questions about things to do in the area.     One last perk of this hotel was the small balcony off the room.  In Southern California, it's great to enjoy the night air on a balcony!     P.S.  In the lobby, look up!  There's a cool chandelier.More</t>
   </si>
   <si>
+    <t>ballerina501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r396970373-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -719,6 +788,9 @@
     <t xml:space="preserve">Very friendly service. The hotel is under major renovation and we where given a newer room. Reasonable price considering the location... I would stay again When I'm in the area.  This hotel is centrally located in Orange County and is about 15 minutes from the beach or Disneyland. It's easy to find just off of the 5 freeway. </t>
   </si>
   <si>
+    <t>brighteyesWisconsin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r388486504-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -734,6 +806,9 @@
     <t>We really enjoyed our stay here. It has a beautiful lobby to begin with! Our room was nice and clean. We brought our little dog and they were very welcoming. We had a little trouble having to wait to check in because the computer system was down butt that was not their fault.  Nice hot water!  There were signs saying they were renovating but we never saw signs of it. Beautiful pool too!</t>
   </si>
   <si>
+    <t>Maureen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r370906043-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -752,6 +827,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>lionel86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r350710466-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -770,6 +848,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Edward J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r348703881-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -785,6 +866,9 @@
     <t xml:space="preserve">Was very close to the business I had to do while in town. The restaurant inside had some great food. Did not have any transportation so I can't tell what was nearby. Staff was very friendly and helpful to get me to where I needed to be when checking out.  Was pretty quiet slept OK </t>
   </si>
   <si>
+    <t>Acefalo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r347727777-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -803,6 +887,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Halems</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r330745437-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -821,6 +908,9 @@
     <t>I needed a place for a quick in-out one night stay.  My class was nearby and started earlier than I could arrive by air, so the only choice was to fly down the night before.  I did a search on TripAdvisor for places nearby and the Quality Inn popped up.  I have stayed at Quality Inns before, and while not luxurious, the do have free wifi and free breakfast.  On occasion, I have run into hotels that don't start the breakfast until 7 or 7:30, later than I can deal with.  This hotel started at 6:30 so it worked well.  Food wasn't gourmet, but quite acceptable and it is nice that they have take-away cups for the coffee for the ride to the class.More</t>
   </si>
   <si>
+    <t>jsh35715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r325041390-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -842,6 +932,9 @@
     <t>Like my namesake, Jonathan H reviewed, this hotel is clean and cheap and sometimes that's all you need.  We just cleared out a house that we sold so we were tired, it was raining, and the Quality Inn was in front of us.  The rooms are large enough and definitely clean.   We originally were only going to stay for two days but ended up adding two more as the hotel was so convenient to the freeway and surrounding restaurants.  Olive Tree Chinese Kitchen inside the hotel is a diamond in the rough---fabulous food that is not salty or smothered in goopy sauces.  Dumplings rivaled China town.  Breakfast at the hotel was fine with full-sized yogurts, eggs, sausages, and good coffee.  Service is very good.More</t>
   </si>
   <si>
+    <t>56waldorf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r321624671-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -863,6 +956,9 @@
     <t>If you look up the definition of a 2-star hotel, you might find a picture of this Quality Inn in Irvine. It certainly meets all the criteria: It's outdated but serviceable, and you probably wouldn't want to stay more than one night.Among the negatives: A sliding glass door to the balcony that wouldn't lock, awful WiFi speed, and zero hot water in the shower. The room is in desperate need of an upgrade, and the TV remote didn't work. But if your expectations are low before you arrive, it's fine. The front desk cashier was friendly and they had a decent free breakfast in the morning. The hotel is located next to a McDonalds, and there's a Starbucks/gas station just two minutes away. It's also close to the freeway. As long as you're not expecting anything more than 2 stars, this property will do. We were only there for a total of about 10 hours, and that was more than enough.More</t>
   </si>
   <si>
+    <t>moses72548</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r305551146-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -881,6 +977,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>SuzB0203</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r304476225-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -899,6 +998,9 @@
     <t>I was traveling with a very budget conscious group for a conference in the area.  The hotel was fine, but worn. It definitely needs a cosmetic updates.  Some of the King bed rooms on the interior hall of the 3rd floor of the front building have cool vaulted ceilings so they seemed more spacious.  The outer rooms are just plain and small.  The beds/bath were clean, but there were some cigarette burns on the comforters and weird stains on the wall.  The area looks a little dodgy, but is near some decent neighborhoods.  We also think that the gas from our van may have been siphoned/stolen one night. It is hard to find good deals in Southern California so this place works if your money is tight.More</t>
   </si>
   <si>
+    <t>Robin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r303725778-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -914,6 +1016,9 @@
     <t>Staff not very friendly, Room was too hot when I arrived, by the time it cooled down enough to sleep it was 3:30 am and I had to get up at 5:30 am, the web site they said they offer a free shuttle within a 5 mile radius and when I asked they said we don't do that.Had I known this I would not have booked here. I don't think I would booking here again when I come to Cali again.</t>
   </si>
   <si>
+    <t>MAUREENH47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r289645391-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -932,6 +1037,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>rlafave143</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r286507881-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -948,6 +1056,9 @@
   </si>
   <si>
     <t>June 2015</t>
+  </si>
+  <si>
+    <t>Agent-CruiseOne</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r285665852-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -970,6 +1081,9 @@
 Room as as far back as you could get on the property. Upon entering I got hit with a extremely strong oder of mildew/mold. It was strong everywhere. The comforter...As a Travel Agent/Owner of CruiseOne - Erik Fischer &amp; Associates I would have to say this is on my top 5 of worst properties I have ever stayed at. Upon arrival in the early afternoon the employee (unknown when we drove up) was smoking and looked agitated when he put it out and walked inside behind the desk. They gave me a smaller room than requested. When I questioned him about this he was fairly argumentative and said I booked it online. I advised I called because they had the same picture for all the suites and I particularly wanted a 1 bedroom. Instead he put us in a junior suite and stated thats all they had. He then went on to tell me I was lucky he was checking me in before 3:00 pm as that is when check in time is. I told him I gave never had an issue with checking in early at other hotels and he argued with me no other hotel does it either. I asked if he wanted me to name who does and he said yes. It was like he was calling me a liar. Turns out he was the General Manager of this property and his name was Darren Yang. Room as as far back as you could get on the property. Upon entering I got hit with a extremely strong oder of mildew/mold. It was strong everywhere. The comforter really smelled of mildew. My nose instantly clogged up. When I went to call the phone did not work. I then found ants all over the bath tub. They were coming and going from the water valve and the overflow drain and I was on the third floor. I chose not to eat there as this hotel was a train wreck. Management was so very unprofessional and room was horrible. I told him what I did professionally and I would be reviewing his property but he did not care.Bottom line.... stay clear of this property unless you don't care about the things I mentioned. I have stayed at all types of properties for my job from 5 star resorts to 1 star small family run properties and this is most definitely on my top 5 of worst which is disappointing as it is in a great location. It just needs new management and to be shut down for a renovation and fumigation.Again, I will never return and I recommend the same to you.More</t>
   </si>
   <si>
+    <t>Matthew H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r277501122-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -988,6 +1102,9 @@
     <t>This is an old building that has been reasonably maintained, but shows it's age in some common areas like the garage, stairwells and pool area. I would have given this just an "okay" review, but for the 4 days I stayed there was always a problem with the hot water in my third floor room.  On two mornings there was none at all until I complained at the front desk and they said they had just "reset" the boiler. I had to wait a half hour an then the water was only tepid and barely warm enough to take a shower. On the third day the said the boiler had been "fixed" but in the next morning it was back to "barely warm enough" water.  In the afternoon and evening the water was properly hot so I decided to bathe before bed to ensure I had some. The room I had overlooked the pool located in the central courtyard, and it can be quite noisy with a group of people there.  On one night a large noisy group of teens decided to have a pool party until closing time, and I couldn't get to sleep for the noise even with the window closed.More</t>
   </si>
   <si>
+    <t>Steven C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r274923964-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1009,6 +1126,9 @@
     <t>My wife and I stayed at this hotel recently when attending a concert at the Verizon Ampitheater (now Irvine Meadows).  The first impression is that this is a very nice place as the lobby area is beautiful.  However, once we got into our room it was apparent that this is an older hotel that has had some cosmetic improvements but is still in need of a major overhaul and maintenance.  The drain stoppers in both the bathroom sink and tub were broken.  We also found a dirty t-shirt left on the floor from a previous occupant so the cleaning staff is questionable as far as their attention to duty.  They have a restaurant at this hotel which was ok.  (Chinese food)  The desk staff was also very slow and they didn't seem to know what they were doing.  I can't recommend this hotel as I am sure there are better places to stay in the area.More</t>
   </si>
   <si>
+    <t>travelforfunnstuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r274110771-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1027,6 +1147,9 @@
     <t>I picked this hotel because of its close proximity to the Irvine Amphitheater and the fact that they had shuttle service.  I booked ahead as the weekend was a surprise birthday present for my wife.  I called two days before to confirm everything and was informed they no longer did any shuttle service.  Alright, we'll work around the inconvenience.  Upon arrival, I was greeted with a big smile by Maj.  This, of course, was after she finished her texting.  Later I visited the front desk with a question, and again waited while the texting continued.  The next day at checkout, I was surprised to see Maj again with front-desk duty, with the obligatory wait while texts are completed.  Other than that, our visit was pleasant but too brief.  The room was clean and comfortable.  The TV was large but with only local and standard channels.  I would consider staying here again.  I would have given four stars, but having my own business, it was irritating to see someone who was hired to do a job playing on her phone.More</t>
   </si>
   <si>
+    <t>Damon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r257878576-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1045,6 +1168,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Michael W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r252676159-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1066,6 +1192,9 @@
     <t>When I arrived I was greeted by a sign in the counter saying someone will be back in five minutes, should have said ten.  My credit card imprint for incidentals was taken on an old imprinter on a piece of paper which now sits who knows where?  I had to walk through a wall of water pouring through the ceiling on the second floor walkway.  Literally a wall of water.  As I walked into the room there was a musty smell and many cosmetic flaws (wallpaper peeling) and possible water damage that was poorly repaired. Soffit above sink was only about 6 feet tall causing many head bumps. Bathroom was poorly lit and there was some mold on the ceiling in the shower.  There was no attention to detail anywhere.  All spaces were dated and needed updating.  Stairways weren't marked well I had to look at map in room to find their locations.  When i did use them they were dirty and were clumsily repaired including screws used to Hold down the plastic traction coverings.  Tripping hazard?  I booked this online.  Maybe they give the online bookings unremodeled rooms?  Pool had debris on the bottom. I won't ever stay here again.  Staff could use hospitality training also. Not friendly not hostile either just didn't seem professional or outgoing. Fridge and micro were stacked several feet from desk and looked out of place. Two lights weren't plugged in and the clock...When I arrived I was greeted by a sign in the counter saying someone will be back in five minutes, should have said ten.  My credit card imprint for incidentals was taken on an old imprinter on a piece of paper which now sits who knows where?  I had to walk through a wall of water pouring through the ceiling on the second floor walkway.  Literally a wall of water.  As I walked into the room there was a musty smell and many cosmetic flaws (wallpaper peeling) and possible water damage that was poorly repaired. Soffit above sink was only about 6 feet tall causing many head bumps. Bathroom was poorly lit and there was some mold on the ceiling in the shower.  There was no attention to detail anywhere.  All spaces were dated and needed updating.  Stairways weren't marked well I had to look at map in room to find their locations.  When i did use them they were dirty and were clumsily repaired including screws used to Hold down the plastic traction coverings.  Tripping hazard?  I booked this online.  Maybe they give the online bookings unremodeled rooms?  Pool had debris on the bottom. I won't ever stay here again.  Staff could use hospitality training also. Not friendly not hostile either just didn't seem professional or outgoing. Fridge and micro were stacked several feet from desk and looked out of place. Two lights weren't plugged in and the clock was not set even close to the correct time.  No attention to details.  I took photos, but apparently it's not possible to attach them when posting from a mobile device?More</t>
   </si>
   <si>
+    <t>Jim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r245037835-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1084,6 +1213,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>GraceIshak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r221122565-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1102,6 +1234,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Zoom_Gotti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r218904516-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1123,6 +1258,9 @@
     <t>This motel is average at best. It's off of the 5 Freeway on Rockfield in a business park next to a McDonald's. If you see the McDonald's turn there! Otherwise you might bypass the motel. There are other ways of accessing this place, but this is the easiest. The neighborhood houses mid-scale types of restaurants and shops. Nothing fancy. Nothing real good. The mall down the road has seen better days. My room overlooked the pool. On stuffy days (which I had while I was there) the chlorine suspended in the air. So I closed the balcony door and turned on the air conditioner. The pool, though, is actually useful and there is a small exercise area. When I was there youth baseball players were using the facilities. The lobby is large, there's a guest computer useful for replacing the "iffy" Wi-Fi, and there's also an on-site Chinese restaurant. The continental breakfast is free but, if there is a large group staying there, try to eat early so you still have some good food choices left. My room had a fridge and microwave. Good for storing some drinks, groceries, and cookies. But I didn't like the bed pillows. They were shaped like rectangles and too firm. The motel is an easy drive down to the beachfront at Laguna. But you'll need to get an early start for free parking. Otherwise, you can feed the meters or park in the pay...This motel is average at best. It's off of the 5 Freeway on Rockfield in a business park next to a McDonald's. If you see the McDonald's turn there! Otherwise you might bypass the motel. There are other ways of accessing this place, but this is the easiest. The neighborhood houses mid-scale types of restaurants and shops. Nothing fancy. Nothing real good. The mall down the road has seen better days. My room overlooked the pool. On stuffy days (which I had while I was there) the chlorine suspended in the air. So I closed the balcony door and turned on the air conditioner. The pool, though, is actually useful and there is a small exercise area. When I was there youth baseball players were using the facilities. The lobby is large, there's a guest computer useful for replacing the "iffy" Wi-Fi, and there's also an on-site Chinese restaurant. The continental breakfast is free but, if there is a large group staying there, try to eat early so you still have some good food choices left. My room had a fridge and microwave. Good for storing some drinks, groceries, and cookies. But I didn't like the bed pillows. They were shaped like rectangles and too firm. The motel is an easy drive down to the beachfront at Laguna. But you'll need to get an early start for free parking. Otherwise, you can feed the meters or park in the pay lots. Laguna does provide shuttle service. Free in the summer, a small fee other times. But I parked at the Laguna Hills Mall, hailed the 89 bus, paid a small fare and, 25 minutes later, was dropped 4 blocks from the sand. If you do this, check the schedule for the return because the evening buses run but once an hour.More</t>
   </si>
   <si>
+    <t>Angie423</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r218353059-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1141,6 +1279,9 @@
     <t>This was the worst hotel experience for our money we have ever had. We paid $159/night and this hotel is more in value compared to a Motel 6, pretending to be something better. We reserved a non-smoking room, which wreaked of smoke. A dirty towel was left on the floor. A bed skirt was splattered with who knows what. The decor and decorations are cheap and thrown together. No coffee packets were provided in the room. When we did get them, we found out the coffee maker did not work properly, had coffee all over the place. The sliding door lock was broken, only the bar to keep it secure. Pool edge was about 5 feet from our room, extremely noisy, room 142. TV was not plugged in, but figured that out eventually. Someone elses hairs were in the sink upon arrival. Witnessed a server snap at a guest at breakfast, for no apparent reason, other than she was overworked and frustrated. Only one server was not enough for the amount of people trying to get breakfast. Coffee out, pastries out, forks gone, regular waffle mix out. Sand or some odd substance inside the entry to the outside. Halls/stairwells to outside were filthy. Carpets in the room made you feel dirty. Room door would not close unless you pulled it closed. This hotel is outdated and in need of major upgrades and deep down cleaning, as well as better management...This was the worst hotel experience for our money we have ever had. We paid $159/night and this hotel is more in value compared to a Motel 6, pretending to be something better. We reserved a non-smoking room, which wreaked of smoke. A dirty towel was left on the floor. A bed skirt was splattered with who knows what. The decor and decorations are cheap and thrown together. No coffee packets were provided in the room. When we did get them, we found out the coffee maker did not work properly, had coffee all over the place. The sliding door lock was broken, only the bar to keep it secure. Pool edge was about 5 feet from our room, extremely noisy, room 142. TV was not plugged in, but figured that out eventually. Someone elses hairs were in the sink upon arrival. Witnessed a server snap at a guest at breakfast, for no apparent reason, other than she was overworked and frustrated. Only one server was not enough for the amount of people trying to get breakfast. Coffee out, pastries out, forks gone, regular waffle mix out. Sand or some odd substance inside the entry to the outside. Halls/stairwells to outside were filthy. Carpets in the room made you feel dirty. Room door would not close unless you pulled it closed. This hotel is outdated and in need of major upgrades and deep down cleaning, as well as better management of housekeeping and maintenance.It was a place to sleep, nothing more, and we won't be back.More</t>
   </si>
   <si>
+    <t>Nick V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r210843943-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1166,6 +1307,9 @@
   </si>
   <si>
     <t>I booked a five night stay. When I returned to the room it was cleaned but all the blankets were thrown on the sofa. I tried to call but the phone didn’t work. I called the hotel from my Cell and spoke to Jim. I told him that I was in room 231 and the phone didn’t work. He responded with a smart answer that I needed to push a button to get a dial tone, which I tried and pushed line one and line two. Then I explained my issue with the blankets. Again a smart answer - that means they should be back in maybe 10 minutes to make the bed. Twenty minutes later I called the toll free number but was told I couldn’t file a complaint until I checked out. So I  checked out early and booked with Best Western located behind thier location. Basically this location didn’t have enough sheets for the rooms occupied. I been a customer for a while but this is the last time I will stay at a Choice Hotel. By the Wat Best Wester Spectrum is Awesome !!!More</t>
+  </si>
+  <si>
+    <t>Olivier M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r209940486-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -1188,6 +1332,9 @@
 The breakfast was a...I went to Orange County for a sporting event from 6/5 to 6/9/2014 and got a great deal on this Hotel through priceline. My expectations were not too high considering the relatively low star rating and some critical reviews. I have to say that the Hotel exceeded all my expectations in any way.. I got there at 2:30, 30 minutes prior to their 3 PM check in time and the friendly young lady at the front desk were able to get me into a room after checking with the cleaning staff. The lobby looked very clean.. The front doors looked a little dated and could use a fresh coat of paint and the AC vents in the lobby showed a little bit of age, but other than that, the impression was flawless.. When I got to the room, I was pleasantly surprised.. The room was good size with a small balcony. The room appeared remodeled with upgraded bathroom and newer looking furniture. Bed was comfortable for me as I do like firmer beds like the one they had. Pillows are kinda small but as there were 4 of them on the king size bed, that wasn't a problem.  There was no noise etc. at any time that I spent in my room.. Just quiet and relaxing. Everything in the room was working and I took advantage of the little fridge to keep my sports drinks cool. The breakfast was a typical Hotel breakfast. The sausage was actually pretty good! The location is very good and lots of places in walking distance including the #1 rated Restaurant in the area, Peppino's.. There is also a Panera right in front of Peppino's. For those who prefer McDonalds, there is one right across from the Hotel. I did not use the pool but it appeared clean and inviting.I think that with a little bit of minor maintenance (like painting the exterior right where the main entrance is), painting or replacing the front doors and replacing some of the ac vents that show some age, this should be at least one star higher rated.. I've been to 3.5 star Hotels that weren't any nicer than this one. I will likely be back at the Quality in in Lake Forest next year when I'm in the area again!More</t>
   </si>
   <si>
+    <t>C Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r208712058-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1215,6 +1362,9 @@
     <t>Clean rooms and comfortable accommodations.  The breakfast was the best, especially if you love waffles.  The staff was kind and professional during my entire stay.  There is also a Chinese restaurant on the grounds, very good food.  More</t>
   </si>
   <si>
+    <t>perrjojo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r199896316-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1239,6 +1389,9 @@
     <t>We were in Lake Forest for a family reunion.  We arrived a few days ahead of others in our group.  The hotel was once nice but badly in need of updating. Soiled paint and peeling wall paper.  The hotel is clean enough but gives an overall shabby appearance due to paint and wall paper issues.  There was also a very large, beautiful chandelier in the lobby.  The chandelier had not been cleaned in a very long time and looked dull and dirty.The hotel was understaffed and I had to go to desk to get items needed for the room.The day the rest of our party arrived there was a small letter sized sign at the desk advising that the electricity would be off from 10 pm until 6 am.  Several in our group had small children and would need to be up changing diapers and feeding.  No electricity was NOT an option.  When the desk personnel was told they did not desire to stay under these circumstances, the hotel told them they would NOT refund their deposit.   We would not have even known there would be no electrify if our group had not been checking in and seen the small sign.More</t>
   </si>
   <si>
+    <t>06msp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r197602854-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1257,6 +1410,9 @@
     <t>I recently had to stay here for a business trip and I will say that the service that your front desk associate Jose was truly exceptional.  He was efficient and had a great personality.  My room was a little outdated but very clean. More</t>
   </si>
   <si>
+    <t>Eric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r197324039-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1272,6 +1428,9 @@
     <t>First views are nice, lobby and outside.  Room large but a little worn and non smoking room was smoky, moved to new room fast.  Only one towel and no soap once again call to front desk quick fix.  Exercise room light was out two of the three days we were there.  Breakfast was ok onsite Chinese Restaurant.  was good also a great Thai place close by.  This hotel is not a 2 1/2 star but a good value for over price area.</t>
   </si>
   <si>
+    <t>Vivian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r178781599-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1290,6 +1449,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Badash1116</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r178637030-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1305,6 +1467,9 @@
     <t xml:space="preserve">I stay here often and it's a really nice hotel I travel a lot so I stay at a lot of hotels this one makes me feel like I'm at home my room is always ready for me the staff is always friendly and they treat you great!!! The rooms are big and roomy and it's probably one of the cleanest hotels I've stayed at. I love it here!! </t>
   </si>
   <si>
+    <t>Dianna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r177682886-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1323,6 +1488,9 @@
     <t>When we (3 rooms booked) it was before 3 -2:15p.m. The two men in our party, my husband and another man were allowed to check in BUT the one woman in group was told she and her sister had to wait until 3. Why? So we all waited for her to check in. By the by hotel was not busy. Rooms were clean enough although our bathtub would not turn off all the way-so quite a waste of water. Hot breakfast? A joke. WE waited 20 minutes for scrambled eggs-they didn't materialize so I went to front desk-same guy as day before still didn't care and neither did the young woman preparing food. Remember the commercial "1 potato, 2 potato...?" No milk for cereal, no coffee (reg or decaf), no fruit just some remnants of what might have been an hour earlier AND "breakfast" still had 40 minutes to go. reiterating, hotel not busy. Front guy didn't care about leaky tub. We don't care to go back.More</t>
   </si>
   <si>
+    <t>Sheryl F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r172387822-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1344,6 +1512,9 @@
     <t>Someone tried to come into our room at 3am.  I was woken up by a loud bang, and thought I saw light by the door.  I just figured my daughter was in the bathroom.  Turns out she wasn't. I noticed the security bar was pushed against the wall the next morning, and realized someone did try to come in. I told the manager at the desk the next morning, he was rude, snotty, and asked why I didn't "call him when it happened since he was there all night, there was nothing he could do about it now". I'd already explained I didn't realize what had happened until I got up later.Besides the fact that unless a person has the card keyed for the room, no one should have been trying to get in at 3am.The breakfast was terrible, and overall the staff we encountered were very unfriendly.We travel often for soccer tournaments, and I will be passing the word on this place!More</t>
   </si>
   <si>
+    <t>tdem523</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r172304662-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1360,6 +1531,9 @@
   </si>
   <si>
     <t>Stayed here Saturday Aug 10th on our way from San Diego to Long Beach. Book online after reading all the reviews on TA.When we arrive we had to wait just a short time for the desk clerk to come back but once he showed we were registered and in our room quick. The room felt a little dirty but wasn't worth complaining about, though it did smell like someone had been smoking in it and was evident by the burn on the bed sheets.The positive thing was that after 10:00pm there was a lot of noise coming from the pool, we called the front desk and the clerk was apologetic for not having been aware but within 5 minutes of being told the noise stopped. More</t>
+  </si>
+  <si>
+    <t>macdeux</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r171562365-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -1382,6 +1556,9 @@
     <t>First the good: Centrally located -- close to highways, shopping, and restaurants. Housekeeping kept the rooms stocked and cleaned up. Wi-fi was slow, but free. 
 Everything else was mediocre to heinous. The full breakfast wasn't very appetizing -- mostly pre-made stuff except for the waffles which you could make yourself. This "non-smoking" hotel was anything but. Smoke smell was everywhere. And we're not just talking cigarettes -- people were visibly lighting up pot on the balcony of their room. Worst of all -- the front desk staff, Jim especially, was exceptionally rude and did not exhibit the slightest bit of good customer service.If that weren't bad enough, a photocopy of my credit card (as well as others who checked in) was made at check-in -- even though it had already been run through the charge machine -- and when I found this out, he outright refused to give it back and said that he would have to check me out if he gave it back. When I did check out, he still refused to give it back citing that every hotel in the country does it. I reported it to my credit card company and they were appalled (they luckily reported it to their fraud division and sent me a new card).
 Long story short, it was better than nothing -- but next time I'll pay the extra bucks and go to a hotel where they know the meaning of...First the good: Centrally located -- close to highways, shopping, and restaurants. Housekeeping kept the rooms stocked and cleaned up. Wi-fi was slow, but free. Everything else was mediocre to heinous. The full breakfast wasn't very appetizing -- mostly pre-made stuff except for the waffles which you could make yourself. This "non-smoking" hotel was anything but. Smoke smell was everywhere. And we're not just talking cigarettes -- people were visibly lighting up pot on the balcony of their room. Worst of all -- the front desk staff, Jim especially, was exceptionally rude and did not exhibit the slightest bit of good customer service.If that weren't bad enough, a photocopy of my credit card (as well as others who checked in) was made at check-in -- even though it had already been run through the charge machine -- and when I found this out, he outright refused to give it back and said that he would have to check me out if he gave it back. When I did check out, he still refused to give it back citing that every hotel in the country does it. I reported it to my credit card company and they were appalled (they luckily reported it to their fraud division and sent me a new card).Long story short, it was better than nothing -- but next time I'll pay the extra bucks and go to a hotel where they know the meaning of hospitality instead of trying to make you feel like they're doing you a favor.More</t>
+  </si>
+  <si>
+    <t>McWidget</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r168614365-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -1408,6 +1585,9 @@
 On the second night of my stay, I was extremely tired, and at 8:30PM ready for bed.  I had no sooner doused the lights when a ruckus in the parking lot outside my window woke me up; it was a screeching chorus...I spent nearly a week at this hotel.  As a business traveler, my needs are simple: peace and quiet, hot shower, temperature control, wake-up call.  I was offered a choice of several hotels in the area by my client, and chose this Quality Inn because of the perks: free hot breakfast, parking, wifi, fridge and microwave.Things started going south upon check-in, when the desk clerk put me in a room that didn't remotely resemble the one that had been booked for me: a king bed suite with a pull-out sofa and balcony.  Instead, I was given a regular room with 2 queen beds and no balcony or sofa bed.  The clerk said she'd move me to another room the following day, but although I saw her at the front desk literally every day that week, she never followed through.I soon discovered the refrigerator in my room didn't close properly, and thus spoiled $15 worth of leftovers.  A male desk clerk replaced the fridge for me the following day--good.  However, that night the same female desk clerk failed to plug in my wakeup call for the following morning--bad.  Luckily I had my iPhone alarm as a backup.On the second night of my stay, I was extremely tired, and at 8:30PM ready for bed.  I had no sooner doused the lights when a ruckus in the parking lot outside my window woke me up; it was a screeching chorus of hundreds of pre-teen children's voices, in a Chinese dialect.  At first I thought, "Oh, surely they're just making a pit stop at the McDonald's next door," never dreaming the screeching throng would be checking into the hotel.  But they did, by the busload.Yes, this rowdy group of at least 100 noisy children swarmed into the hotel lobby, which was just below my room.  In her infinite wisdom, the female desk clerk managed to book two groups of pre-pubescent boys--4 to the room--in the room adjacent to mine, and the one directly above me.  My room had a shared door with the room next door, and the kids continuously tried to enter my room, pounding and shaking the door as they hollered at one another.  The kids above me must moonlight as gymnasts, because they were constantly stomping and pounding on the floor, to the point that the ceiling and walls in my room actually shook.After half an hour of chaos, I went down to complain to the front desk clerk.  She said "we're getting a lot of complaints," as if our conversation should somehow end there.  Luckily, the hotel's manager, who is of Chinese ancestry and spoke the same dialect as the youngsters, appeared, and said he personally would speak with the children in the room next to mine.  True to his word, he admonished the kids to keep quiet, as did the 3(!) adults traveling with the 100+(!) children.  The kids did settle down; but the little gymnasts upstairs tumbled for another hour.After another complaint to the front desk clerk yielded zero results, I finally went upstairs myself.  A young kid who couldn't have been older than 8 opened the door; he spoke enough English to understand what I was saying, and apologized for the stomping/jumping.  I asked him if there was an adult in the room, but there wasn't, only 3 other boys, none of whom appeared to be older than age 10.  All was well for about 20 minutes; then the stomping resumed.  Again I had to contact the front desk, and after about 30 more minutes, things were finally quiet.  By that point I had lost 2 hours of sleep.The next morning I woke at about 7:30 and went down to the breakfast bar; to my dismay, the horde of children had descended upon it en masse, and 6 deep.  A tiny opening appeared in front of the coffee machine; I had no sooner edged toward it than 5 kids ran right in front of me, cutting off access.  Even more maddeningly, they just stood there, obviously not interested in coffee, merely wanting to cut in line just in case there was something they did want.  The poor woman who serviced the breakfast bar tried to wade through the kiddie swarm, holding hot dishes aloft and hollering "excuse me, excuse me!" to no avail, as the kids wouldn't even let her through to service the bar.  Finally, an adult connected to the group appeared, lectured the children loudly, and managed to get them to form a queue--which lasted for about 15 minutes.  I grabbed what sustenance I could and escaped to my room.Shortly before I left that morning, I saw the children's bus outside my window; the kids were boarding, suitcases in tow.  "Good!" I thought, optimistic this episode was a fluke, that the rest of the week would be quiet, and the hotel would in fact revert from a playground to a hotel.Alas, the following evening--and EVERY evening thereafter--a similar group of children appeared like clockwork at 8:30PM, swarmed the lobby, and treated the hotel like it was their personal, noisy playspace.  Same complaints to the front desk, every night.  Same problems with the breakfast bar ... every morning.It's unfortunate, because this hotel had such promise in the beginning.  Yes, they're doing some things right--free perks, even underground parking--but there's no substitute for peace and quiet and a good night's sleep.  Business travelers, caveat emptor.More</t>
   </si>
   <si>
+    <t>Kindi W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r166665021-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1426,6 +1606,9 @@
     <t>We came to this hotel after leaving another nightmare place in the middle of the night. This was so much better! We travel with little ones, so our expectation's are not exceptionally high, being that we have to stay within a tight budget, but this hotel exceeded our expectations. Location was great, right off the freeway and in a good part of town. The breakfast was fine, better that most with the sausage and eggs. Orange juice was a little strong though. The room was a decent size and clean, beds were comfy. Nice bathroom. My husband used the fitness center and said that was a joke. Every machine was not only broken, but destroyed. Looked like there had not been a staff member in there to clean things up for fix the place in years. He said he also wouldn't touch the hot tub with a 10 foot pole. Didn't use the pool, but it looked decent. Lots of restaurants within walking distance and the staff was nice.More</t>
   </si>
   <si>
+    <t>Annette M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r166658263-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1438,6 +1621,9 @@
     <t>Was really surprised at how nice this hotel turned out to be. The hotel lobby was very nice and the rooms were better than I thought. The staff was very nice and friendly. The location is also very nice being close to Irvine Spectrum. Would definitely stay here again</t>
   </si>
   <si>
+    <t>Valerie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r161537664-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1465,6 +1651,9 @@
     <t>We have stayed at this hotel about four times in the last three years. Every stay it gets worse and worse. First they had a nice restaurant and bar that they closed down for no good reason. The meeting room had leaks in the ceiling which made the room smell like mold. They fixed the leak the next time we were there, but that smell might never go away. The hotel is clean most of the time, but at all hours of the night there is always some sort of party going on. At the end of our relationship with this hotel, the manager was so sour and bitter, she slammed doors around and pouted.If you want to stay at an average hotel, stay here. The front desk and other staff is friendly, but thats about it!More</t>
   </si>
   <si>
+    <t>Micro N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r148742450-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1483,6 +1672,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Cherith7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r148092812-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1501,6 +1693,9 @@
     <t>First impression was not great...our clerk was a bit odd and was not helpful at all, when we asked where the best place to park to be closest to our room he said "anywhere on the property" which was not the case... our room he said was "just down the hall" which was not the case.  He did allow us to check in a hour before 'check in time' which was nice.  The rooms were average..a couple of things that stood out to me were the bed spreads seemed very worn, you could not have the refrigerator and the microwave plugged in at the same time (but hey not all rooms come with such amenities.)   The heater worked great but it sounded like a freight train wreck each and every time it kicked on all through the night.  The hot tub was not working until the morning we left. One more added note:  The breakfast area offered a great hot waffle breakfast with eggs and bacon but is not in any way handicap accessible it is down four steps with no other entry, I watched an elderly lady trying to manage her wheeled walker down and the attendant was "not allowed to help her down the stairs." I would probably not stay here again I would try the Comfort Inn and Suites located just around the corner.More</t>
   </si>
   <si>
+    <t>virgo1252</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r137214595-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1522,6 +1717,9 @@
     <t>I stayed for 4 nights on a business trip.  Why I picked a Quality Inn considering my last experience with them in San Diego is beyond me but this one was a step up from the last one.  The grounds need some cleaning.  When walking up the steps to check in you can see there are alot of old drink stops that have not been washed in ages and it also looks like the steps haven't been swept in a while.  The room was exactly like the other except the bathroom was alot bigger and at least had more room for your stuff.  The bed was alright.  The breakfast was not too bad had plenty of choices.  If you want to have a drink at the bar has the front desk for a couple of tickets and you can get a glass of wine or beer.  It's clost to the freeway and the 5 minutes to the Irvine Center that has plenty of food, shopping and movies.  Stay out of the gym it is in the basement and creepy.  The equipment did work your better off going for a walk.  And the place had a funny smell from the time you walked in.  It is ok if you are on a budget and I have stayed at alot worse for more money.More</t>
   </si>
   <si>
+    <t>Joan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r133402392-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1540,6 +1738,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>CTBurke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r133307732-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1555,6 +1756,9 @@
     <t>I stay at Quality Inns often. This is one of THE BEST! Convenient location, friendly staff, pool, jacuzzi, spacious room, HDTV, couch, m/w, reefer, clean and modern and inexpensive. My room was nearest freeway w/ no noise issues, and on top floor (3rd) so I had high ceiling. High marks for everything "important" but... jacuzzi was only tepid and jets didn't work, breakfast was typical, but coffee was cold and proprietary waffles were "flimsy". I'll be back!</t>
   </si>
   <si>
+    <t>drinkmilkCa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r125961134-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1565,6 +1769,9 @@
   </si>
   <si>
     <t xml:space="preserve">This hotel is easy to get to off the 5 and is comfortable  enough. Breakfast is standard but adequate. Staff very nice and rooms clean </t>
+  </si>
+  <si>
+    <t>MCTTravels</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r123548425-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -1594,6 +1801,9 @@
   Breakfast was great as usual, (though half...I previously reviewed this hotel in June 2011, and stayed here again through the holidays from about mid December through the first week of January 2012. As before, this hotel in the Choice Hotel chain is quiet, a great place to de-stress after long work stretches, or for travelers, or seniors just trying to get some peace and quiet away from the grandkids. Not a Party Hotel for the drinking set, but gets plenty of guests who don't mind their absence! Making reservations through the ChoiceHotels.com site worked best for me and was very competitively priced.    The Staff and Manager here go really out of their way to be friendly, efficient and professional - and which makes any stay here a real pleasure. Other hotels I have traveled and stayed with aren't nearly so nice usually - some feel  "customer service" ends the moment you check in. By contrast - this Quality Inn &amp; Suites makes you feel at home. On some wintery cold nights the smell of their lobby fireplace wafting through the building reminds you of hotels as they used to be decades ago - but with all the modern amenities you expect these days.  The rooms are large, comfortable, very clean and well maintained, the beds are firm and have good heavy blankets - and coffee pots, microwaves and good small refrigerators set it apart really from lesser rated hotels.   Breakfast was great as usual, (though half the time I sleep through it- retirement is good for one thing at least!) but when I do get down to the spacious lobby dining area, the food is consistently hot, varied and tasty -and the line (if you go after 7:30 am) moves quickly. There's also a Chinese restaurant near the lobby that offers room service and has very decent prices for those days you just don't want to leave the room. WiFi is good for laptops and Androids, cell phone reception is good also. There's also a small exercise room on the bottom level next to a hot jacuzzi, one floor down from the very clean pool.    For a home away from home - this Quality Inn &amp; Suites will be on my list of favorites for a long time.More</t>
   </si>
   <si>
+    <t>Syndy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122943991-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1609,6 +1819,9 @@
     <t>Thank you Quality Inn &amp; Suites very much for making our groups New Years Eve party a success! The staff was very friendly and helpful!  The accommodations were very nice and clean.  I will be coming back to the area in May for a business meeting and will be staying with them again. I have also encouraged co-workers to stay here as well!  Great Job!</t>
   </si>
   <si>
+    <t>Diane E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122716682-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1624,6 +1837,9 @@
     <t>We had a great time there New Years Eve.  We had a group of over 100 people.  We had breakfast in the hotel and dinner in their Chinese Restaurant.  This is the fourth or fifth time that our group has been there and we are looking forward to going back again next year.</t>
   </si>
   <si>
+    <t>Pam S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r122693102-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1657,6 +1873,9 @@
     <t>I was the organizer and we had booked about 1/3 of the hotel. They worked with me often to make sure things went well. The front staff was always professional and did what they could to fulfill all our requirements. They even placed my guest near the banquet room so the noise would be kept to only my guest. For the price you would not believe how nice the place is, tasteful decor in the rooms, the lobby beautiful. The breakfast the next day was lovely, even though the hotel had been fully booked the server was great and tried to accommodate everyone best to her supplies. And the location is perfect and easy to find. Plus it has McDonald's next door for those who want a late night nibble. This was our second year having a party and I would recommend this to anyone, even my Mom who also went to the party and had a great time.More</t>
   </si>
   <si>
+    <t>skypark91107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r118015005-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1714,6 +1933,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>tsmoore88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r110130461-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1735,6 +1957,9 @@
     <t>My fiancee and I recently had the pleasure of staying at this surprisingly accommodating hotel, it is centrally located right off of the 5 freeway close to just about everything. I went to High School in Lake Forest and never had the pleasure of exploring the hotel until now and I can assure you it does impress! It is quite affordable and as with all Choice Hotel brands everything was exceptionally clean and the property was very well maintained. The clerk at the front desk welcomed us warmly and the night auditor was exceedingly helpful when we checked out early. The only single drawback of the room was that the faucet in the bathroom was barely long enough to hang over the sink and consequently you cannot avoid bumping your hands on the sink while trying to wash them- nothing a little update couldn’t fix- other than that my only suggestion is an upgrade to flat screen LCD televisions but the room was just fine without one.More</t>
   </si>
   <si>
+    <t>loveiylady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r104669299-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1750,6 +1975,9 @@
     <t>Great environment! ! Stay here when I am in town... clean.. &amp;comfortable love it here .. not to expensive either ...</t>
   </si>
   <si>
+    <t>balrdh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r98021056-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1768,6 +1996,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>marriedw/3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r78793632-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1783,6 +2014,9 @@
     <t>We stayed last weekend with our daughter's soccer team.  All of the parents kept commenting about how nice the hotel was for the price we paid.  Clean rooms, excellent customer service, great breakfast options for the girls and convenient location.  I would highly recommend this hotel to anyone staying in the area and our soccer team will definitely return again next year!</t>
   </si>
   <si>
+    <t>Betsyin85308</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r76839846-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1801,6 +2035,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>MissPanda22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r75496763-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1825,6 +2062,9 @@
     <t>Thank you for everything your hotel was one of the best of I have ever stayed at , and especially because of your Customer Quality of Service... Jim at the front desk was absolutely amazing and very helpful.More</t>
   </si>
   <si>
+    <t>41sunshine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r75081553-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1843,6 +2083,9 @@
     <t>I was very happy with this hotel.  The on line description fit the real place very well.  It was close to everything I wanted to do.  The staff was most helpful and the room an breakfast area was clean and great.  Even the cocktail hour was good. Would go back in a heartbeat and will recommend it to my friends.More</t>
   </si>
   <si>
+    <t>gymath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r74620616-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1864,6 +2107,9 @@
     <t>Hotel is very pretty.  Lobby is beautiful.  McDonald's so close I thought we were parked in their parking lot!  Lady at desk, nice, but rough around the edges!  Gave us our key, went up to the room....TV on and suitcases....someone else already assigned to room.  Sat in hallway with kids while husband got us another room.  Bathroom was small.  Sink was outside of toilet and shower area.  Room was a tad small, but fine. Breakfast area was large, but still crowded.  Man filling the food was terrible at it.  Couldn't keep up.  Dropped huge boxes of plasticware on counter because he couldn't even keep those filled.  There were round eggs that were gross, sausage, cereals, breads, juices, coffee, and waffles.  There are two waffle makers....second one was over on the other counter, nobody noticed it at first.  Lots of little bugs flying around....probably because doors were open when we arrived the night before.  Chinese restaurant on property, didn't eat there.  Overall....good stay.  Stayed here because it was near Wild Rivers Water Park....literally like three minutes up the road.  Just stayed one night.  Was the most expensive hotel we stayed at during our trip to California from the east coast.  Payed about $130 with AAA discount. Nieghborhood was nice and felt safe.  There was an outdoor pool, but we didn't use it. Internet didn't work with my new lap top.More</t>
   </si>
   <si>
+    <t>Juuls27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r67980047-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1889,6 +2135,9 @@
   </si>
   <si>
     <t>Very good hotel, wel taken care off.Friendly staff, good breakfast and lovely rooms. Not a bad thing to say about.Would definetely recommend!More</t>
+  </si>
+  <si>
+    <t>Samantha_Marie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r17623265-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -1924,6 +2173,9 @@
 Warning: While the...I am usually tolerant of economy motels, but I would not go back here.  To be fair, the property looked nice, and it was clean. The water pressure was good, and the iron and fridge were in working order. The bagels were fresh.  And I paid only $109 for a room with 2 queen beds.  But...First of all, it was very humid inside. The weather outside was not, so it was clearly an issue at the motel. The room was strangely shaped, so the air conditioner was actually pointed at an angle towards a wall, rather than into the room, so it didn't help much. In addition, the exhaust fan in the bathroom was not very effective, and it just made the humidity worse.The bed was uncomfortable, and the pillows were lumpy and flat.  The towels were thin.  In this age of cable and satellite TV, there were very few TV channels available.I can see now why motel rooms often have an extra sink outside the bathroom - this one didn't. Traveling with my husband and two sons, I did not have an extra place to do my hair, put on make-up, etc. I even had to move the coffee pot out onto the dresser, and had to announce myself as I opened the bathroom door to get water.The staff did not replace the cofffee or cups we used on the first day.Warning: While the water in the pool was nice, the pool had an "L" shape, and you couldn't see around the corner. A parent of young children would have to be particularly vigilant.I thought that Best Western was a higher quality chain than some others in the area, but I was wrong.More</t>
   </si>
   <si>
+    <t>mudskipper27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r15330565-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1943,6 +2195,9 @@
   </si>
   <si>
     <t>I stayed in this hotel for business travel. The room was just acceptable - clean, but not much natural light, and a little claustrophobia inducing. The main problem with this place is that there is a Chinese restaurant on the first floor, so the entire place smells of Chinese food. I like the food as much as the next person, but it was nauseating to smell it all the time. Plus I saw someone drying noodles over a bucket outside (seriously). The pool did not look like something most people would want to swim in. A colleague of mine got stuck in the elevator there for about 10 minutes, and the staff did not seem concerned or apologetic when she finally got out.I stayed in a room toward the front of the hotel and was OK, but a friend of mine who stayed farther back said she didn't feel safe.The continental breakfast is a joke - some apples, plastic-wrapped danishes, bad coffee, and hard-boiled eggs (which were my saving grace, incidentally). Generally nasty, and the smell of Chinese food doesn't help.More</t>
+  </si>
+  <si>
+    <t>ArtShapiro</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r11468108-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -1967,6 +2222,9 @@
 The odd: The building is shaped like a tall "T", with the lobby at the base of the T.  I was at the furthest point possible from the lobby - the end of the cross of the T.  And...I stayed here for two nights while my house, three blocks away, was being tented and fumigated for termites.  So obviously the location was ideal - I could easily go home to check my mail and pick up the newspaper out of the driveway!Overall, I was content.  The room was quite quiet, with the soundproofing good enough to not be bothered by adjacent rooms or from the nearby Interstate 5.  The king bed seemed exceptionally comfortable, and the room heater easily kept the room comfy on a cool, rainy day.  There was adequate storage area, even for my wife, who brought a ridiculous amount of stuff for a short stay.   The wired and wireless internet connectivity let me use my three laptops without incident and with no disconnects.  There were two refrigerators and a two-burner stove which I didn't use.  Lots of more-upscale amenIties: Ironing board/iron, hair drier, coffee maker with proletarian coffee.  There was a sofa-bed couch.  The room was quite full of furniture for its size.  The continental breakfast was adequate, and there was a free "Happy Hour" that I used one of the two evenings to unwind with a rather mediocre white zin - I think Inglenook.  The odd: The building is shaped like a tall "T", with the lobby at the base of the T.  I was at the furthest point possible from the lobby - the end of the cross of the T.  And the stairwell right next to my room only went between floors, not to the outside.  So while I might have expected to park near my room, in reality it was a fairly long walk to get to my car because the only hotel entrance is the lobby!The bad: checkin was slow.  The single desk clerk was apparently processing multiple reservations from a travel agent or consolidator, reading off confirmation numbers as he typed stuff into his computer.  It took about  15 minutes before he would acknowledge me standing there.  The disposable paper-thin plastic glasses were a joke - happily I had brought a mug from home.  The bathtub was surprisingly small, and it had one of those impossible to use (and I'm an engineer) faucets which is either totally on or totally off with the dial rotation somehow adjusting the temperature.  Well, it took me as long as five minutes to figure out how to get passably warm (never hot) water.  The crummy clock radio seemed to be the one universally found in motels and which can barely receive the strongest AM stations without being overwhelmed by hum.  (Again, I brought my own.)  And there were insufficient electrical outlets; almost every one in the room was already used for something.  I coped, but wish I had brought an outlet strip as I often do.Oh yeah - they allow pets, but at $50 / head I wasn't about to bring the four kitties.  They were boarded at the vet's, a fairly traumatic ordeal for them, but I would have loved to have them in the room.So these few minor quibbles really don't outweigh the fact that I had a quiet, comfortable stay without spending a fortune.  I'd go back without complaint.Art ShapiroMore</t>
   </si>
   <si>
+    <t>jadookissne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r7545915-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1985,6 +2243,9 @@
     <t>We usually stay in the area and could not get our hotel of choice and they suggested the Best Western.  It was aweful, the hotel has a chinese restaurant with poor ventilation and you can smell the food in the lobby and the walkways it ws disgusting.  It looked as they just redid the lobby which was nice, but the rooms were terrible.  The worst condition, poorly decorated and the bathroom had avocado green tiles.  The sink was dirty and the hotel just had a terrible feel to it.  The pool/spa/gym and the whole area was run down with broken concreate and it was just dirty.  I was to stay their for four days, but after the first night I moved to another hotel out of the area.  This was one of the worst hotel stays I have ever had, it was just dirty.More</t>
   </si>
   <si>
+    <t>WIA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r5972184-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -2001,6 +2262,9 @@
   </si>
   <si>
     <t>October 2006</t>
+  </si>
+  <si>
+    <t>KMG3651</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r5763299-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -2024,6 +2288,9 @@
   <si>
     <t>My Mom came to visit me from out of town and booked 3 nights here, at $135/night.  They checked her into a room directly above the Chinese restaurant, which as all the reviews have stated, stink up the place something fierce.  Well, this room had a bathroom that looked as if it hadn't been cleaned in a month. When we asked to have the bathroom cleaned, we were told that housekeeping had gone home for the day, and that someone would have to be called to come back in, and that this would take a few hours.  O.K.??.....  When we inquired as to moving her to another room, the only room available was in the main lobby, right next to the front desk.  Well, we found out the hard way, by me trying to call her in the room, that the phone didn't work.  They said they had no replacement, or anyway to fix it.  Needless to say, this is by far the worst experience we've ever had with a hotel/motel, and we have traveled all over the country.  It is an injustice that they charge $135 for a night in their facility. 
 We ended up canceling the rest of the reservation after 1 night, and moved to Laguna Woods Lodge, only 1 more exit down the freeway, where the rooms were clean, the staff was very friendly, and the price was only approx. $85 for a single queen bed....My Mom came to visit me from out of town and booked 3 nights here, at $135/night.  They checked her into a room directly above the Chinese restaurant, which as all the reviews have stated, stink up the place something fierce.  Well, this room had a bathroom that looked as if it hadn't been cleaned in a month. When we asked to have the bathroom cleaned, we were told that housekeeping had gone home for the day, and that someone would have to be called to come back in, and that this would take a few hours.  O.K.??.....  When we inquired as to moving her to another room, the only room available was in the main lobby, right next to the front desk.  Well, we found out the hard way, by me trying to call her in the room, that the phone didn't work.  They said they had no replacement, or anyway to fix it.  Needless to say, this is by far the worst experience we've ever had with a hotel/motel, and we have traveled all over the country.  It is an injustice that they charge $135 for a night in their facility. We ended up canceling the rest of the reservation after 1 night, and moved to Laguna Woods Lodge, only 1 more exit down the freeway, where the rooms were clean, the staff was very friendly, and the price was only approx. $85 for a single queen bed.I would not recommend the Best Western in El Toro/Lake Forest under any circumstances.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d235433-r3808297-Quality_Inn_Suites_Irvine_Spectrum-Lake_Forest_California.html</t>
@@ -2546,43 +2813,47 @@
       <c r="A2" t="n">
         <v>25532</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2602,50 +2873,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>25532</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2661,50 +2936,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25532</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2718,50 +2997,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>25532</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2781,50 +3064,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25532</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2844,50 +3131,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>25532</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2901,50 +3192,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>25532</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2962,50 +3257,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>25532</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3023,50 +3322,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>25532</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3084,50 +3387,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>25532</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3141,50 +3448,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>25532</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3200,50 +3511,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>25532</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3259,56 +3574,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>25532</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3322,50 +3641,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>25532</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3383,56 +3706,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>25532</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3444,56 +3771,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>25532</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3511,41 +3842,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>25532</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -3564,50 +3899,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>25532</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3621,50 +3960,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>25532</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3678,50 +4021,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>25532</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3739,50 +4086,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>25532</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3802,50 +4153,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>25532</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3865,50 +4220,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>25532</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3928,50 +4287,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>25532</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3989,41 +4352,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25532</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -4042,50 +4409,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25532</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4099,50 +4470,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25532</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4160,50 +4535,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>25532</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4223,50 +4602,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>25532</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4280,50 +4663,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>25532</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4343,50 +4730,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>25532</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4404,50 +4795,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>25532</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4465,50 +4860,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>25532</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4528,50 +4927,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>25532</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4591,50 +4994,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>25532</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4654,50 +5061,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>25532</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4717,50 +5128,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25532</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4780,50 +5195,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>25532</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>317</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4843,50 +5262,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>25532</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4904,50 +5327,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>25532</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4967,50 +5394,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>25532</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5030,50 +5461,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>25532</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>346</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5093,50 +5528,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>25532</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5154,50 +5593,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>25532</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>360</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5211,50 +5654,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>25532</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>368</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5274,50 +5721,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>25532</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5331,50 +5782,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>25532</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="J48" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5388,50 +5843,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>25532</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>390</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="J49" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="K49" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5451,50 +5910,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>25532</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>397</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="J50" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="K50" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5516,56 +5979,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="X50" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="Y50" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>25532</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>407</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="J51" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5587,56 +6054,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="X51" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="Y51" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>25532</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>414</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="J52" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="K52" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="L52" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5658,56 +6129,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="X52" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="Y52" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>25532</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>424</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="J53" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="K53" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="O53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5729,47 +6204,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="X53" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="Y53" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>25532</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>433</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="J54" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="K54" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="L54" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5796,56 +6275,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="X54" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="Y54" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>25532</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>440</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="J55" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="K55" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="L55" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5859,50 +6342,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>25532</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>446</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="J56" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="K56" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="L56" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5926,41 +6413,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>25532</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>453</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="J57" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="K57" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="L57" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5989,50 +6480,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>25532</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>459</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="J58" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="K58" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6056,50 +6551,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>25532</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>466</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="J59" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="K59" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="O59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6123,41 +6622,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>25532</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>474</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="J60" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="K60" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
@@ -6186,50 +6689,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>25532</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>481</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="J61" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="K61" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6253,50 +6760,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>25532</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6320,50 +6831,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>25532</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>495</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="J63" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="K63" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O63" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6387,41 +6902,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>25532</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="J64" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="K64" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6450,50 +6969,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>25532</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>507</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="K65" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="L65" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6505,56 +7028,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="X65" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="Y65" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>25532</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>517</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="J66" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="K66" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="L66" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6578,50 +7105,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>25532</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>524</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="J67" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="K67" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="L67" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="O67" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6645,50 +7176,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>25532</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>531</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="J68" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="K68" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="L68" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6712,50 +7247,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>25532</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>539</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="J69" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="O69" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6779,50 +7318,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>25532</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>546</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="J70" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="K70" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6846,41 +7389,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>25532</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>552</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="J71" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="K71" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="L71" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -6909,50 +7456,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>25532</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>557</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="K72" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="L72" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="O72" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6976,50 +7527,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>25532</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>565</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="J73" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="K73" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7043,50 +7598,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>25532</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>571</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="J74" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="K74" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="L74" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7110,50 +7669,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>25532</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>577</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="J75" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="K75" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="L75" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7177,50 +7740,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>25532</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>517</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="J76" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="K76" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="L76" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7244,50 +7811,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>25532</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>589</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="J77" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="K77" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="O77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7307,7 +7878,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78">
@@ -7320,37 +7891,37 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="J78" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="K78" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="L78" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="O78" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7370,7 +7941,7 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79">
@@ -7383,37 +7954,37 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="J79" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="K79" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="L79" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="O79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7433,50 +8004,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>25532</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>609</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="J80" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="K80" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="L80" t="s">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>541</v>
+        <v>615</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7500,41 +8075,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>542</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>25532</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>617</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="J81" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="K81" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="L81" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -7563,50 +8142,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>25532</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>623</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="J82" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="K82" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
       <c r="L82" t="s">
-        <v>552</v>
+        <v>628</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="O82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7630,41 +8213,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>552</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>25532</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>630</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="J83" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="K83" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="L83" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -7693,50 +8280,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>25532</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>636</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="J84" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="K84" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="L84" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7760,50 +8351,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>25532</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>643</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="J85" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="K85" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="L85" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7825,56 +8420,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="X85" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="Y85" t="s">
-        <v>572</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>25532</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>652</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="J86" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="K86" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="L86" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7896,56 +8495,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="X86" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="Y86" t="s">
-        <v>578</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>25532</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>659</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="J87" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="K87" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="L87" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="O87" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -7969,50 +8572,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>585</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>25532</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>667</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="J88" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="K88" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="L88" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8034,56 +8641,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="X88" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="Y88" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>25532</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>677</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>595</v>
+        <v>678</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>596</v>
+        <v>679</v>
       </c>
       <c r="J89" t="s">
-        <v>597</v>
+        <v>680</v>
       </c>
       <c r="K89" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="L89" t="s">
-        <v>599</v>
+        <v>682</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>600</v>
+        <v>683</v>
       </c>
       <c r="O89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8105,50 +8716,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>601</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>25532</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>685</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="J90" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="K90" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="L90" t="s">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>607</v>
+        <v>691</v>
       </c>
       <c r="O90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -8172,41 +8787,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>25532</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>693</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>609</v>
+        <v>694</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="J91" t="s">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="K91" t="s">
-        <v>612</v>
+        <v>697</v>
       </c>
       <c r="L91" t="s">
-        <v>613</v>
+        <v>698</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
@@ -8235,41 +8854,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>614</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>25532</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>700</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="J92" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="K92" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
       <c r="L92" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
@@ -8288,50 +8911,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>620</v>
+        <v>706</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>25532</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>707</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="J93" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="K93" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="L93" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="O93" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8355,50 +8982,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>625</v>
+        <v>712</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>25532</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>714</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="J94" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="K94" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
       <c r="L94" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
       <c r="O94" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8422,50 +9053,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>633</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>25532</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>722</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>635</v>
+        <v>724</v>
       </c>
       <c r="J95" t="s">
-        <v>636</v>
+        <v>725</v>
       </c>
       <c r="K95" t="s">
-        <v>637</v>
+        <v>726</v>
       </c>
       <c r="L95" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>639</v>
+        <v>728</v>
       </c>
       <c r="O95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8487,7 +9122,7 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
